--- a/xlsx/screenings.xlsx
+++ b/xlsx/screenings.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="253">
   <si>
     <t>Screening Date and Time</t>
   </si>
@@ -716,6 +716,60 @@
   </si>
   <si>
     <t>Screening 1, 4/21/2017 13:00:00</t>
+  </si>
+  <si>
+    <t>Silver Creek Elementary School Gymnasium</t>
+  </si>
+  <si>
+    <t>609 5th Street</t>
+  </si>
+  <si>
+    <t>Silver Creek</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>68663</t>
+  </si>
+  <si>
+    <t>Screening 1, 5/5/2017 9:07:00</t>
+  </si>
+  <si>
+    <t>Pelham High School</t>
+  </si>
+  <si>
+    <t>85 Marsh Rd</t>
+  </si>
+  <si>
+    <t>Pelham</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>03076</t>
+  </si>
+  <si>
+    <t>Screening 1, 5/4/2017 15:39:00</t>
+  </si>
+  <si>
+    <t>Hudson Lab School</t>
+  </si>
+  <si>
+    <t>185 Old Broadway</t>
+  </si>
+  <si>
+    <t>Hastings-on-Hudson</t>
+  </si>
+  <si>
+    <t>10706</t>
+  </si>
+  <si>
+    <t>https://www.eventbrite.com/e/most-likely-to-succeed-screening-tickets-34323124389</t>
+  </si>
+  <si>
+    <t>Screening 1, 4/8/2017 9:33:00</t>
   </si>
 </sst>
 </file>
@@ -726,7 +780,7 @@
     <numFmt numFmtId="164" formatCode="M/d/yyyy H:mm:ss"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -746,6 +800,11 @@
     </font>
     <font>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font/>
@@ -775,7 +834,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -815,16 +874,29 @@
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2014,2888 +2086,3942 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="9"/>
+      <c r="A44" s="13">
+        <v>42873.770833333336</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>239</v>
+      </c>
       <c r="G44" s="10"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="15"/>
+      <c r="H44" s="17">
+        <v>42860.37986111111</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="45">
-      <c r="F45" s="16"/>
+      <c r="A45" s="13">
+        <v>42885.75</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="G45" s="10"/>
+      <c r="H45" s="17">
+        <v>42859.652083333334</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="46">
-      <c r="F46" s="16"/>
+      <c r="A46" s="13">
+        <v>42878.583333333336</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="H46" s="17">
+        <v>42833.39791666667</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="47">
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
       <c r="F47" s="16"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="15"/>
     </row>
     <row r="48">
-      <c r="F48" s="16"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="15"/>
     </row>
     <row r="49">
-      <c r="F49" s="16"/>
+      <c r="A49" s="20"/>
+      <c r="F49" s="21"/>
     </row>
     <row r="50">
-      <c r="F50" s="16"/>
+      <c r="A50" s="20"/>
+      <c r="F50" s="21"/>
     </row>
     <row r="51">
-      <c r="F51" s="16"/>
+      <c r="A51" s="20"/>
+      <c r="F51" s="21"/>
     </row>
     <row r="52">
-      <c r="F52" s="16"/>
+      <c r="A52" s="20"/>
+      <c r="F52" s="21"/>
     </row>
     <row r="53">
-      <c r="F53" s="16"/>
+      <c r="A53" s="20"/>
+      <c r="F53" s="21"/>
     </row>
     <row r="54">
-      <c r="F54" s="16"/>
+      <c r="A54" s="20"/>
+      <c r="F54" s="21"/>
     </row>
     <row r="55">
-      <c r="F55" s="16"/>
+      <c r="A55" s="20"/>
+      <c r="F55" s="21"/>
     </row>
     <row r="56">
-      <c r="F56" s="16"/>
+      <c r="A56" s="20"/>
+      <c r="F56" s="21"/>
     </row>
     <row r="57">
-      <c r="F57" s="16"/>
+      <c r="A57" s="20"/>
+      <c r="F57" s="21"/>
     </row>
     <row r="58">
-      <c r="F58" s="16"/>
+      <c r="A58" s="20"/>
+      <c r="F58" s="21"/>
     </row>
     <row r="59">
-      <c r="F59" s="16"/>
+      <c r="A59" s="20"/>
+      <c r="F59" s="21"/>
     </row>
     <row r="60">
-      <c r="F60" s="16"/>
+      <c r="A60" s="20"/>
+      <c r="F60" s="21"/>
     </row>
     <row r="61">
-      <c r="F61" s="16"/>
+      <c r="A61" s="20"/>
+      <c r="F61" s="21"/>
     </row>
     <row r="62">
-      <c r="F62" s="16"/>
+      <c r="A62" s="20"/>
+      <c r="F62" s="21"/>
     </row>
     <row r="63">
-      <c r="F63" s="16"/>
+      <c r="A63" s="20"/>
+      <c r="F63" s="21"/>
     </row>
     <row r="64">
-      <c r="F64" s="16"/>
+      <c r="A64" s="20"/>
+      <c r="F64" s="21"/>
     </row>
     <row r="65">
-      <c r="F65" s="16"/>
+      <c r="A65" s="20"/>
+      <c r="F65" s="21"/>
     </row>
     <row r="66">
-      <c r="F66" s="16"/>
+      <c r="A66" s="20"/>
+      <c r="F66" s="21"/>
     </row>
     <row r="67">
-      <c r="F67" s="16"/>
+      <c r="A67" s="20"/>
+      <c r="F67" s="21"/>
     </row>
     <row r="68">
-      <c r="F68" s="16"/>
+      <c r="A68" s="20"/>
+      <c r="F68" s="21"/>
     </row>
     <row r="69">
-      <c r="F69" s="16"/>
+      <c r="A69" s="20"/>
+      <c r="F69" s="21"/>
     </row>
     <row r="70">
-      <c r="F70" s="16"/>
+      <c r="A70" s="20"/>
+      <c r="F70" s="21"/>
     </row>
     <row r="71">
-      <c r="F71" s="16"/>
+      <c r="A71" s="20"/>
+      <c r="F71" s="21"/>
     </row>
     <row r="72">
-      <c r="F72" s="16"/>
+      <c r="A72" s="20"/>
+      <c r="F72" s="21"/>
     </row>
     <row r="73">
-      <c r="F73" s="16"/>
+      <c r="A73" s="20"/>
+      <c r="F73" s="21"/>
     </row>
     <row r="74">
-      <c r="F74" s="16"/>
+      <c r="A74" s="20"/>
+      <c r="F74" s="21"/>
     </row>
     <row r="75">
-      <c r="F75" s="16"/>
+      <c r="A75" s="20"/>
+      <c r="F75" s="21"/>
     </row>
     <row r="76">
-      <c r="F76" s="16"/>
+      <c r="A76" s="20"/>
+      <c r="F76" s="21"/>
     </row>
     <row r="77">
-      <c r="F77" s="16"/>
+      <c r="A77" s="20"/>
+      <c r="F77" s="21"/>
     </row>
     <row r="78">
-      <c r="F78" s="16"/>
+      <c r="A78" s="20"/>
+      <c r="F78" s="21"/>
     </row>
     <row r="79">
-      <c r="F79" s="16"/>
+      <c r="A79" s="20"/>
+      <c r="F79" s="21"/>
     </row>
     <row r="80">
-      <c r="F80" s="16"/>
+      <c r="A80" s="20"/>
+      <c r="F80" s="21"/>
     </row>
     <row r="81">
-      <c r="F81" s="16"/>
+      <c r="A81" s="20"/>
+      <c r="F81" s="21"/>
     </row>
     <row r="82">
-      <c r="F82" s="16"/>
+      <c r="A82" s="20"/>
+      <c r="F82" s="21"/>
     </row>
     <row r="83">
-      <c r="F83" s="16"/>
+      <c r="A83" s="20"/>
+      <c r="F83" s="21"/>
     </row>
     <row r="84">
-      <c r="F84" s="16"/>
+      <c r="A84" s="20"/>
+      <c r="F84" s="21"/>
     </row>
     <row r="85">
-      <c r="F85" s="16"/>
+      <c r="A85" s="20"/>
+      <c r="F85" s="21"/>
     </row>
     <row r="86">
-      <c r="F86" s="16"/>
+      <c r="A86" s="20"/>
+      <c r="F86" s="21"/>
     </row>
     <row r="87">
-      <c r="F87" s="16"/>
+      <c r="A87" s="20"/>
+      <c r="F87" s="21"/>
     </row>
     <row r="88">
-      <c r="F88" s="16"/>
+      <c r="A88" s="20"/>
+      <c r="F88" s="21"/>
     </row>
     <row r="89">
-      <c r="F89" s="16"/>
+      <c r="A89" s="20"/>
+      <c r="F89" s="21"/>
     </row>
     <row r="90">
-      <c r="F90" s="16"/>
+      <c r="A90" s="20"/>
+      <c r="F90" s="21"/>
     </row>
     <row r="91">
-      <c r="F91" s="16"/>
+      <c r="A91" s="20"/>
+      <c r="F91" s="21"/>
     </row>
     <row r="92">
-      <c r="F92" s="16"/>
+      <c r="A92" s="20"/>
+      <c r="F92" s="21"/>
     </row>
     <row r="93">
-      <c r="F93" s="16"/>
+      <c r="A93" s="20"/>
+      <c r="F93" s="21"/>
     </row>
     <row r="94">
-      <c r="F94" s="16"/>
+      <c r="A94" s="20"/>
+      <c r="F94" s="21"/>
     </row>
     <row r="95">
-      <c r="F95" s="16"/>
+      <c r="A95" s="20"/>
+      <c r="F95" s="21"/>
     </row>
     <row r="96">
-      <c r="F96" s="16"/>
+      <c r="A96" s="20"/>
+      <c r="F96" s="21"/>
     </row>
     <row r="97">
-      <c r="F97" s="16"/>
+      <c r="A97" s="20"/>
+      <c r="F97" s="21"/>
     </row>
     <row r="98">
-      <c r="F98" s="16"/>
+      <c r="A98" s="20"/>
+      <c r="F98" s="21"/>
     </row>
     <row r="99">
-      <c r="F99" s="16"/>
+      <c r="A99" s="20"/>
+      <c r="F99" s="21"/>
     </row>
     <row r="100">
-      <c r="F100" s="16"/>
+      <c r="A100" s="20"/>
+      <c r="F100" s="21"/>
     </row>
     <row r="101">
-      <c r="F101" s="16"/>
+      <c r="A101" s="20"/>
+      <c r="F101" s="21"/>
     </row>
     <row r="102">
-      <c r="F102" s="16"/>
+      <c r="A102" s="20"/>
+      <c r="F102" s="21"/>
     </row>
     <row r="103">
-      <c r="F103" s="16"/>
+      <c r="A103" s="20"/>
+      <c r="F103" s="21"/>
     </row>
     <row r="104">
-      <c r="F104" s="16"/>
+      <c r="A104" s="20"/>
+      <c r="F104" s="21"/>
     </row>
     <row r="105">
-      <c r="F105" s="16"/>
+      <c r="A105" s="20"/>
+      <c r="F105" s="21"/>
     </row>
     <row r="106">
-      <c r="F106" s="16"/>
+      <c r="A106" s="20"/>
+      <c r="F106" s="21"/>
     </row>
     <row r="107">
-      <c r="F107" s="16"/>
+      <c r="A107" s="20"/>
+      <c r="F107" s="21"/>
     </row>
     <row r="108">
-      <c r="F108" s="16"/>
+      <c r="A108" s="20"/>
+      <c r="F108" s="21"/>
     </row>
     <row r="109">
-      <c r="F109" s="16"/>
+      <c r="A109" s="20"/>
+      <c r="F109" s="21"/>
     </row>
     <row r="110">
-      <c r="F110" s="16"/>
+      <c r="A110" s="20"/>
+      <c r="F110" s="21"/>
     </row>
     <row r="111">
-      <c r="F111" s="16"/>
+      <c r="A111" s="20"/>
+      <c r="F111" s="21"/>
     </row>
     <row r="112">
-      <c r="F112" s="16"/>
+      <c r="A112" s="20"/>
+      <c r="F112" s="21"/>
     </row>
     <row r="113">
-      <c r="F113" s="16"/>
+      <c r="A113" s="20"/>
+      <c r="F113" s="21"/>
     </row>
     <row r="114">
-      <c r="F114" s="16"/>
+      <c r="A114" s="20"/>
+      <c r="F114" s="21"/>
     </row>
     <row r="115">
-      <c r="F115" s="16"/>
+      <c r="A115" s="20"/>
+      <c r="F115" s="21"/>
     </row>
     <row r="116">
-      <c r="F116" s="16"/>
+      <c r="A116" s="20"/>
+      <c r="F116" s="21"/>
     </row>
     <row r="117">
-      <c r="F117" s="16"/>
+      <c r="A117" s="20"/>
+      <c r="F117" s="21"/>
     </row>
     <row r="118">
-      <c r="F118" s="16"/>
+      <c r="A118" s="20"/>
+      <c r="F118" s="21"/>
     </row>
     <row r="119">
-      <c r="F119" s="16"/>
+      <c r="A119" s="20"/>
+      <c r="F119" s="21"/>
     </row>
     <row r="120">
-      <c r="F120" s="16"/>
+      <c r="A120" s="20"/>
+      <c r="F120" s="21"/>
     </row>
     <row r="121">
-      <c r="F121" s="16"/>
+      <c r="A121" s="20"/>
+      <c r="F121" s="21"/>
     </row>
     <row r="122">
-      <c r="F122" s="16"/>
+      <c r="A122" s="20"/>
+      <c r="F122" s="21"/>
     </row>
     <row r="123">
-      <c r="F123" s="16"/>
+      <c r="A123" s="20"/>
+      <c r="F123" s="21"/>
     </row>
     <row r="124">
-      <c r="F124" s="16"/>
+      <c r="A124" s="20"/>
+      <c r="F124" s="21"/>
     </row>
     <row r="125">
-      <c r="F125" s="16"/>
+      <c r="A125" s="20"/>
+      <c r="F125" s="21"/>
     </row>
     <row r="126">
-      <c r="F126" s="16"/>
+      <c r="A126" s="20"/>
+      <c r="F126" s="21"/>
     </row>
     <row r="127">
-      <c r="F127" s="16"/>
+      <c r="A127" s="20"/>
+      <c r="F127" s="21"/>
     </row>
     <row r="128">
-      <c r="F128" s="16"/>
+      <c r="A128" s="20"/>
+      <c r="F128" s="21"/>
     </row>
     <row r="129">
-      <c r="F129" s="16"/>
+      <c r="A129" s="20"/>
+      <c r="F129" s="21"/>
     </row>
     <row r="130">
-      <c r="F130" s="16"/>
+      <c r="A130" s="20"/>
+      <c r="F130" s="21"/>
     </row>
     <row r="131">
-      <c r="F131" s="16"/>
+      <c r="A131" s="20"/>
+      <c r="F131" s="21"/>
     </row>
     <row r="132">
-      <c r="F132" s="16"/>
+      <c r="A132" s="20"/>
+      <c r="F132" s="21"/>
     </row>
     <row r="133">
-      <c r="F133" s="16"/>
+      <c r="A133" s="20"/>
+      <c r="F133" s="21"/>
     </row>
     <row r="134">
-      <c r="F134" s="16"/>
+      <c r="A134" s="20"/>
+      <c r="F134" s="21"/>
     </row>
     <row r="135">
-      <c r="F135" s="16"/>
+      <c r="A135" s="20"/>
+      <c r="F135" s="21"/>
     </row>
     <row r="136">
-      <c r="F136" s="16"/>
+      <c r="A136" s="20"/>
+      <c r="F136" s="21"/>
     </row>
     <row r="137">
-      <c r="F137" s="16"/>
+      <c r="A137" s="20"/>
+      <c r="F137" s="21"/>
     </row>
     <row r="138">
-      <c r="F138" s="16"/>
+      <c r="A138" s="20"/>
+      <c r="F138" s="21"/>
     </row>
     <row r="139">
-      <c r="F139" s="16"/>
+      <c r="A139" s="20"/>
+      <c r="F139" s="21"/>
     </row>
     <row r="140">
-      <c r="F140" s="16"/>
+      <c r="A140" s="20"/>
+      <c r="F140" s="21"/>
     </row>
     <row r="141">
-      <c r="F141" s="16"/>
+      <c r="A141" s="20"/>
+      <c r="F141" s="21"/>
     </row>
     <row r="142">
-      <c r="F142" s="16"/>
+      <c r="A142" s="20"/>
+      <c r="F142" s="21"/>
     </row>
     <row r="143">
-      <c r="F143" s="16"/>
+      <c r="A143" s="20"/>
+      <c r="F143" s="21"/>
     </row>
     <row r="144">
-      <c r="F144" s="16"/>
+      <c r="A144" s="20"/>
+      <c r="F144" s="21"/>
     </row>
     <row r="145">
-      <c r="F145" s="16"/>
+      <c r="A145" s="20"/>
+      <c r="F145" s="21"/>
     </row>
     <row r="146">
-      <c r="F146" s="16"/>
+      <c r="A146" s="20"/>
+      <c r="F146" s="21"/>
     </row>
     <row r="147">
-      <c r="F147" s="16"/>
+      <c r="A147" s="20"/>
+      <c r="F147" s="21"/>
     </row>
     <row r="148">
-      <c r="F148" s="16"/>
+      <c r="A148" s="20"/>
+      <c r="F148" s="21"/>
     </row>
     <row r="149">
-      <c r="F149" s="16"/>
+      <c r="A149" s="20"/>
+      <c r="F149" s="21"/>
     </row>
     <row r="150">
-      <c r="F150" s="16"/>
+      <c r="A150" s="20"/>
+      <c r="F150" s="21"/>
     </row>
     <row r="151">
-      <c r="F151" s="16"/>
+      <c r="A151" s="20"/>
+      <c r="F151" s="21"/>
     </row>
     <row r="152">
-      <c r="F152" s="16"/>
+      <c r="A152" s="20"/>
+      <c r="F152" s="21"/>
     </row>
     <row r="153">
-      <c r="F153" s="16"/>
+      <c r="A153" s="20"/>
+      <c r="F153" s="21"/>
     </row>
     <row r="154">
-      <c r="F154" s="16"/>
+      <c r="A154" s="20"/>
+      <c r="F154" s="21"/>
     </row>
     <row r="155">
-      <c r="F155" s="16"/>
+      <c r="A155" s="20"/>
+      <c r="F155" s="21"/>
     </row>
     <row r="156">
-      <c r="F156" s="16"/>
+      <c r="A156" s="20"/>
+      <c r="F156" s="21"/>
     </row>
     <row r="157">
-      <c r="F157" s="16"/>
+      <c r="A157" s="20"/>
+      <c r="F157" s="21"/>
     </row>
     <row r="158">
-      <c r="F158" s="16"/>
+      <c r="A158" s="20"/>
+      <c r="F158" s="21"/>
     </row>
     <row r="159">
-      <c r="F159" s="16"/>
+      <c r="A159" s="20"/>
+      <c r="F159" s="21"/>
     </row>
     <row r="160">
-      <c r="F160" s="16"/>
+      <c r="A160" s="20"/>
+      <c r="F160" s="21"/>
     </row>
     <row r="161">
-      <c r="F161" s="16"/>
+      <c r="A161" s="20"/>
+      <c r="F161" s="21"/>
     </row>
     <row r="162">
-      <c r="F162" s="16"/>
+      <c r="A162" s="20"/>
+      <c r="F162" s="21"/>
     </row>
     <row r="163">
-      <c r="F163" s="16"/>
+      <c r="A163" s="20"/>
+      <c r="F163" s="21"/>
     </row>
     <row r="164">
-      <c r="F164" s="16"/>
+      <c r="A164" s="20"/>
+      <c r="F164" s="21"/>
     </row>
     <row r="165">
-      <c r="F165" s="16"/>
+      <c r="A165" s="20"/>
+      <c r="F165" s="21"/>
     </row>
     <row r="166">
-      <c r="F166" s="16"/>
+      <c r="A166" s="20"/>
+      <c r="F166" s="21"/>
     </row>
     <row r="167">
-      <c r="F167" s="16"/>
+      <c r="A167" s="20"/>
+      <c r="F167" s="21"/>
     </row>
     <row r="168">
-      <c r="F168" s="16"/>
+      <c r="A168" s="20"/>
+      <c r="F168" s="21"/>
     </row>
     <row r="169">
-      <c r="F169" s="16"/>
+      <c r="A169" s="20"/>
+      <c r="F169" s="21"/>
     </row>
     <row r="170">
-      <c r="F170" s="16"/>
+      <c r="A170" s="20"/>
+      <c r="F170" s="21"/>
     </row>
     <row r="171">
-      <c r="F171" s="16"/>
+      <c r="A171" s="20"/>
+      <c r="F171" s="21"/>
     </row>
     <row r="172">
-      <c r="F172" s="16"/>
+      <c r="A172" s="20"/>
+      <c r="F172" s="21"/>
     </row>
     <row r="173">
-      <c r="F173" s="16"/>
+      <c r="A173" s="20"/>
+      <c r="F173" s="21"/>
     </row>
     <row r="174">
-      <c r="F174" s="16"/>
+      <c r="A174" s="20"/>
+      <c r="F174" s="21"/>
     </row>
     <row r="175">
-      <c r="F175" s="16"/>
+      <c r="A175" s="20"/>
+      <c r="F175" s="21"/>
     </row>
     <row r="176">
-      <c r="F176" s="16"/>
+      <c r="A176" s="20"/>
+      <c r="F176" s="21"/>
     </row>
     <row r="177">
-      <c r="F177" s="16"/>
+      <c r="A177" s="20"/>
+      <c r="F177" s="21"/>
     </row>
     <row r="178">
-      <c r="F178" s="16"/>
+      <c r="A178" s="20"/>
+      <c r="F178" s="21"/>
     </row>
     <row r="179">
-      <c r="F179" s="16"/>
+      <c r="A179" s="20"/>
+      <c r="F179" s="21"/>
     </row>
     <row r="180">
-      <c r="F180" s="16"/>
+      <c r="A180" s="20"/>
+      <c r="F180" s="21"/>
     </row>
     <row r="181">
-      <c r="F181" s="16"/>
+      <c r="A181" s="20"/>
+      <c r="F181" s="21"/>
     </row>
     <row r="182">
-      <c r="F182" s="16"/>
+      <c r="A182" s="20"/>
+      <c r="F182" s="21"/>
     </row>
     <row r="183">
-      <c r="F183" s="16"/>
+      <c r="A183" s="20"/>
+      <c r="F183" s="21"/>
     </row>
     <row r="184">
-      <c r="F184" s="16"/>
+      <c r="A184" s="20"/>
+      <c r="F184" s="21"/>
     </row>
     <row r="185">
-      <c r="F185" s="16"/>
+      <c r="A185" s="20"/>
+      <c r="F185" s="21"/>
     </row>
     <row r="186">
-      <c r="F186" s="16"/>
+      <c r="A186" s="20"/>
+      <c r="F186" s="21"/>
     </row>
     <row r="187">
-      <c r="F187" s="16"/>
+      <c r="A187" s="20"/>
+      <c r="F187" s="21"/>
     </row>
     <row r="188">
-      <c r="F188" s="16"/>
+      <c r="A188" s="20"/>
+      <c r="F188" s="21"/>
     </row>
     <row r="189">
-      <c r="F189" s="16"/>
+      <c r="A189" s="20"/>
+      <c r="F189" s="21"/>
     </row>
     <row r="190">
-      <c r="F190" s="16"/>
+      <c r="A190" s="20"/>
+      <c r="F190" s="21"/>
     </row>
     <row r="191">
-      <c r="F191" s="16"/>
+      <c r="A191" s="20"/>
+      <c r="F191" s="21"/>
     </row>
     <row r="192">
-      <c r="F192" s="16"/>
+      <c r="A192" s="20"/>
+      <c r="F192" s="21"/>
     </row>
     <row r="193">
-      <c r="F193" s="16"/>
+      <c r="A193" s="20"/>
+      <c r="F193" s="21"/>
     </row>
     <row r="194">
-      <c r="F194" s="16"/>
+      <c r="A194" s="20"/>
+      <c r="F194" s="21"/>
     </row>
     <row r="195">
-      <c r="F195" s="16"/>
+      <c r="A195" s="20"/>
+      <c r="F195" s="21"/>
     </row>
     <row r="196">
-      <c r="F196" s="16"/>
+      <c r="A196" s="20"/>
+      <c r="F196" s="21"/>
     </row>
     <row r="197">
-      <c r="F197" s="16"/>
+      <c r="A197" s="20"/>
+      <c r="F197" s="21"/>
     </row>
     <row r="198">
-      <c r="F198" s="16"/>
+      <c r="A198" s="20"/>
+      <c r="F198" s="21"/>
     </row>
     <row r="199">
-      <c r="F199" s="16"/>
+      <c r="A199" s="20"/>
+      <c r="F199" s="21"/>
     </row>
     <row r="200">
-      <c r="F200" s="16"/>
+      <c r="A200" s="20"/>
+      <c r="F200" s="21"/>
     </row>
     <row r="201">
-      <c r="F201" s="16"/>
+      <c r="A201" s="20"/>
+      <c r="F201" s="21"/>
     </row>
     <row r="202">
-      <c r="F202" s="16"/>
+      <c r="A202" s="20"/>
+      <c r="F202" s="21"/>
     </row>
     <row r="203">
-      <c r="F203" s="16"/>
+      <c r="A203" s="20"/>
+      <c r="F203" s="21"/>
     </row>
     <row r="204">
-      <c r="F204" s="16"/>
+      <c r="A204" s="20"/>
+      <c r="F204" s="21"/>
     </row>
     <row r="205">
-      <c r="F205" s="16"/>
+      <c r="A205" s="20"/>
+      <c r="F205" s="21"/>
     </row>
     <row r="206">
-      <c r="F206" s="16"/>
+      <c r="A206" s="20"/>
+      <c r="F206" s="21"/>
     </row>
     <row r="207">
-      <c r="F207" s="16"/>
+      <c r="A207" s="20"/>
+      <c r="F207" s="21"/>
     </row>
     <row r="208">
-      <c r="F208" s="16"/>
+      <c r="A208" s="20"/>
+      <c r="F208" s="21"/>
     </row>
     <row r="209">
-      <c r="F209" s="16"/>
+      <c r="A209" s="20"/>
+      <c r="F209" s="21"/>
     </row>
     <row r="210">
-      <c r="F210" s="16"/>
+      <c r="A210" s="20"/>
+      <c r="F210" s="21"/>
     </row>
     <row r="211">
-      <c r="F211" s="16"/>
+      <c r="A211" s="20"/>
+      <c r="F211" s="21"/>
     </row>
     <row r="212">
-      <c r="F212" s="16"/>
+      <c r="A212" s="20"/>
+      <c r="F212" s="21"/>
     </row>
     <row r="213">
-      <c r="F213" s="16"/>
+      <c r="A213" s="20"/>
+      <c r="F213" s="21"/>
     </row>
     <row r="214">
-      <c r="F214" s="16"/>
+      <c r="A214" s="20"/>
+      <c r="F214" s="21"/>
     </row>
     <row r="215">
-      <c r="F215" s="16"/>
+      <c r="A215" s="20"/>
+      <c r="F215" s="21"/>
     </row>
     <row r="216">
-      <c r="F216" s="16"/>
+      <c r="A216" s="20"/>
+      <c r="F216" s="21"/>
     </row>
     <row r="217">
-      <c r="F217" s="16"/>
+      <c r="A217" s="20"/>
+      <c r="F217" s="21"/>
     </row>
     <row r="218">
-      <c r="F218" s="16"/>
+      <c r="A218" s="20"/>
+      <c r="F218" s="21"/>
     </row>
     <row r="219">
-      <c r="F219" s="16"/>
+      <c r="A219" s="20"/>
+      <c r="F219" s="21"/>
     </row>
     <row r="220">
-      <c r="F220" s="16"/>
+      <c r="A220" s="20"/>
+      <c r="F220" s="21"/>
     </row>
     <row r="221">
-      <c r="F221" s="16"/>
+      <c r="A221" s="20"/>
+      <c r="F221" s="21"/>
     </row>
     <row r="222">
-      <c r="F222" s="16"/>
+      <c r="A222" s="20"/>
+      <c r="F222" s="21"/>
     </row>
     <row r="223">
-      <c r="F223" s="16"/>
+      <c r="A223" s="20"/>
+      <c r="F223" s="21"/>
     </row>
     <row r="224">
-      <c r="F224" s="16"/>
+      <c r="A224" s="20"/>
+      <c r="F224" s="21"/>
     </row>
     <row r="225">
-      <c r="F225" s="16"/>
+      <c r="A225" s="20"/>
+      <c r="F225" s="21"/>
     </row>
     <row r="226">
-      <c r="F226" s="16"/>
+      <c r="A226" s="20"/>
+      <c r="F226" s="21"/>
     </row>
     <row r="227">
-      <c r="F227" s="16"/>
+      <c r="A227" s="20"/>
+      <c r="F227" s="21"/>
     </row>
     <row r="228">
-      <c r="F228" s="16"/>
+      <c r="A228" s="20"/>
+      <c r="F228" s="21"/>
     </row>
     <row r="229">
-      <c r="F229" s="16"/>
+      <c r="A229" s="20"/>
+      <c r="F229" s="21"/>
     </row>
     <row r="230">
-      <c r="F230" s="16"/>
+      <c r="A230" s="20"/>
+      <c r="F230" s="21"/>
     </row>
     <row r="231">
-      <c r="F231" s="16"/>
+      <c r="A231" s="20"/>
+      <c r="F231" s="21"/>
     </row>
     <row r="232">
-      <c r="F232" s="16"/>
+      <c r="A232" s="20"/>
+      <c r="F232" s="21"/>
     </row>
     <row r="233">
-      <c r="F233" s="16"/>
+      <c r="A233" s="20"/>
+      <c r="F233" s="21"/>
     </row>
     <row r="234">
-      <c r="F234" s="16"/>
+      <c r="A234" s="20"/>
+      <c r="F234" s="21"/>
     </row>
     <row r="235">
-      <c r="F235" s="16"/>
+      <c r="A235" s="20"/>
+      <c r="F235" s="21"/>
     </row>
     <row r="236">
-      <c r="F236" s="16"/>
+      <c r="A236" s="20"/>
+      <c r="F236" s="21"/>
     </row>
     <row r="237">
-      <c r="F237" s="16"/>
+      <c r="A237" s="20"/>
+      <c r="F237" s="21"/>
     </row>
     <row r="238">
-      <c r="F238" s="16"/>
+      <c r="A238" s="20"/>
+      <c r="F238" s="21"/>
     </row>
     <row r="239">
-      <c r="F239" s="16"/>
+      <c r="A239" s="20"/>
+      <c r="F239" s="21"/>
     </row>
     <row r="240">
-      <c r="F240" s="16"/>
+      <c r="A240" s="20"/>
+      <c r="F240" s="21"/>
     </row>
     <row r="241">
-      <c r="F241" s="16"/>
+      <c r="A241" s="20"/>
+      <c r="F241" s="21"/>
     </row>
     <row r="242">
-      <c r="F242" s="16"/>
+      <c r="A242" s="20"/>
+      <c r="F242" s="21"/>
     </row>
     <row r="243">
-      <c r="F243" s="16"/>
+      <c r="A243" s="20"/>
+      <c r="F243" s="21"/>
     </row>
     <row r="244">
-      <c r="F244" s="16"/>
+      <c r="A244" s="20"/>
+      <c r="F244" s="21"/>
     </row>
     <row r="245">
-      <c r="F245" s="16"/>
+      <c r="A245" s="20"/>
+      <c r="F245" s="21"/>
     </row>
     <row r="246">
-      <c r="F246" s="16"/>
+      <c r="A246" s="20"/>
+      <c r="F246" s="21"/>
     </row>
     <row r="247">
-      <c r="F247" s="16"/>
+      <c r="A247" s="20"/>
+      <c r="F247" s="21"/>
     </row>
     <row r="248">
-      <c r="F248" s="16"/>
+      <c r="A248" s="20"/>
+      <c r="F248" s="21"/>
     </row>
     <row r="249">
-      <c r="F249" s="16"/>
+      <c r="A249" s="20"/>
+      <c r="F249" s="21"/>
     </row>
     <row r="250">
-      <c r="F250" s="16"/>
+      <c r="A250" s="20"/>
+      <c r="F250" s="21"/>
     </row>
     <row r="251">
-      <c r="F251" s="16"/>
+      <c r="A251" s="20"/>
+      <c r="F251" s="21"/>
     </row>
     <row r="252">
-      <c r="F252" s="16"/>
+      <c r="A252" s="20"/>
+      <c r="F252" s="21"/>
     </row>
     <row r="253">
-      <c r="F253" s="16"/>
+      <c r="A253" s="20"/>
+      <c r="F253" s="21"/>
     </row>
     <row r="254">
-      <c r="F254" s="16"/>
+      <c r="A254" s="20"/>
+      <c r="F254" s="21"/>
     </row>
     <row r="255">
-      <c r="F255" s="16"/>
+      <c r="A255" s="20"/>
+      <c r="F255" s="21"/>
     </row>
     <row r="256">
-      <c r="F256" s="16"/>
+      <c r="A256" s="20"/>
+      <c r="F256" s="21"/>
     </row>
     <row r="257">
-      <c r="F257" s="16"/>
+      <c r="A257" s="20"/>
+      <c r="F257" s="21"/>
     </row>
     <row r="258">
-      <c r="F258" s="16"/>
+      <c r="A258" s="20"/>
+      <c r="F258" s="21"/>
     </row>
     <row r="259">
-      <c r="F259" s="16"/>
+      <c r="A259" s="20"/>
+      <c r="F259" s="21"/>
     </row>
     <row r="260">
-      <c r="F260" s="16"/>
+      <c r="A260" s="20"/>
+      <c r="F260" s="21"/>
     </row>
     <row r="261">
-      <c r="F261" s="16"/>
+      <c r="A261" s="20"/>
+      <c r="F261" s="21"/>
     </row>
     <row r="262">
-      <c r="F262" s="16"/>
+      <c r="A262" s="20"/>
+      <c r="F262" s="21"/>
     </row>
     <row r="263">
-      <c r="F263" s="16"/>
+      <c r="A263" s="20"/>
+      <c r="F263" s="21"/>
     </row>
     <row r="264">
-      <c r="F264" s="16"/>
+      <c r="A264" s="20"/>
+      <c r="F264" s="21"/>
     </row>
     <row r="265">
-      <c r="F265" s="16"/>
+      <c r="A265" s="20"/>
+      <c r="F265" s="21"/>
     </row>
     <row r="266">
-      <c r="F266" s="16"/>
+      <c r="A266" s="20"/>
+      <c r="F266" s="21"/>
     </row>
     <row r="267">
-      <c r="F267" s="16"/>
+      <c r="A267" s="20"/>
+      <c r="F267" s="21"/>
     </row>
     <row r="268">
-      <c r="F268" s="16"/>
+      <c r="A268" s="20"/>
+      <c r="F268" s="21"/>
     </row>
     <row r="269">
-      <c r="F269" s="16"/>
+      <c r="A269" s="20"/>
+      <c r="F269" s="21"/>
     </row>
     <row r="270">
-      <c r="F270" s="16"/>
+      <c r="A270" s="20"/>
+      <c r="F270" s="21"/>
     </row>
     <row r="271">
-      <c r="F271" s="16"/>
+      <c r="A271" s="20"/>
+      <c r="F271" s="21"/>
     </row>
     <row r="272">
-      <c r="F272" s="16"/>
+      <c r="A272" s="20"/>
+      <c r="F272" s="21"/>
     </row>
     <row r="273">
-      <c r="F273" s="16"/>
+      <c r="A273" s="20"/>
+      <c r="F273" s="21"/>
     </row>
     <row r="274">
-      <c r="F274" s="16"/>
+      <c r="A274" s="20"/>
+      <c r="F274" s="21"/>
     </row>
     <row r="275">
-      <c r="F275" s="16"/>
+      <c r="A275" s="20"/>
+      <c r="F275" s="21"/>
     </row>
     <row r="276">
-      <c r="F276" s="16"/>
+      <c r="A276" s="20"/>
+      <c r="F276" s="21"/>
     </row>
     <row r="277">
-      <c r="F277" s="16"/>
+      <c r="A277" s="20"/>
+      <c r="F277" s="21"/>
     </row>
     <row r="278">
-      <c r="F278" s="16"/>
+      <c r="A278" s="20"/>
+      <c r="F278" s="21"/>
     </row>
     <row r="279">
-      <c r="F279" s="16"/>
+      <c r="A279" s="20"/>
+      <c r="F279" s="21"/>
     </row>
     <row r="280">
-      <c r="F280" s="16"/>
+      <c r="A280" s="20"/>
+      <c r="F280" s="21"/>
     </row>
     <row r="281">
-      <c r="F281" s="16"/>
+      <c r="A281" s="20"/>
+      <c r="F281" s="21"/>
     </row>
     <row r="282">
-      <c r="F282" s="16"/>
+      <c r="A282" s="20"/>
+      <c r="F282" s="21"/>
     </row>
     <row r="283">
-      <c r="F283" s="16"/>
+      <c r="A283" s="20"/>
+      <c r="F283" s="21"/>
     </row>
     <row r="284">
-      <c r="F284" s="16"/>
+      <c r="A284" s="20"/>
+      <c r="F284" s="21"/>
     </row>
     <row r="285">
-      <c r="F285" s="16"/>
+      <c r="A285" s="20"/>
+      <c r="F285" s="21"/>
     </row>
     <row r="286">
-      <c r="F286" s="16"/>
+      <c r="A286" s="20"/>
+      <c r="F286" s="21"/>
     </row>
     <row r="287">
-      <c r="F287" s="16"/>
+      <c r="A287" s="20"/>
+      <c r="F287" s="21"/>
     </row>
     <row r="288">
-      <c r="F288" s="16"/>
+      <c r="A288" s="20"/>
+      <c r="F288" s="21"/>
     </row>
     <row r="289">
-      <c r="F289" s="16"/>
+      <c r="A289" s="20"/>
+      <c r="F289" s="21"/>
     </row>
     <row r="290">
-      <c r="F290" s="16"/>
+      <c r="A290" s="20"/>
+      <c r="F290" s="21"/>
     </row>
     <row r="291">
-      <c r="F291" s="16"/>
+      <c r="A291" s="20"/>
+      <c r="F291" s="21"/>
     </row>
     <row r="292">
-      <c r="F292" s="16"/>
+      <c r="A292" s="20"/>
+      <c r="F292" s="21"/>
     </row>
     <row r="293">
-      <c r="F293" s="16"/>
+      <c r="A293" s="20"/>
+      <c r="F293" s="21"/>
     </row>
     <row r="294">
-      <c r="F294" s="16"/>
+      <c r="A294" s="20"/>
+      <c r="F294" s="21"/>
     </row>
     <row r="295">
-      <c r="F295" s="16"/>
+      <c r="A295" s="20"/>
+      <c r="F295" s="21"/>
     </row>
     <row r="296">
-      <c r="F296" s="16"/>
+      <c r="A296" s="20"/>
+      <c r="F296" s="21"/>
     </row>
     <row r="297">
-      <c r="F297" s="16"/>
+      <c r="A297" s="20"/>
+      <c r="F297" s="21"/>
     </row>
     <row r="298">
-      <c r="F298" s="16"/>
+      <c r="A298" s="20"/>
+      <c r="F298" s="21"/>
     </row>
     <row r="299">
-      <c r="F299" s="16"/>
+      <c r="A299" s="20"/>
+      <c r="F299" s="21"/>
     </row>
     <row r="300">
-      <c r="F300" s="16"/>
+      <c r="A300" s="20"/>
+      <c r="F300" s="21"/>
     </row>
     <row r="301">
-      <c r="F301" s="16"/>
+      <c r="A301" s="20"/>
+      <c r="F301" s="21"/>
     </row>
     <row r="302">
-      <c r="F302" s="16"/>
+      <c r="A302" s="20"/>
+      <c r="F302" s="21"/>
     </row>
     <row r="303">
-      <c r="F303" s="16"/>
+      <c r="A303" s="20"/>
+      <c r="F303" s="21"/>
     </row>
     <row r="304">
-      <c r="F304" s="16"/>
+      <c r="A304" s="20"/>
+      <c r="F304" s="21"/>
     </row>
     <row r="305">
-      <c r="F305" s="16"/>
+      <c r="A305" s="20"/>
+      <c r="F305" s="21"/>
     </row>
     <row r="306">
-      <c r="F306" s="16"/>
+      <c r="A306" s="20"/>
+      <c r="F306" s="21"/>
     </row>
     <row r="307">
-      <c r="F307" s="16"/>
+      <c r="A307" s="20"/>
+      <c r="F307" s="21"/>
     </row>
     <row r="308">
-      <c r="F308" s="16"/>
+      <c r="A308" s="20"/>
+      <c r="F308" s="21"/>
     </row>
     <row r="309">
-      <c r="F309" s="16"/>
+      <c r="A309" s="20"/>
+      <c r="F309" s="21"/>
     </row>
     <row r="310">
-      <c r="F310" s="16"/>
+      <c r="A310" s="20"/>
+      <c r="F310" s="21"/>
     </row>
     <row r="311">
-      <c r="F311" s="16"/>
+      <c r="A311" s="20"/>
+      <c r="F311" s="21"/>
     </row>
     <row r="312">
-      <c r="F312" s="16"/>
+      <c r="A312" s="20"/>
+      <c r="F312" s="21"/>
     </row>
     <row r="313">
-      <c r="F313" s="16"/>
+      <c r="A313" s="20"/>
+      <c r="F313" s="21"/>
     </row>
     <row r="314">
-      <c r="F314" s="16"/>
+      <c r="A314" s="20"/>
+      <c r="F314" s="21"/>
     </row>
     <row r="315">
-      <c r="F315" s="16"/>
+      <c r="A315" s="20"/>
+      <c r="F315" s="21"/>
     </row>
     <row r="316">
-      <c r="F316" s="16"/>
+      <c r="A316" s="20"/>
+      <c r="F316" s="21"/>
     </row>
     <row r="317">
-      <c r="F317" s="16"/>
+      <c r="A317" s="20"/>
+      <c r="F317" s="21"/>
     </row>
     <row r="318">
-      <c r="F318" s="16"/>
+      <c r="A318" s="20"/>
+      <c r="F318" s="21"/>
     </row>
     <row r="319">
-      <c r="F319" s="16"/>
+      <c r="A319" s="20"/>
+      <c r="F319" s="21"/>
     </row>
     <row r="320">
-      <c r="F320" s="16"/>
+      <c r="A320" s="20"/>
+      <c r="F320" s="21"/>
     </row>
     <row r="321">
-      <c r="F321" s="16"/>
+      <c r="A321" s="20"/>
+      <c r="F321" s="21"/>
     </row>
     <row r="322">
-      <c r="F322" s="16"/>
+      <c r="A322" s="20"/>
+      <c r="F322" s="21"/>
     </row>
     <row r="323">
-      <c r="F323" s="16"/>
+      <c r="A323" s="20"/>
+      <c r="F323" s="21"/>
     </row>
     <row r="324">
-      <c r="F324" s="16"/>
+      <c r="A324" s="20"/>
+      <c r="F324" s="21"/>
     </row>
     <row r="325">
-      <c r="F325" s="16"/>
+      <c r="A325" s="20"/>
+      <c r="F325" s="21"/>
     </row>
     <row r="326">
-      <c r="F326" s="16"/>
+      <c r="A326" s="20"/>
+      <c r="F326" s="21"/>
     </row>
     <row r="327">
-      <c r="F327" s="16"/>
+      <c r="A327" s="20"/>
+      <c r="F327" s="21"/>
     </row>
     <row r="328">
-      <c r="F328" s="16"/>
+      <c r="A328" s="20"/>
+      <c r="F328" s="21"/>
     </row>
     <row r="329">
-      <c r="F329" s="16"/>
+      <c r="A329" s="20"/>
+      <c r="F329" s="21"/>
     </row>
     <row r="330">
-      <c r="F330" s="16"/>
+      <c r="A330" s="20"/>
+      <c r="F330" s="21"/>
     </row>
     <row r="331">
-      <c r="F331" s="16"/>
+      <c r="A331" s="20"/>
+      <c r="F331" s="21"/>
     </row>
     <row r="332">
-      <c r="F332" s="16"/>
+      <c r="A332" s="20"/>
+      <c r="F332" s="21"/>
     </row>
     <row r="333">
-      <c r="F333" s="16"/>
+      <c r="A333" s="20"/>
+      <c r="F333" s="21"/>
     </row>
     <row r="334">
-      <c r="F334" s="16"/>
+      <c r="A334" s="20"/>
+      <c r="F334" s="21"/>
     </row>
     <row r="335">
-      <c r="F335" s="16"/>
+      <c r="A335" s="20"/>
+      <c r="F335" s="21"/>
     </row>
     <row r="336">
-      <c r="F336" s="16"/>
+      <c r="A336" s="20"/>
+      <c r="F336" s="21"/>
     </row>
     <row r="337">
-      <c r="F337" s="16"/>
+      <c r="A337" s="20"/>
+      <c r="F337" s="21"/>
     </row>
     <row r="338">
-      <c r="F338" s="16"/>
+      <c r="A338" s="20"/>
+      <c r="F338" s="21"/>
     </row>
     <row r="339">
-      <c r="F339" s="16"/>
+      <c r="A339" s="20"/>
+      <c r="F339" s="21"/>
     </row>
     <row r="340">
-      <c r="F340" s="16"/>
+      <c r="A340" s="20"/>
+      <c r="F340" s="21"/>
     </row>
     <row r="341">
-      <c r="F341" s="16"/>
+      <c r="A341" s="20"/>
+      <c r="F341" s="21"/>
     </row>
     <row r="342">
-      <c r="F342" s="16"/>
+      <c r="A342" s="20"/>
+      <c r="F342" s="21"/>
     </row>
     <row r="343">
-      <c r="F343" s="16"/>
+      <c r="A343" s="20"/>
+      <c r="F343" s="21"/>
     </row>
     <row r="344">
-      <c r="F344" s="16"/>
+      <c r="A344" s="20"/>
+      <c r="F344" s="21"/>
     </row>
     <row r="345">
-      <c r="F345" s="16"/>
+      <c r="A345" s="20"/>
+      <c r="F345" s="21"/>
     </row>
     <row r="346">
-      <c r="F346" s="16"/>
+      <c r="A346" s="20"/>
+      <c r="F346" s="21"/>
     </row>
     <row r="347">
-      <c r="F347" s="16"/>
+      <c r="A347" s="20"/>
+      <c r="F347" s="21"/>
     </row>
     <row r="348">
-      <c r="F348" s="16"/>
+      <c r="A348" s="20"/>
+      <c r="F348" s="21"/>
     </row>
     <row r="349">
-      <c r="F349" s="16"/>
+      <c r="A349" s="20"/>
+      <c r="F349" s="21"/>
     </row>
     <row r="350">
-      <c r="F350" s="16"/>
+      <c r="A350" s="20"/>
+      <c r="F350" s="21"/>
     </row>
     <row r="351">
-      <c r="F351" s="16"/>
+      <c r="A351" s="20"/>
+      <c r="F351" s="21"/>
     </row>
     <row r="352">
-      <c r="F352" s="16"/>
+      <c r="A352" s="20"/>
+      <c r="F352" s="21"/>
     </row>
     <row r="353">
-      <c r="F353" s="16"/>
+      <c r="A353" s="20"/>
+      <c r="F353" s="21"/>
     </row>
     <row r="354">
-      <c r="F354" s="16"/>
+      <c r="A354" s="20"/>
+      <c r="F354" s="21"/>
     </row>
     <row r="355">
-      <c r="F355" s="16"/>
+      <c r="A355" s="20"/>
+      <c r="F355" s="21"/>
     </row>
     <row r="356">
-      <c r="F356" s="16"/>
+      <c r="A356" s="20"/>
+      <c r="F356" s="21"/>
     </row>
     <row r="357">
-      <c r="F357" s="16"/>
+      <c r="A357" s="20"/>
+      <c r="F357" s="21"/>
     </row>
     <row r="358">
-      <c r="F358" s="16"/>
+      <c r="A358" s="20"/>
+      <c r="F358" s="21"/>
     </row>
     <row r="359">
-      <c r="F359" s="16"/>
+      <c r="A359" s="20"/>
+      <c r="F359" s="21"/>
     </row>
     <row r="360">
-      <c r="F360" s="16"/>
+      <c r="A360" s="20"/>
+      <c r="F360" s="21"/>
     </row>
     <row r="361">
-      <c r="F361" s="16"/>
+      <c r="A361" s="20"/>
+      <c r="F361" s="21"/>
     </row>
     <row r="362">
-      <c r="F362" s="16"/>
+      <c r="A362" s="20"/>
+      <c r="F362" s="21"/>
     </row>
     <row r="363">
-      <c r="F363" s="16"/>
+      <c r="A363" s="20"/>
+      <c r="F363" s="21"/>
     </row>
     <row r="364">
-      <c r="F364" s="16"/>
+      <c r="A364" s="20"/>
+      <c r="F364" s="21"/>
     </row>
     <row r="365">
-      <c r="F365" s="16"/>
+      <c r="A365" s="20"/>
+      <c r="F365" s="21"/>
     </row>
     <row r="366">
-      <c r="F366" s="16"/>
+      <c r="A366" s="20"/>
+      <c r="F366" s="21"/>
     </row>
     <row r="367">
-      <c r="F367" s="16"/>
+      <c r="A367" s="20"/>
+      <c r="F367" s="21"/>
     </row>
     <row r="368">
-      <c r="F368" s="16"/>
+      <c r="A368" s="20"/>
+      <c r="F368" s="21"/>
     </row>
     <row r="369">
-      <c r="F369" s="16"/>
+      <c r="A369" s="20"/>
+      <c r="F369" s="21"/>
     </row>
     <row r="370">
-      <c r="F370" s="16"/>
+      <c r="A370" s="20"/>
+      <c r="F370" s="21"/>
     </row>
     <row r="371">
-      <c r="F371" s="16"/>
+      <c r="A371" s="20"/>
+      <c r="F371" s="21"/>
     </row>
     <row r="372">
-      <c r="F372" s="16"/>
+      <c r="A372" s="20"/>
+      <c r="F372" s="21"/>
     </row>
     <row r="373">
-      <c r="F373" s="16"/>
+      <c r="A373" s="20"/>
+      <c r="F373" s="21"/>
     </row>
     <row r="374">
-      <c r="F374" s="16"/>
+      <c r="A374" s="20"/>
+      <c r="F374" s="21"/>
     </row>
     <row r="375">
-      <c r="F375" s="16"/>
+      <c r="A375" s="20"/>
+      <c r="F375" s="21"/>
     </row>
     <row r="376">
-      <c r="F376" s="16"/>
+      <c r="A376" s="20"/>
+      <c r="F376" s="21"/>
     </row>
     <row r="377">
-      <c r="F377" s="16"/>
+      <c r="A377" s="20"/>
+      <c r="F377" s="21"/>
     </row>
     <row r="378">
-      <c r="F378" s="16"/>
+      <c r="A378" s="20"/>
+      <c r="F378" s="21"/>
     </row>
     <row r="379">
-      <c r="F379" s="16"/>
+      <c r="A379" s="20"/>
+      <c r="F379" s="21"/>
     </row>
     <row r="380">
-      <c r="F380" s="16"/>
+      <c r="A380" s="20"/>
+      <c r="F380" s="21"/>
     </row>
     <row r="381">
-      <c r="F381" s="16"/>
+      <c r="A381" s="20"/>
+      <c r="F381" s="21"/>
     </row>
     <row r="382">
-      <c r="F382" s="16"/>
+      <c r="A382" s="20"/>
+      <c r="F382" s="21"/>
     </row>
     <row r="383">
-      <c r="F383" s="16"/>
+      <c r="A383" s="20"/>
+      <c r="F383" s="21"/>
     </row>
     <row r="384">
-      <c r="F384" s="16"/>
+      <c r="A384" s="20"/>
+      <c r="F384" s="21"/>
     </row>
     <row r="385">
-      <c r="F385" s="16"/>
+      <c r="A385" s="20"/>
+      <c r="F385" s="21"/>
     </row>
     <row r="386">
-      <c r="F386" s="16"/>
+      <c r="A386" s="20"/>
+      <c r="F386" s="21"/>
     </row>
     <row r="387">
-      <c r="F387" s="16"/>
+      <c r="A387" s="20"/>
+      <c r="F387" s="21"/>
     </row>
     <row r="388">
-      <c r="F388" s="16"/>
+      <c r="A388" s="20"/>
+      <c r="F388" s="21"/>
     </row>
     <row r="389">
-      <c r="F389" s="16"/>
+      <c r="A389" s="20"/>
+      <c r="F389" s="21"/>
     </row>
     <row r="390">
-      <c r="F390" s="16"/>
+      <c r="A390" s="20"/>
+      <c r="F390" s="21"/>
     </row>
     <row r="391">
-      <c r="F391" s="16"/>
+      <c r="A391" s="20"/>
+      <c r="F391" s="21"/>
     </row>
     <row r="392">
-      <c r="F392" s="16"/>
+      <c r="A392" s="20"/>
+      <c r="F392" s="21"/>
     </row>
     <row r="393">
-      <c r="F393" s="16"/>
+      <c r="A393" s="20"/>
+      <c r="F393" s="21"/>
     </row>
     <row r="394">
-      <c r="F394" s="16"/>
+      <c r="A394" s="20"/>
+      <c r="F394" s="21"/>
     </row>
     <row r="395">
-      <c r="F395" s="16"/>
+      <c r="A395" s="20"/>
+      <c r="F395" s="21"/>
     </row>
     <row r="396">
-      <c r="F396" s="16"/>
+      <c r="A396" s="20"/>
+      <c r="F396" s="21"/>
     </row>
     <row r="397">
-      <c r="F397" s="16"/>
+      <c r="A397" s="20"/>
+      <c r="F397" s="21"/>
     </row>
     <row r="398">
-      <c r="F398" s="16"/>
+      <c r="A398" s="20"/>
+      <c r="F398" s="21"/>
     </row>
     <row r="399">
-      <c r="F399" s="16"/>
+      <c r="A399" s="20"/>
+      <c r="F399" s="21"/>
     </row>
     <row r="400">
-      <c r="F400" s="16"/>
+      <c r="A400" s="20"/>
+      <c r="F400" s="21"/>
     </row>
     <row r="401">
-      <c r="F401" s="16"/>
+      <c r="A401" s="20"/>
+      <c r="F401" s="21"/>
     </row>
     <row r="402">
-      <c r="F402" s="16"/>
+      <c r="A402" s="20"/>
+      <c r="F402" s="21"/>
     </row>
     <row r="403">
-      <c r="F403" s="16"/>
+      <c r="A403" s="20"/>
+      <c r="F403" s="21"/>
     </row>
     <row r="404">
-      <c r="F404" s="16"/>
+      <c r="A404" s="20"/>
+      <c r="F404" s="21"/>
     </row>
     <row r="405">
-      <c r="F405" s="16"/>
+      <c r="A405" s="20"/>
+      <c r="F405" s="21"/>
     </row>
     <row r="406">
-      <c r="F406" s="16"/>
+      <c r="A406" s="20"/>
+      <c r="F406" s="21"/>
     </row>
     <row r="407">
-      <c r="F407" s="16"/>
+      <c r="A407" s="20"/>
+      <c r="F407" s="21"/>
     </row>
     <row r="408">
-      <c r="F408" s="16"/>
+      <c r="A408" s="20"/>
+      <c r="F408" s="21"/>
     </row>
     <row r="409">
-      <c r="F409" s="16"/>
+      <c r="A409" s="20"/>
+      <c r="F409" s="21"/>
     </row>
     <row r="410">
-      <c r="F410" s="16"/>
+      <c r="A410" s="20"/>
+      <c r="F410" s="21"/>
     </row>
     <row r="411">
-      <c r="F411" s="16"/>
+      <c r="A411" s="20"/>
+      <c r="F411" s="21"/>
     </row>
     <row r="412">
-      <c r="F412" s="16"/>
+      <c r="A412" s="20"/>
+      <c r="F412" s="21"/>
     </row>
     <row r="413">
-      <c r="F413" s="16"/>
+      <c r="A413" s="20"/>
+      <c r="F413" s="21"/>
     </row>
     <row r="414">
-      <c r="F414" s="16"/>
+      <c r="A414" s="20"/>
+      <c r="F414" s="21"/>
     </row>
     <row r="415">
-      <c r="F415" s="16"/>
+      <c r="A415" s="20"/>
+      <c r="F415" s="21"/>
     </row>
     <row r="416">
-      <c r="F416" s="16"/>
+      <c r="A416" s="20"/>
+      <c r="F416" s="21"/>
     </row>
     <row r="417">
-      <c r="F417" s="16"/>
+      <c r="A417" s="20"/>
+      <c r="F417" s="21"/>
     </row>
     <row r="418">
-      <c r="F418" s="16"/>
+      <c r="A418" s="20"/>
+      <c r="F418" s="21"/>
     </row>
     <row r="419">
-      <c r="F419" s="16"/>
+      <c r="A419" s="20"/>
+      <c r="F419" s="21"/>
     </row>
     <row r="420">
-      <c r="F420" s="16"/>
+      <c r="A420" s="20"/>
+      <c r="F420" s="21"/>
     </row>
     <row r="421">
-      <c r="F421" s="16"/>
+      <c r="A421" s="20"/>
+      <c r="F421" s="21"/>
     </row>
     <row r="422">
-      <c r="F422" s="16"/>
+      <c r="A422" s="20"/>
+      <c r="F422" s="21"/>
     </row>
     <row r="423">
-      <c r="F423" s="16"/>
+      <c r="A423" s="20"/>
+      <c r="F423" s="21"/>
     </row>
     <row r="424">
-      <c r="F424" s="16"/>
+      <c r="A424" s="20"/>
+      <c r="F424" s="21"/>
     </row>
     <row r="425">
-      <c r="F425" s="16"/>
+      <c r="A425" s="20"/>
+      <c r="F425" s="21"/>
     </row>
     <row r="426">
-      <c r="F426" s="16"/>
+      <c r="A426" s="20"/>
+      <c r="F426" s="21"/>
     </row>
     <row r="427">
-      <c r="F427" s="16"/>
+      <c r="A427" s="20"/>
+      <c r="F427" s="21"/>
     </row>
     <row r="428">
-      <c r="F428" s="16"/>
+      <c r="A428" s="20"/>
+      <c r="F428" s="21"/>
     </row>
     <row r="429">
-      <c r="F429" s="16"/>
+      <c r="A429" s="20"/>
+      <c r="F429" s="21"/>
     </row>
     <row r="430">
-      <c r="F430" s="16"/>
+      <c r="A430" s="20"/>
+      <c r="F430" s="21"/>
     </row>
     <row r="431">
-      <c r="F431" s="16"/>
+      <c r="A431" s="20"/>
+      <c r="F431" s="21"/>
     </row>
     <row r="432">
-      <c r="F432" s="16"/>
+      <c r="A432" s="20"/>
+      <c r="F432" s="21"/>
     </row>
     <row r="433">
-      <c r="F433" s="16"/>
+      <c r="A433" s="20"/>
+      <c r="F433" s="21"/>
     </row>
     <row r="434">
-      <c r="F434" s="16"/>
+      <c r="A434" s="20"/>
+      <c r="F434" s="21"/>
     </row>
     <row r="435">
-      <c r="F435" s="16"/>
+      <c r="A435" s="20"/>
+      <c r="F435" s="21"/>
     </row>
     <row r="436">
-      <c r="F436" s="16"/>
+      <c r="A436" s="20"/>
+      <c r="F436" s="21"/>
     </row>
     <row r="437">
-      <c r="F437" s="16"/>
+      <c r="A437" s="20"/>
+      <c r="F437" s="21"/>
     </row>
     <row r="438">
-      <c r="F438" s="16"/>
+      <c r="A438" s="20"/>
+      <c r="F438" s="21"/>
     </row>
     <row r="439">
-      <c r="F439" s="16"/>
+      <c r="A439" s="20"/>
+      <c r="F439" s="21"/>
     </row>
     <row r="440">
-      <c r="F440" s="16"/>
+      <c r="A440" s="20"/>
+      <c r="F440" s="21"/>
     </row>
     <row r="441">
-      <c r="F441" s="16"/>
+      <c r="A441" s="20"/>
+      <c r="F441" s="21"/>
     </row>
     <row r="442">
-      <c r="F442" s="16"/>
+      <c r="A442" s="20"/>
+      <c r="F442" s="21"/>
     </row>
     <row r="443">
-      <c r="F443" s="16"/>
+      <c r="A443" s="20"/>
+      <c r="F443" s="21"/>
     </row>
     <row r="444">
-      <c r="F444" s="16"/>
+      <c r="A444" s="20"/>
+      <c r="F444" s="21"/>
     </row>
     <row r="445">
-      <c r="F445" s="16"/>
+      <c r="A445" s="20"/>
+      <c r="F445" s="21"/>
     </row>
     <row r="446">
-      <c r="F446" s="16"/>
+      <c r="A446" s="20"/>
+      <c r="F446" s="21"/>
     </row>
     <row r="447">
-      <c r="F447" s="16"/>
+      <c r="A447" s="20"/>
+      <c r="F447" s="21"/>
     </row>
     <row r="448">
-      <c r="F448" s="16"/>
+      <c r="A448" s="20"/>
+      <c r="F448" s="21"/>
     </row>
     <row r="449">
-      <c r="F449" s="16"/>
+      <c r="A449" s="20"/>
+      <c r="F449" s="21"/>
     </row>
     <row r="450">
-      <c r="F450" s="16"/>
+      <c r="A450" s="20"/>
+      <c r="F450" s="21"/>
     </row>
     <row r="451">
-      <c r="F451" s="16"/>
+      <c r="A451" s="20"/>
+      <c r="F451" s="21"/>
     </row>
     <row r="452">
-      <c r="F452" s="16"/>
+      <c r="A452" s="20"/>
+      <c r="F452" s="21"/>
     </row>
     <row r="453">
-      <c r="F453" s="16"/>
+      <c r="A453" s="20"/>
+      <c r="F453" s="21"/>
     </row>
     <row r="454">
-      <c r="F454" s="16"/>
+      <c r="A454" s="20"/>
+      <c r="F454" s="21"/>
     </row>
     <row r="455">
-      <c r="F455" s="16"/>
+      <c r="A455" s="20"/>
+      <c r="F455" s="21"/>
     </row>
     <row r="456">
-      <c r="F456" s="16"/>
+      <c r="A456" s="20"/>
+      <c r="F456" s="21"/>
     </row>
     <row r="457">
-      <c r="F457" s="16"/>
+      <c r="A457" s="20"/>
+      <c r="F457" s="21"/>
     </row>
     <row r="458">
-      <c r="F458" s="16"/>
+      <c r="A458" s="20"/>
+      <c r="F458" s="21"/>
     </row>
     <row r="459">
-      <c r="F459" s="16"/>
+      <c r="A459" s="20"/>
+      <c r="F459" s="21"/>
     </row>
     <row r="460">
-      <c r="F460" s="16"/>
+      <c r="A460" s="20"/>
+      <c r="F460" s="21"/>
     </row>
     <row r="461">
-      <c r="F461" s="16"/>
+      <c r="A461" s="20"/>
+      <c r="F461" s="21"/>
     </row>
     <row r="462">
-      <c r="F462" s="16"/>
+      <c r="A462" s="20"/>
+      <c r="F462" s="21"/>
     </row>
     <row r="463">
-      <c r="F463" s="16"/>
+      <c r="A463" s="20"/>
+      <c r="F463" s="21"/>
     </row>
     <row r="464">
-      <c r="F464" s="16"/>
+      <c r="A464" s="20"/>
+      <c r="F464" s="21"/>
     </row>
     <row r="465">
-      <c r="F465" s="16"/>
+      <c r="A465" s="20"/>
+      <c r="F465" s="21"/>
     </row>
     <row r="466">
-      <c r="F466" s="16"/>
+      <c r="A466" s="20"/>
+      <c r="F466" s="21"/>
     </row>
     <row r="467">
-      <c r="F467" s="16"/>
+      <c r="A467" s="20"/>
+      <c r="F467" s="21"/>
     </row>
     <row r="468">
-      <c r="F468" s="16"/>
+      <c r="A468" s="20"/>
+      <c r="F468" s="21"/>
     </row>
     <row r="469">
-      <c r="F469" s="16"/>
+      <c r="A469" s="20"/>
+      <c r="F469" s="21"/>
     </row>
     <row r="470">
-      <c r="F470" s="16"/>
+      <c r="A470" s="20"/>
+      <c r="F470" s="21"/>
     </row>
     <row r="471">
-      <c r="F471" s="16"/>
+      <c r="A471" s="20"/>
+      <c r="F471" s="21"/>
     </row>
     <row r="472">
-      <c r="F472" s="16"/>
+      <c r="A472" s="20"/>
+      <c r="F472" s="21"/>
     </row>
     <row r="473">
-      <c r="F473" s="16"/>
+      <c r="A473" s="20"/>
+      <c r="F473" s="21"/>
     </row>
     <row r="474">
-      <c r="F474" s="16"/>
+      <c r="A474" s="20"/>
+      <c r="F474" s="21"/>
     </row>
     <row r="475">
-      <c r="F475" s="16"/>
+      <c r="A475" s="20"/>
+      <c r="F475" s="21"/>
     </row>
     <row r="476">
-      <c r="F476" s="16"/>
+      <c r="A476" s="20"/>
+      <c r="F476" s="21"/>
     </row>
     <row r="477">
-      <c r="F477" s="16"/>
+      <c r="A477" s="20"/>
+      <c r="F477" s="21"/>
     </row>
     <row r="478">
-      <c r="F478" s="16"/>
+      <c r="A478" s="20"/>
+      <c r="F478" s="21"/>
     </row>
     <row r="479">
-      <c r="F479" s="16"/>
+      <c r="A479" s="20"/>
+      <c r="F479" s="21"/>
     </row>
     <row r="480">
-      <c r="F480" s="16"/>
+      <c r="A480" s="20"/>
+      <c r="F480" s="21"/>
     </row>
     <row r="481">
-      <c r="F481" s="16"/>
+      <c r="A481" s="20"/>
+      <c r="F481" s="21"/>
     </row>
     <row r="482">
-      <c r="F482" s="16"/>
+      <c r="A482" s="20"/>
+      <c r="F482" s="21"/>
     </row>
     <row r="483">
-      <c r="F483" s="16"/>
+      <c r="A483" s="20"/>
+      <c r="F483" s="21"/>
     </row>
     <row r="484">
-      <c r="F484" s="16"/>
+      <c r="A484" s="20"/>
+      <c r="F484" s="21"/>
     </row>
     <row r="485">
-      <c r="F485" s="16"/>
+      <c r="A485" s="20"/>
+      <c r="F485" s="21"/>
     </row>
     <row r="486">
-      <c r="F486" s="16"/>
+      <c r="A486" s="20"/>
+      <c r="F486" s="21"/>
     </row>
     <row r="487">
-      <c r="F487" s="16"/>
+      <c r="A487" s="20"/>
+      <c r="F487" s="21"/>
     </row>
     <row r="488">
-      <c r="F488" s="16"/>
+      <c r="A488" s="20"/>
+      <c r="F488" s="21"/>
     </row>
     <row r="489">
-      <c r="F489" s="16"/>
+      <c r="A489" s="20"/>
+      <c r="F489" s="21"/>
     </row>
     <row r="490">
-      <c r="F490" s="16"/>
+      <c r="A490" s="20"/>
+      <c r="F490" s="21"/>
     </row>
     <row r="491">
-      <c r="F491" s="16"/>
+      <c r="A491" s="20"/>
+      <c r="F491" s="21"/>
     </row>
     <row r="492">
-      <c r="F492" s="16"/>
+      <c r="A492" s="20"/>
+      <c r="F492" s="21"/>
     </row>
     <row r="493">
-      <c r="F493" s="16"/>
+      <c r="A493" s="20"/>
+      <c r="F493" s="21"/>
     </row>
     <row r="494">
-      <c r="F494" s="16"/>
+      <c r="A494" s="20"/>
+      <c r="F494" s="21"/>
     </row>
     <row r="495">
-      <c r="F495" s="16"/>
+      <c r="A495" s="20"/>
+      <c r="F495" s="21"/>
     </row>
     <row r="496">
-      <c r="F496" s="16"/>
+      <c r="A496" s="20"/>
+      <c r="F496" s="21"/>
     </row>
     <row r="497">
-      <c r="F497" s="16"/>
+      <c r="A497" s="20"/>
+      <c r="F497" s="21"/>
     </row>
     <row r="498">
-      <c r="F498" s="16"/>
+      <c r="A498" s="20"/>
+      <c r="F498" s="21"/>
     </row>
     <row r="499">
-      <c r="F499" s="16"/>
+      <c r="A499" s="20"/>
+      <c r="F499" s="21"/>
     </row>
     <row r="500">
-      <c r="F500" s="16"/>
+      <c r="A500" s="20"/>
+      <c r="F500" s="21"/>
     </row>
     <row r="501">
-      <c r="F501" s="16"/>
+      <c r="A501" s="20"/>
+      <c r="F501" s="21"/>
     </row>
     <row r="502">
-      <c r="F502" s="16"/>
+      <c r="A502" s="20"/>
+      <c r="F502" s="21"/>
     </row>
     <row r="503">
-      <c r="F503" s="16"/>
+      <c r="A503" s="20"/>
+      <c r="F503" s="21"/>
     </row>
     <row r="504">
-      <c r="F504" s="16"/>
+      <c r="A504" s="20"/>
+      <c r="F504" s="21"/>
     </row>
     <row r="505">
-      <c r="F505" s="16"/>
+      <c r="A505" s="20"/>
+      <c r="F505" s="21"/>
     </row>
     <row r="506">
-      <c r="F506" s="16"/>
+      <c r="A506" s="20"/>
+      <c r="F506" s="21"/>
     </row>
     <row r="507">
-      <c r="F507" s="16"/>
+      <c r="A507" s="20"/>
+      <c r="F507" s="21"/>
     </row>
     <row r="508">
-      <c r="F508" s="16"/>
+      <c r="A508" s="20"/>
+      <c r="F508" s="21"/>
     </row>
     <row r="509">
-      <c r="F509" s="16"/>
+      <c r="A509" s="20"/>
+      <c r="F509" s="21"/>
     </row>
     <row r="510">
-      <c r="F510" s="16"/>
+      <c r="A510" s="20"/>
+      <c r="F510" s="21"/>
     </row>
     <row r="511">
-      <c r="F511" s="16"/>
+      <c r="A511" s="20"/>
+      <c r="F511" s="21"/>
     </row>
     <row r="512">
-      <c r="F512" s="16"/>
+      <c r="A512" s="20"/>
+      <c r="F512" s="21"/>
     </row>
     <row r="513">
-      <c r="F513" s="16"/>
+      <c r="A513" s="20"/>
+      <c r="F513" s="21"/>
     </row>
     <row r="514">
-      <c r="F514" s="16"/>
+      <c r="A514" s="20"/>
+      <c r="F514" s="21"/>
     </row>
     <row r="515">
-      <c r="F515" s="16"/>
+      <c r="A515" s="20"/>
+      <c r="F515" s="21"/>
     </row>
     <row r="516">
-      <c r="F516" s="16"/>
+      <c r="A516" s="20"/>
+      <c r="F516" s="21"/>
     </row>
     <row r="517">
-      <c r="F517" s="16"/>
+      <c r="A517" s="20"/>
+      <c r="F517" s="21"/>
     </row>
     <row r="518">
-      <c r="F518" s="16"/>
+      <c r="A518" s="20"/>
+      <c r="F518" s="21"/>
     </row>
     <row r="519">
-      <c r="F519" s="16"/>
+      <c r="A519" s="20"/>
+      <c r="F519" s="21"/>
     </row>
     <row r="520">
-      <c r="F520" s="16"/>
+      <c r="A520" s="20"/>
+      <c r="F520" s="21"/>
     </row>
     <row r="521">
-      <c r="F521" s="16"/>
+      <c r="A521" s="20"/>
+      <c r="F521" s="21"/>
     </row>
     <row r="522">
-      <c r="F522" s="16"/>
+      <c r="A522" s="20"/>
+      <c r="F522" s="21"/>
     </row>
     <row r="523">
-      <c r="F523" s="16"/>
+      <c r="A523" s="20"/>
+      <c r="F523" s="21"/>
     </row>
     <row r="524">
-      <c r="F524" s="16"/>
+      <c r="A524" s="20"/>
+      <c r="F524" s="21"/>
     </row>
     <row r="525">
-      <c r="F525" s="16"/>
+      <c r="A525" s="20"/>
+      <c r="F525" s="21"/>
     </row>
     <row r="526">
-      <c r="F526" s="16"/>
+      <c r="A526" s="20"/>
+      <c r="F526" s="21"/>
     </row>
     <row r="527">
-      <c r="F527" s="16"/>
+      <c r="A527" s="20"/>
+      <c r="F527" s="21"/>
     </row>
     <row r="528">
-      <c r="F528" s="16"/>
+      <c r="A528" s="20"/>
+      <c r="F528" s="21"/>
     </row>
     <row r="529">
-      <c r="F529" s="16"/>
+      <c r="A529" s="20"/>
+      <c r="F529" s="21"/>
     </row>
     <row r="530">
-      <c r="F530" s="16"/>
+      <c r="A530" s="20"/>
+      <c r="F530" s="21"/>
     </row>
     <row r="531">
-      <c r="F531" s="16"/>
+      <c r="A531" s="20"/>
+      <c r="F531" s="21"/>
     </row>
     <row r="532">
-      <c r="F532" s="16"/>
+      <c r="A532" s="20"/>
+      <c r="F532" s="21"/>
     </row>
     <row r="533">
-      <c r="F533" s="16"/>
+      <c r="A533" s="20"/>
+      <c r="F533" s="21"/>
     </row>
     <row r="534">
-      <c r="F534" s="16"/>
+      <c r="A534" s="20"/>
+      <c r="F534" s="21"/>
     </row>
     <row r="535">
-      <c r="F535" s="16"/>
+      <c r="A535" s="20"/>
+      <c r="F535" s="21"/>
     </row>
     <row r="536">
-      <c r="F536" s="16"/>
+      <c r="A536" s="20"/>
+      <c r="F536" s="21"/>
     </row>
     <row r="537">
-      <c r="F537" s="16"/>
+      <c r="A537" s="20"/>
+      <c r="F537" s="21"/>
     </row>
     <row r="538">
-      <c r="F538" s="16"/>
+      <c r="A538" s="20"/>
+      <c r="F538" s="21"/>
     </row>
     <row r="539">
-      <c r="F539" s="16"/>
+      <c r="A539" s="20"/>
+      <c r="F539" s="21"/>
     </row>
     <row r="540">
-      <c r="F540" s="16"/>
+      <c r="A540" s="20"/>
+      <c r="F540" s="21"/>
     </row>
     <row r="541">
-      <c r="F541" s="16"/>
+      <c r="A541" s="20"/>
+      <c r="F541" s="21"/>
     </row>
     <row r="542">
-      <c r="F542" s="16"/>
+      <c r="A542" s="20"/>
+      <c r="F542" s="21"/>
     </row>
     <row r="543">
-      <c r="F543" s="16"/>
+      <c r="A543" s="20"/>
+      <c r="F543" s="21"/>
     </row>
     <row r="544">
-      <c r="F544" s="16"/>
+      <c r="A544" s="20"/>
+      <c r="F544" s="21"/>
     </row>
     <row r="545">
-      <c r="F545" s="16"/>
+      <c r="A545" s="20"/>
+      <c r="F545" s="21"/>
     </row>
     <row r="546">
-      <c r="F546" s="16"/>
+      <c r="A546" s="20"/>
+      <c r="F546" s="21"/>
     </row>
     <row r="547">
-      <c r="F547" s="16"/>
+      <c r="A547" s="20"/>
+      <c r="F547" s="21"/>
     </row>
     <row r="548">
-      <c r="F548" s="16"/>
+      <c r="A548" s="20"/>
+      <c r="F548" s="21"/>
     </row>
     <row r="549">
-      <c r="F549" s="16"/>
+      <c r="A549" s="20"/>
+      <c r="F549" s="21"/>
     </row>
     <row r="550">
-      <c r="F550" s="16"/>
+      <c r="A550" s="20"/>
+      <c r="F550" s="21"/>
     </row>
     <row r="551">
-      <c r="F551" s="16"/>
+      <c r="A551" s="20"/>
+      <c r="F551" s="21"/>
     </row>
     <row r="552">
-      <c r="F552" s="16"/>
+      <c r="A552" s="20"/>
+      <c r="F552" s="21"/>
     </row>
     <row r="553">
-      <c r="F553" s="16"/>
+      <c r="A553" s="20"/>
+      <c r="F553" s="21"/>
     </row>
     <row r="554">
-      <c r="F554" s="16"/>
+      <c r="A554" s="20"/>
+      <c r="F554" s="21"/>
     </row>
     <row r="555">
-      <c r="F555" s="16"/>
+      <c r="A555" s="20"/>
+      <c r="F555" s="21"/>
     </row>
     <row r="556">
-      <c r="F556" s="16"/>
+      <c r="A556" s="20"/>
+      <c r="F556" s="21"/>
     </row>
     <row r="557">
-      <c r="F557" s="16"/>
+      <c r="A557" s="20"/>
+      <c r="F557" s="21"/>
     </row>
     <row r="558">
-      <c r="F558" s="16"/>
+      <c r="A558" s="20"/>
+      <c r="F558" s="21"/>
     </row>
     <row r="559">
-      <c r="F559" s="16"/>
+      <c r="A559" s="20"/>
+      <c r="F559" s="21"/>
     </row>
     <row r="560">
-      <c r="F560" s="16"/>
+      <c r="A560" s="20"/>
+      <c r="F560" s="21"/>
     </row>
     <row r="561">
-      <c r="F561" s="16"/>
+      <c r="A561" s="20"/>
+      <c r="F561" s="21"/>
     </row>
     <row r="562">
-      <c r="F562" s="16"/>
+      <c r="A562" s="20"/>
+      <c r="F562" s="21"/>
     </row>
     <row r="563">
-      <c r="F563" s="16"/>
+      <c r="A563" s="20"/>
+      <c r="F563" s="21"/>
     </row>
     <row r="564">
-      <c r="F564" s="16"/>
+      <c r="A564" s="20"/>
+      <c r="F564" s="21"/>
     </row>
     <row r="565">
-      <c r="F565" s="16"/>
+      <c r="A565" s="20"/>
+      <c r="F565" s="21"/>
     </row>
     <row r="566">
-      <c r="F566" s="16"/>
+      <c r="A566" s="20"/>
+      <c r="F566" s="21"/>
     </row>
     <row r="567">
-      <c r="F567" s="16"/>
+      <c r="A567" s="20"/>
+      <c r="F567" s="21"/>
     </row>
     <row r="568">
-      <c r="F568" s="16"/>
+      <c r="A568" s="20"/>
+      <c r="F568" s="21"/>
     </row>
     <row r="569">
-      <c r="F569" s="16"/>
+      <c r="A569" s="20"/>
+      <c r="F569" s="21"/>
     </row>
     <row r="570">
-      <c r="F570" s="16"/>
+      <c r="A570" s="20"/>
+      <c r="F570" s="21"/>
     </row>
     <row r="571">
-      <c r="F571" s="16"/>
+      <c r="A571" s="20"/>
+      <c r="F571" s="21"/>
     </row>
     <row r="572">
-      <c r="F572" s="16"/>
+      <c r="A572" s="20"/>
+      <c r="F572" s="21"/>
     </row>
     <row r="573">
-      <c r="F573" s="16"/>
+      <c r="A573" s="20"/>
+      <c r="F573" s="21"/>
     </row>
     <row r="574">
-      <c r="F574" s="16"/>
+      <c r="A574" s="20"/>
+      <c r="F574" s="21"/>
     </row>
     <row r="575">
-      <c r="F575" s="16"/>
+      <c r="A575" s="20"/>
+      <c r="F575" s="21"/>
     </row>
     <row r="576">
-      <c r="F576" s="16"/>
+      <c r="A576" s="20"/>
+      <c r="F576" s="21"/>
     </row>
     <row r="577">
-      <c r="F577" s="16"/>
+      <c r="A577" s="20"/>
+      <c r="F577" s="21"/>
     </row>
     <row r="578">
-      <c r="F578" s="16"/>
+      <c r="A578" s="20"/>
+      <c r="F578" s="21"/>
     </row>
     <row r="579">
-      <c r="F579" s="16"/>
+      <c r="A579" s="20"/>
+      <c r="F579" s="21"/>
     </row>
     <row r="580">
-      <c r="F580" s="16"/>
+      <c r="A580" s="20"/>
+      <c r="F580" s="21"/>
     </row>
     <row r="581">
-      <c r="F581" s="16"/>
+      <c r="A581" s="20"/>
+      <c r="F581" s="21"/>
     </row>
     <row r="582">
-      <c r="F582" s="16"/>
+      <c r="A582" s="20"/>
+      <c r="F582" s="21"/>
     </row>
     <row r="583">
-      <c r="F583" s="16"/>
+      <c r="A583" s="20"/>
+      <c r="F583" s="21"/>
     </row>
     <row r="584">
-      <c r="F584" s="16"/>
+      <c r="A584" s="20"/>
+      <c r="F584" s="21"/>
     </row>
     <row r="585">
-      <c r="F585" s="16"/>
+      <c r="A585" s="20"/>
+      <c r="F585" s="21"/>
     </row>
     <row r="586">
-      <c r="F586" s="16"/>
+      <c r="A586" s="20"/>
+      <c r="F586" s="21"/>
     </row>
     <row r="587">
-      <c r="F587" s="16"/>
+      <c r="A587" s="20"/>
+      <c r="F587" s="21"/>
     </row>
     <row r="588">
-      <c r="F588" s="16"/>
+      <c r="A588" s="20"/>
+      <c r="F588" s="21"/>
     </row>
     <row r="589">
-      <c r="F589" s="16"/>
+      <c r="A589" s="20"/>
+      <c r="F589" s="21"/>
     </row>
     <row r="590">
-      <c r="F590" s="16"/>
+      <c r="A590" s="20"/>
+      <c r="F590" s="21"/>
     </row>
     <row r="591">
-      <c r="F591" s="16"/>
+      <c r="A591" s="20"/>
+      <c r="F591" s="21"/>
     </row>
     <row r="592">
-      <c r="F592" s="16"/>
+      <c r="A592" s="20"/>
+      <c r="F592" s="21"/>
     </row>
     <row r="593">
-      <c r="F593" s="16"/>
+      <c r="A593" s="20"/>
+      <c r="F593" s="21"/>
     </row>
     <row r="594">
-      <c r="F594" s="16"/>
+      <c r="A594" s="20"/>
+      <c r="F594" s="21"/>
     </row>
     <row r="595">
-      <c r="F595" s="16"/>
+      <c r="A595" s="20"/>
+      <c r="F595" s="21"/>
     </row>
     <row r="596">
-      <c r="F596" s="16"/>
+      <c r="A596" s="20"/>
+      <c r="F596" s="21"/>
     </row>
     <row r="597">
-      <c r="F597" s="16"/>
+      <c r="A597" s="20"/>
+      <c r="F597" s="21"/>
     </row>
     <row r="598">
-      <c r="F598" s="16"/>
+      <c r="A598" s="20"/>
+      <c r="F598" s="21"/>
     </row>
     <row r="599">
-      <c r="F599" s="16"/>
+      <c r="A599" s="20"/>
+      <c r="F599" s="21"/>
     </row>
     <row r="600">
-      <c r="F600" s="16"/>
+      <c r="A600" s="20"/>
+      <c r="F600" s="21"/>
     </row>
     <row r="601">
-      <c r="F601" s="16"/>
+      <c r="A601" s="20"/>
+      <c r="F601" s="21"/>
     </row>
     <row r="602">
-      <c r="F602" s="16"/>
+      <c r="A602" s="20"/>
+      <c r="F602" s="21"/>
     </row>
     <row r="603">
-      <c r="F603" s="16"/>
+      <c r="A603" s="20"/>
+      <c r="F603" s="21"/>
     </row>
     <row r="604">
-      <c r="F604" s="16"/>
+      <c r="A604" s="20"/>
+      <c r="F604" s="21"/>
     </row>
     <row r="605">
-      <c r="F605" s="16"/>
+      <c r="A605" s="20"/>
+      <c r="F605" s="21"/>
     </row>
     <row r="606">
-      <c r="F606" s="16"/>
+      <c r="A606" s="20"/>
+      <c r="F606" s="21"/>
     </row>
     <row r="607">
-      <c r="F607" s="16"/>
+      <c r="A607" s="20"/>
+      <c r="F607" s="21"/>
     </row>
     <row r="608">
-      <c r="F608" s="16"/>
+      <c r="A608" s="20"/>
+      <c r="F608" s="21"/>
     </row>
     <row r="609">
-      <c r="F609" s="16"/>
+      <c r="A609" s="20"/>
+      <c r="F609" s="21"/>
     </row>
     <row r="610">
-      <c r="F610" s="16"/>
+      <c r="A610" s="20"/>
+      <c r="F610" s="21"/>
     </row>
     <row r="611">
-      <c r="F611" s="16"/>
+      <c r="A611" s="20"/>
+      <c r="F611" s="21"/>
     </row>
     <row r="612">
-      <c r="F612" s="16"/>
+      <c r="A612" s="20"/>
+      <c r="F612" s="21"/>
     </row>
     <row r="613">
-      <c r="F613" s="16"/>
+      <c r="A613" s="20"/>
+      <c r="F613" s="21"/>
     </row>
     <row r="614">
-      <c r="F614" s="16"/>
+      <c r="A614" s="20"/>
+      <c r="F614" s="21"/>
     </row>
     <row r="615">
-      <c r="F615" s="16"/>
+      <c r="A615" s="20"/>
+      <c r="F615" s="21"/>
     </row>
     <row r="616">
-      <c r="F616" s="16"/>
+      <c r="A616" s="20"/>
+      <c r="F616" s="21"/>
     </row>
     <row r="617">
-      <c r="F617" s="16"/>
+      <c r="A617" s="20"/>
+      <c r="F617" s="21"/>
     </row>
     <row r="618">
-      <c r="F618" s="16"/>
+      <c r="A618" s="20"/>
+      <c r="F618" s="21"/>
     </row>
     <row r="619">
-      <c r="F619" s="16"/>
+      <c r="A619" s="20"/>
+      <c r="F619" s="21"/>
     </row>
     <row r="620">
-      <c r="F620" s="16"/>
+      <c r="A620" s="20"/>
+      <c r="F620" s="21"/>
     </row>
     <row r="621">
-      <c r="F621" s="16"/>
+      <c r="A621" s="20"/>
+      <c r="F621" s="21"/>
     </row>
     <row r="622">
-      <c r="F622" s="16"/>
+      <c r="A622" s="20"/>
+      <c r="F622" s="21"/>
     </row>
     <row r="623">
-      <c r="F623" s="16"/>
+      <c r="A623" s="20"/>
+      <c r="F623" s="21"/>
     </row>
     <row r="624">
-      <c r="F624" s="16"/>
+      <c r="A624" s="20"/>
+      <c r="F624" s="21"/>
     </row>
     <row r="625">
-      <c r="F625" s="16"/>
+      <c r="A625" s="20"/>
+      <c r="F625" s="21"/>
     </row>
     <row r="626">
-      <c r="F626" s="16"/>
+      <c r="A626" s="20"/>
+      <c r="F626" s="21"/>
     </row>
     <row r="627">
-      <c r="F627" s="16"/>
+      <c r="A627" s="20"/>
+      <c r="F627" s="21"/>
     </row>
     <row r="628">
-      <c r="F628" s="16"/>
+      <c r="A628" s="20"/>
+      <c r="F628" s="21"/>
     </row>
     <row r="629">
-      <c r="F629" s="16"/>
+      <c r="A629" s="20"/>
+      <c r="F629" s="21"/>
     </row>
     <row r="630">
-      <c r="F630" s="16"/>
+      <c r="A630" s="20"/>
+      <c r="F630" s="21"/>
     </row>
     <row r="631">
-      <c r="F631" s="16"/>
+      <c r="A631" s="20"/>
+      <c r="F631" s="21"/>
     </row>
     <row r="632">
-      <c r="F632" s="16"/>
+      <c r="A632" s="20"/>
+      <c r="F632" s="21"/>
     </row>
     <row r="633">
-      <c r="F633" s="16"/>
+      <c r="A633" s="20"/>
+      <c r="F633" s="21"/>
     </row>
     <row r="634">
-      <c r="F634" s="16"/>
+      <c r="A634" s="20"/>
+      <c r="F634" s="21"/>
     </row>
     <row r="635">
-      <c r="F635" s="16"/>
+      <c r="A635" s="20"/>
+      <c r="F635" s="21"/>
     </row>
     <row r="636">
-      <c r="F636" s="16"/>
+      <c r="A636" s="20"/>
+      <c r="F636" s="21"/>
     </row>
     <row r="637">
-      <c r="F637" s="16"/>
+      <c r="A637" s="20"/>
+      <c r="F637" s="21"/>
     </row>
     <row r="638">
-      <c r="F638" s="16"/>
+      <c r="A638" s="20"/>
+      <c r="F638" s="21"/>
     </row>
     <row r="639">
-      <c r="F639" s="16"/>
+      <c r="A639" s="20"/>
+      <c r="F639" s="21"/>
     </row>
     <row r="640">
-      <c r="F640" s="16"/>
+      <c r="A640" s="20"/>
+      <c r="F640" s="21"/>
     </row>
     <row r="641">
-      <c r="F641" s="16"/>
+      <c r="A641" s="20"/>
+      <c r="F641" s="21"/>
     </row>
     <row r="642">
-      <c r="F642" s="16"/>
+      <c r="A642" s="20"/>
+      <c r="F642" s="21"/>
     </row>
     <row r="643">
-      <c r="F643" s="16"/>
+      <c r="A643" s="20"/>
+      <c r="F643" s="21"/>
     </row>
     <row r="644">
-      <c r="F644" s="16"/>
+      <c r="A644" s="20"/>
+      <c r="F644" s="21"/>
     </row>
     <row r="645">
-      <c r="F645" s="16"/>
+      <c r="A645" s="20"/>
+      <c r="F645" s="21"/>
     </row>
     <row r="646">
-      <c r="F646" s="16"/>
+      <c r="A646" s="20"/>
+      <c r="F646" s="21"/>
     </row>
     <row r="647">
-      <c r="F647" s="16"/>
+      <c r="A647" s="20"/>
+      <c r="F647" s="21"/>
     </row>
     <row r="648">
-      <c r="F648" s="16"/>
+      <c r="A648" s="20"/>
+      <c r="F648" s="21"/>
     </row>
     <row r="649">
-      <c r="F649" s="16"/>
+      <c r="A649" s="20"/>
+      <c r="F649" s="21"/>
     </row>
     <row r="650">
-      <c r="F650" s="16"/>
+      <c r="A650" s="20"/>
+      <c r="F650" s="21"/>
     </row>
     <row r="651">
-      <c r="F651" s="16"/>
+      <c r="A651" s="20"/>
+      <c r="F651" s="21"/>
     </row>
     <row r="652">
-      <c r="F652" s="16"/>
+      <c r="A652" s="20"/>
+      <c r="F652" s="21"/>
     </row>
     <row r="653">
-      <c r="F653" s="16"/>
+      <c r="A653" s="20"/>
+      <c r="F653" s="21"/>
     </row>
     <row r="654">
-      <c r="F654" s="16"/>
+      <c r="A654" s="20"/>
+      <c r="F654" s="21"/>
     </row>
     <row r="655">
-      <c r="F655" s="16"/>
+      <c r="A655" s="20"/>
+      <c r="F655" s="21"/>
     </row>
     <row r="656">
-      <c r="F656" s="16"/>
+      <c r="A656" s="20"/>
+      <c r="F656" s="21"/>
     </row>
     <row r="657">
-      <c r="F657" s="16"/>
+      <c r="A657" s="20"/>
+      <c r="F657" s="21"/>
     </row>
     <row r="658">
-      <c r="F658" s="16"/>
+      <c r="A658" s="20"/>
+      <c r="F658" s="21"/>
     </row>
     <row r="659">
-      <c r="F659" s="16"/>
+      <c r="A659" s="20"/>
+      <c r="F659" s="21"/>
     </row>
     <row r="660">
-      <c r="F660" s="16"/>
+      <c r="A660" s="20"/>
+      <c r="F660" s="21"/>
     </row>
     <row r="661">
-      <c r="F661" s="16"/>
+      <c r="A661" s="20"/>
+      <c r="F661" s="21"/>
     </row>
     <row r="662">
-      <c r="F662" s="16"/>
+      <c r="A662" s="20"/>
+      <c r="F662" s="21"/>
     </row>
     <row r="663">
-      <c r="F663" s="16"/>
+      <c r="A663" s="20"/>
+      <c r="F663" s="21"/>
     </row>
     <row r="664">
-      <c r="F664" s="16"/>
+      <c r="A664" s="20"/>
+      <c r="F664" s="21"/>
     </row>
     <row r="665">
-      <c r="F665" s="16"/>
+      <c r="A665" s="20"/>
+      <c r="F665" s="21"/>
     </row>
     <row r="666">
-      <c r="F666" s="16"/>
+      <c r="A666" s="20"/>
+      <c r="F666" s="21"/>
     </row>
     <row r="667">
-      <c r="F667" s="16"/>
+      <c r="A667" s="20"/>
+      <c r="F667" s="21"/>
     </row>
     <row r="668">
-      <c r="F668" s="16"/>
+      <c r="A668" s="20"/>
+      <c r="F668" s="21"/>
     </row>
     <row r="669">
-      <c r="F669" s="16"/>
+      <c r="A669" s="20"/>
+      <c r="F669" s="21"/>
     </row>
     <row r="670">
-      <c r="F670" s="16"/>
+      <c r="A670" s="20"/>
+      <c r="F670" s="21"/>
     </row>
     <row r="671">
-      <c r="F671" s="16"/>
+      <c r="A671" s="20"/>
+      <c r="F671" s="21"/>
     </row>
     <row r="672">
-      <c r="F672" s="16"/>
+      <c r="A672" s="20"/>
+      <c r="F672" s="21"/>
     </row>
     <row r="673">
-      <c r="F673" s="16"/>
+      <c r="A673" s="20"/>
+      <c r="F673" s="21"/>
     </row>
     <row r="674">
-      <c r="F674" s="16"/>
+      <c r="A674" s="20"/>
+      <c r="F674" s="21"/>
     </row>
     <row r="675">
-      <c r="F675" s="16"/>
+      <c r="A675" s="20"/>
+      <c r="F675" s="21"/>
     </row>
     <row r="676">
-      <c r="F676" s="16"/>
+      <c r="A676" s="20"/>
+      <c r="F676" s="21"/>
     </row>
     <row r="677">
-      <c r="F677" s="16"/>
+      <c r="A677" s="20"/>
+      <c r="F677" s="21"/>
     </row>
     <row r="678">
-      <c r="F678" s="16"/>
+      <c r="A678" s="20"/>
+      <c r="F678" s="21"/>
     </row>
     <row r="679">
-      <c r="F679" s="16"/>
+      <c r="A679" s="20"/>
+      <c r="F679" s="21"/>
     </row>
     <row r="680">
-      <c r="F680" s="16"/>
+      <c r="A680" s="20"/>
+      <c r="F680" s="21"/>
     </row>
     <row r="681">
-      <c r="F681" s="16"/>
+      <c r="A681" s="20"/>
+      <c r="F681" s="21"/>
     </row>
     <row r="682">
-      <c r="F682" s="16"/>
+      <c r="A682" s="20"/>
+      <c r="F682" s="21"/>
     </row>
     <row r="683">
-      <c r="F683" s="16"/>
+      <c r="A683" s="20"/>
+      <c r="F683" s="21"/>
     </row>
     <row r="684">
-      <c r="F684" s="16"/>
+      <c r="A684" s="20"/>
+      <c r="F684" s="21"/>
     </row>
     <row r="685">
-      <c r="F685" s="16"/>
+      <c r="A685" s="20"/>
+      <c r="F685" s="21"/>
     </row>
     <row r="686">
-      <c r="F686" s="16"/>
+      <c r="A686" s="20"/>
+      <c r="F686" s="21"/>
     </row>
     <row r="687">
-      <c r="F687" s="16"/>
+      <c r="A687" s="20"/>
+      <c r="F687" s="21"/>
     </row>
     <row r="688">
-      <c r="F688" s="16"/>
+      <c r="A688" s="20"/>
+      <c r="F688" s="21"/>
     </row>
     <row r="689">
-      <c r="F689" s="16"/>
+      <c r="A689" s="20"/>
+      <c r="F689" s="21"/>
     </row>
     <row r="690">
-      <c r="F690" s="16"/>
+      <c r="A690" s="20"/>
+      <c r="F690" s="21"/>
     </row>
     <row r="691">
-      <c r="F691" s="16"/>
+      <c r="A691" s="20"/>
+      <c r="F691" s="21"/>
     </row>
     <row r="692">
-      <c r="F692" s="16"/>
+      <c r="A692" s="20"/>
+      <c r="F692" s="21"/>
     </row>
     <row r="693">
-      <c r="F693" s="16"/>
+      <c r="A693" s="20"/>
+      <c r="F693" s="21"/>
     </row>
     <row r="694">
-      <c r="F694" s="16"/>
+      <c r="A694" s="20"/>
+      <c r="F694" s="21"/>
     </row>
     <row r="695">
-      <c r="F695" s="16"/>
+      <c r="A695" s="20"/>
+      <c r="F695" s="21"/>
     </row>
     <row r="696">
-      <c r="F696" s="16"/>
+      <c r="A696" s="20"/>
+      <c r="F696" s="21"/>
     </row>
     <row r="697">
-      <c r="F697" s="16"/>
+      <c r="A697" s="20"/>
+      <c r="F697" s="21"/>
     </row>
     <row r="698">
-      <c r="F698" s="16"/>
+      <c r="A698" s="20"/>
+      <c r="F698" s="21"/>
     </row>
     <row r="699">
-      <c r="F699" s="16"/>
+      <c r="A699" s="20"/>
+      <c r="F699" s="21"/>
     </row>
     <row r="700">
-      <c r="F700" s="16"/>
+      <c r="A700" s="20"/>
+      <c r="F700" s="21"/>
     </row>
     <row r="701">
-      <c r="F701" s="16"/>
+      <c r="A701" s="20"/>
+      <c r="F701" s="21"/>
     </row>
     <row r="702">
-      <c r="F702" s="16"/>
+      <c r="A702" s="20"/>
+      <c r="F702" s="21"/>
     </row>
     <row r="703">
-      <c r="F703" s="16"/>
+      <c r="A703" s="20"/>
+      <c r="F703" s="21"/>
     </row>
     <row r="704">
-      <c r="F704" s="16"/>
+      <c r="A704" s="20"/>
+      <c r="F704" s="21"/>
     </row>
     <row r="705">
-      <c r="F705" s="16"/>
+      <c r="A705" s="20"/>
+      <c r="F705" s="21"/>
     </row>
     <row r="706">
-      <c r="F706" s="16"/>
+      <c r="A706" s="20"/>
+      <c r="F706" s="21"/>
     </row>
     <row r="707">
-      <c r="F707" s="16"/>
+      <c r="A707" s="20"/>
+      <c r="F707" s="21"/>
     </row>
     <row r="708">
-      <c r="F708" s="16"/>
+      <c r="A708" s="20"/>
+      <c r="F708" s="21"/>
     </row>
     <row r="709">
-      <c r="F709" s="16"/>
+      <c r="A709" s="20"/>
+      <c r="F709" s="21"/>
     </row>
     <row r="710">
-      <c r="F710" s="16"/>
+      <c r="A710" s="20"/>
+      <c r="F710" s="21"/>
     </row>
     <row r="711">
-      <c r="F711" s="16"/>
+      <c r="A711" s="20"/>
+      <c r="F711" s="21"/>
     </row>
     <row r="712">
-      <c r="F712" s="16"/>
+      <c r="A712" s="20"/>
+      <c r="F712" s="21"/>
     </row>
     <row r="713">
-      <c r="F713" s="16"/>
+      <c r="A713" s="20"/>
+      <c r="F713" s="21"/>
     </row>
     <row r="714">
-      <c r="F714" s="16"/>
+      <c r="A714" s="20"/>
+      <c r="F714" s="21"/>
     </row>
     <row r="715">
-      <c r="F715" s="16"/>
+      <c r="A715" s="20"/>
+      <c r="F715" s="21"/>
     </row>
     <row r="716">
-      <c r="F716" s="16"/>
+      <c r="A716" s="20"/>
+      <c r="F716" s="21"/>
     </row>
     <row r="717">
-      <c r="F717" s="16"/>
+      <c r="A717" s="20"/>
+      <c r="F717" s="21"/>
     </row>
     <row r="718">
-      <c r="F718" s="16"/>
+      <c r="A718" s="20"/>
+      <c r="F718" s="21"/>
     </row>
     <row r="719">
-      <c r="F719" s="16"/>
+      <c r="A719" s="20"/>
+      <c r="F719" s="21"/>
     </row>
     <row r="720">
-      <c r="F720" s="16"/>
+      <c r="A720" s="20"/>
+      <c r="F720" s="21"/>
     </row>
     <row r="721">
-      <c r="F721" s="16"/>
+      <c r="A721" s="20"/>
+      <c r="F721" s="21"/>
     </row>
     <row r="722">
-      <c r="F722" s="16"/>
+      <c r="A722" s="20"/>
+      <c r="F722" s="21"/>
     </row>
     <row r="723">
-      <c r="F723" s="16"/>
+      <c r="A723" s="20"/>
+      <c r="F723" s="21"/>
     </row>
     <row r="724">
-      <c r="F724" s="16"/>
+      <c r="A724" s="20"/>
+      <c r="F724" s="21"/>
     </row>
     <row r="725">
-      <c r="F725" s="16"/>
+      <c r="A725" s="20"/>
+      <c r="F725" s="21"/>
     </row>
     <row r="726">
-      <c r="F726" s="16"/>
+      <c r="A726" s="20"/>
+      <c r="F726" s="21"/>
     </row>
     <row r="727">
-      <c r="F727" s="16"/>
+      <c r="A727" s="20"/>
+      <c r="F727" s="21"/>
     </row>
     <row r="728">
-      <c r="F728" s="16"/>
+      <c r="A728" s="20"/>
+      <c r="F728" s="21"/>
     </row>
     <row r="729">
-      <c r="F729" s="16"/>
+      <c r="A729" s="20"/>
+      <c r="F729" s="21"/>
     </row>
     <row r="730">
-      <c r="F730" s="16"/>
+      <c r="A730" s="20"/>
+      <c r="F730" s="21"/>
     </row>
     <row r="731">
-      <c r="F731" s="16"/>
+      <c r="A731" s="20"/>
+      <c r="F731" s="21"/>
     </row>
     <row r="732">
-      <c r="F732" s="16"/>
+      <c r="A732" s="20"/>
+      <c r="F732" s="21"/>
     </row>
     <row r="733">
-      <c r="F733" s="16"/>
+      <c r="A733" s="20"/>
+      <c r="F733" s="21"/>
     </row>
     <row r="734">
-      <c r="F734" s="16"/>
+      <c r="A734" s="20"/>
+      <c r="F734" s="21"/>
     </row>
     <row r="735">
-      <c r="F735" s="16"/>
+      <c r="A735" s="20"/>
+      <c r="F735" s="21"/>
     </row>
     <row r="736">
-      <c r="F736" s="16"/>
+      <c r="A736" s="20"/>
+      <c r="F736" s="21"/>
     </row>
     <row r="737">
-      <c r="F737" s="16"/>
+      <c r="A737" s="20"/>
+      <c r="F737" s="21"/>
     </row>
     <row r="738">
-      <c r="F738" s="16"/>
+      <c r="A738" s="20"/>
+      <c r="F738" s="21"/>
     </row>
     <row r="739">
-      <c r="F739" s="16"/>
+      <c r="A739" s="20"/>
+      <c r="F739" s="21"/>
     </row>
     <row r="740">
-      <c r="F740" s="16"/>
+      <c r="A740" s="20"/>
+      <c r="F740" s="21"/>
     </row>
     <row r="741">
-      <c r="F741" s="16"/>
+      <c r="A741" s="20"/>
+      <c r="F741" s="21"/>
     </row>
     <row r="742">
-      <c r="F742" s="16"/>
+      <c r="A742" s="20"/>
+      <c r="F742" s="21"/>
     </row>
     <row r="743">
-      <c r="F743" s="16"/>
+      <c r="A743" s="20"/>
+      <c r="F743" s="21"/>
     </row>
     <row r="744">
-      <c r="F744" s="16"/>
+      <c r="A744" s="20"/>
+      <c r="F744" s="21"/>
     </row>
     <row r="745">
-      <c r="F745" s="16"/>
+      <c r="A745" s="20"/>
+      <c r="F745" s="21"/>
     </row>
     <row r="746">
-      <c r="F746" s="16"/>
+      <c r="A746" s="20"/>
+      <c r="F746" s="21"/>
     </row>
     <row r="747">
-      <c r="F747" s="16"/>
+      <c r="A747" s="20"/>
+      <c r="F747" s="21"/>
     </row>
     <row r="748">
-      <c r="F748" s="16"/>
+      <c r="A748" s="20"/>
+      <c r="F748" s="21"/>
     </row>
     <row r="749">
-      <c r="F749" s="16"/>
+      <c r="A749" s="20"/>
+      <c r="F749" s="21"/>
     </row>
     <row r="750">
-      <c r="F750" s="16"/>
+      <c r="A750" s="20"/>
+      <c r="F750" s="21"/>
     </row>
     <row r="751">
-      <c r="F751" s="16"/>
+      <c r="A751" s="20"/>
+      <c r="F751" s="21"/>
     </row>
     <row r="752">
-      <c r="F752" s="16"/>
+      <c r="A752" s="20"/>
+      <c r="F752" s="21"/>
     </row>
     <row r="753">
-      <c r="F753" s="16"/>
+      <c r="A753" s="20"/>
+      <c r="F753" s="21"/>
     </row>
     <row r="754">
-      <c r="F754" s="16"/>
+      <c r="A754" s="20"/>
+      <c r="F754" s="21"/>
     </row>
     <row r="755">
-      <c r="F755" s="16"/>
+      <c r="A755" s="20"/>
+      <c r="F755" s="21"/>
     </row>
     <row r="756">
-      <c r="F756" s="16"/>
+      <c r="A756" s="20"/>
+      <c r="F756" s="21"/>
     </row>
     <row r="757">
-      <c r="F757" s="16"/>
+      <c r="A757" s="20"/>
+      <c r="F757" s="21"/>
     </row>
     <row r="758">
-      <c r="F758" s="16"/>
+      <c r="A758" s="20"/>
+      <c r="F758" s="21"/>
     </row>
     <row r="759">
-      <c r="F759" s="16"/>
+      <c r="A759" s="20"/>
+      <c r="F759" s="21"/>
     </row>
     <row r="760">
-      <c r="F760" s="16"/>
+      <c r="A760" s="20"/>
+      <c r="F760" s="21"/>
     </row>
     <row r="761">
-      <c r="F761" s="16"/>
+      <c r="A761" s="20"/>
+      <c r="F761" s="21"/>
     </row>
     <row r="762">
-      <c r="F762" s="16"/>
+      <c r="A762" s="20"/>
+      <c r="F762" s="21"/>
     </row>
     <row r="763">
-      <c r="F763" s="16"/>
+      <c r="A763" s="20"/>
+      <c r="F763" s="21"/>
     </row>
     <row r="764">
-      <c r="F764" s="16"/>
+      <c r="A764" s="20"/>
+      <c r="F764" s="21"/>
     </row>
     <row r="765">
-      <c r="F765" s="16"/>
+      <c r="A765" s="20"/>
+      <c r="F765" s="21"/>
     </row>
     <row r="766">
-      <c r="F766" s="16"/>
+      <c r="A766" s="20"/>
+      <c r="F766" s="21"/>
     </row>
     <row r="767">
-      <c r="F767" s="16"/>
+      <c r="A767" s="20"/>
+      <c r="F767" s="21"/>
     </row>
     <row r="768">
-      <c r="F768" s="16"/>
+      <c r="A768" s="20"/>
+      <c r="F768" s="21"/>
     </row>
     <row r="769">
-      <c r="F769" s="16"/>
+      <c r="A769" s="20"/>
+      <c r="F769" s="21"/>
     </row>
     <row r="770">
-      <c r="F770" s="16"/>
+      <c r="A770" s="20"/>
+      <c r="F770" s="21"/>
     </row>
     <row r="771">
-      <c r="F771" s="16"/>
+      <c r="A771" s="20"/>
+      <c r="F771" s="21"/>
     </row>
     <row r="772">
-      <c r="F772" s="16"/>
+      <c r="A772" s="20"/>
+      <c r="F772" s="21"/>
     </row>
     <row r="773">
-      <c r="F773" s="16"/>
+      <c r="A773" s="20"/>
+      <c r="F773" s="21"/>
     </row>
     <row r="774">
-      <c r="F774" s="16"/>
+      <c r="A774" s="20"/>
+      <c r="F774" s="21"/>
     </row>
     <row r="775">
-      <c r="F775" s="16"/>
+      <c r="A775" s="20"/>
+      <c r="F775" s="21"/>
     </row>
     <row r="776">
-      <c r="F776" s="16"/>
+      <c r="A776" s="20"/>
+      <c r="F776" s="21"/>
     </row>
     <row r="777">
-      <c r="F777" s="16"/>
+      <c r="A777" s="20"/>
+      <c r="F777" s="21"/>
     </row>
     <row r="778">
-      <c r="F778" s="16"/>
+      <c r="A778" s="20"/>
+      <c r="F778" s="21"/>
     </row>
     <row r="779">
-      <c r="F779" s="16"/>
+      <c r="A779" s="20"/>
+      <c r="F779" s="21"/>
     </row>
     <row r="780">
-      <c r="F780" s="16"/>
+      <c r="A780" s="20"/>
+      <c r="F780" s="21"/>
     </row>
     <row r="781">
-      <c r="F781" s="16"/>
+      <c r="A781" s="20"/>
+      <c r="F781" s="21"/>
     </row>
     <row r="782">
-      <c r="F782" s="16"/>
+      <c r="A782" s="20"/>
+      <c r="F782" s="21"/>
     </row>
     <row r="783">
-      <c r="F783" s="16"/>
+      <c r="A783" s="20"/>
+      <c r="F783" s="21"/>
     </row>
     <row r="784">
-      <c r="F784" s="16"/>
+      <c r="A784" s="20"/>
+      <c r="F784" s="21"/>
     </row>
     <row r="785">
-      <c r="F785" s="16"/>
+      <c r="A785" s="20"/>
+      <c r="F785" s="21"/>
     </row>
     <row r="786">
-      <c r="F786" s="16"/>
+      <c r="A786" s="20"/>
+      <c r="F786" s="21"/>
     </row>
     <row r="787">
-      <c r="F787" s="16"/>
+      <c r="A787" s="20"/>
+      <c r="F787" s="21"/>
     </row>
     <row r="788">
-      <c r="F788" s="16"/>
+      <c r="A788" s="20"/>
+      <c r="F788" s="21"/>
     </row>
     <row r="789">
-      <c r="F789" s="16"/>
+      <c r="A789" s="20"/>
+      <c r="F789" s="21"/>
     </row>
     <row r="790">
-      <c r="F790" s="16"/>
+      <c r="A790" s="20"/>
+      <c r="F790" s="21"/>
     </row>
     <row r="791">
-      <c r="F791" s="16"/>
+      <c r="A791" s="20"/>
+      <c r="F791" s="21"/>
     </row>
     <row r="792">
-      <c r="F792" s="16"/>
+      <c r="A792" s="20"/>
+      <c r="F792" s="21"/>
     </row>
     <row r="793">
-      <c r="F793" s="16"/>
+      <c r="A793" s="20"/>
+      <c r="F793" s="21"/>
     </row>
     <row r="794">
-      <c r="F794" s="16"/>
+      <c r="A794" s="20"/>
+      <c r="F794" s="21"/>
     </row>
     <row r="795">
-      <c r="F795" s="16"/>
+      <c r="A795" s="20"/>
+      <c r="F795" s="21"/>
     </row>
     <row r="796">
-      <c r="F796" s="16"/>
+      <c r="A796" s="20"/>
+      <c r="F796" s="21"/>
     </row>
     <row r="797">
-      <c r="F797" s="16"/>
+      <c r="A797" s="20"/>
+      <c r="F797" s="21"/>
     </row>
     <row r="798">
-      <c r="F798" s="16"/>
+      <c r="A798" s="20"/>
+      <c r="F798" s="21"/>
     </row>
     <row r="799">
-      <c r="F799" s="16"/>
+      <c r="A799" s="20"/>
+      <c r="F799" s="21"/>
     </row>
     <row r="800">
-      <c r="F800" s="16"/>
+      <c r="A800" s="20"/>
+      <c r="F800" s="21"/>
     </row>
     <row r="801">
-      <c r="F801" s="16"/>
+      <c r="A801" s="20"/>
+      <c r="F801" s="21"/>
     </row>
     <row r="802">
-      <c r="F802" s="16"/>
+      <c r="A802" s="20"/>
+      <c r="F802" s="21"/>
     </row>
     <row r="803">
-      <c r="F803" s="16"/>
+      <c r="A803" s="20"/>
+      <c r="F803" s="21"/>
     </row>
     <row r="804">
-      <c r="F804" s="16"/>
+      <c r="A804" s="20"/>
+      <c r="F804" s="21"/>
     </row>
     <row r="805">
-      <c r="F805" s="16"/>
+      <c r="A805" s="20"/>
+      <c r="F805" s="21"/>
     </row>
     <row r="806">
-      <c r="F806" s="16"/>
+      <c r="A806" s="20"/>
+      <c r="F806" s="21"/>
     </row>
     <row r="807">
-      <c r="F807" s="16"/>
+      <c r="A807" s="20"/>
+      <c r="F807" s="21"/>
     </row>
     <row r="808">
-      <c r="F808" s="16"/>
+      <c r="A808" s="20"/>
+      <c r="F808" s="21"/>
     </row>
     <row r="809">
-      <c r="F809" s="16"/>
+      <c r="A809" s="20"/>
+      <c r="F809" s="21"/>
     </row>
     <row r="810">
-      <c r="F810" s="16"/>
+      <c r="A810" s="20"/>
+      <c r="F810" s="21"/>
     </row>
     <row r="811">
-      <c r="F811" s="16"/>
+      <c r="A811" s="20"/>
+      <c r="F811" s="21"/>
     </row>
     <row r="812">
-      <c r="F812" s="16"/>
+      <c r="A812" s="20"/>
+      <c r="F812" s="21"/>
     </row>
     <row r="813">
-      <c r="F813" s="16"/>
+      <c r="A813" s="20"/>
+      <c r="F813" s="21"/>
     </row>
     <row r="814">
-      <c r="F814" s="16"/>
+      <c r="A814" s="20"/>
+      <c r="F814" s="21"/>
     </row>
     <row r="815">
-      <c r="F815" s="16"/>
+      <c r="A815" s="20"/>
+      <c r="F815" s="21"/>
     </row>
     <row r="816">
-      <c r="F816" s="16"/>
+      <c r="A816" s="20"/>
+      <c r="F816" s="21"/>
     </row>
     <row r="817">
-      <c r="F817" s="16"/>
+      <c r="A817" s="20"/>
+      <c r="F817" s="21"/>
     </row>
     <row r="818">
-      <c r="F818" s="16"/>
+      <c r="A818" s="20"/>
+      <c r="F818" s="21"/>
     </row>
     <row r="819">
-      <c r="F819" s="16"/>
+      <c r="A819" s="20"/>
+      <c r="F819" s="21"/>
     </row>
     <row r="820">
-      <c r="F820" s="16"/>
+      <c r="A820" s="20"/>
+      <c r="F820" s="21"/>
     </row>
     <row r="821">
-      <c r="F821" s="16"/>
+      <c r="A821" s="20"/>
+      <c r="F821" s="21"/>
     </row>
     <row r="822">
-      <c r="F822" s="16"/>
+      <c r="A822" s="20"/>
+      <c r="F822" s="21"/>
     </row>
     <row r="823">
-      <c r="F823" s="16"/>
+      <c r="A823" s="20"/>
+      <c r="F823" s="21"/>
     </row>
     <row r="824">
-      <c r="F824" s="16"/>
+      <c r="A824" s="20"/>
+      <c r="F824" s="21"/>
     </row>
     <row r="825">
-      <c r="F825" s="16"/>
+      <c r="A825" s="20"/>
+      <c r="F825" s="21"/>
     </row>
     <row r="826">
-      <c r="F826" s="16"/>
+      <c r="A826" s="20"/>
+      <c r="F826" s="21"/>
     </row>
     <row r="827">
-      <c r="F827" s="16"/>
+      <c r="A827" s="20"/>
+      <c r="F827" s="21"/>
     </row>
     <row r="828">
-      <c r="F828" s="16"/>
+      <c r="A828" s="20"/>
+      <c r="F828" s="21"/>
     </row>
     <row r="829">
-      <c r="F829" s="16"/>
+      <c r="A829" s="20"/>
+      <c r="F829" s="21"/>
     </row>
     <row r="830">
-      <c r="F830" s="16"/>
+      <c r="A830" s="20"/>
+      <c r="F830" s="21"/>
     </row>
     <row r="831">
-      <c r="F831" s="16"/>
+      <c r="A831" s="20"/>
+      <c r="F831" s="21"/>
     </row>
     <row r="832">
-      <c r="F832" s="16"/>
+      <c r="A832" s="20"/>
+      <c r="F832" s="21"/>
     </row>
     <row r="833">
-      <c r="F833" s="16"/>
+      <c r="A833" s="20"/>
+      <c r="F833" s="21"/>
     </row>
     <row r="834">
-      <c r="F834" s="16"/>
+      <c r="A834" s="20"/>
+      <c r="F834" s="21"/>
     </row>
     <row r="835">
-      <c r="F835" s="16"/>
+      <c r="A835" s="20"/>
+      <c r="F835" s="21"/>
     </row>
     <row r="836">
-      <c r="F836" s="16"/>
+      <c r="A836" s="20"/>
+      <c r="F836" s="21"/>
     </row>
     <row r="837">
-      <c r="F837" s="16"/>
+      <c r="A837" s="20"/>
+      <c r="F837" s="21"/>
     </row>
     <row r="838">
-      <c r="F838" s="16"/>
+      <c r="A838" s="20"/>
+      <c r="F838" s="21"/>
     </row>
     <row r="839">
-      <c r="F839" s="16"/>
+      <c r="A839" s="20"/>
+      <c r="F839" s="21"/>
     </row>
     <row r="840">
-      <c r="F840" s="16"/>
+      <c r="A840" s="20"/>
+      <c r="F840" s="21"/>
     </row>
     <row r="841">
-      <c r="F841" s="16"/>
+      <c r="A841" s="20"/>
+      <c r="F841" s="21"/>
     </row>
     <row r="842">
-      <c r="F842" s="16"/>
+      <c r="A842" s="20"/>
+      <c r="F842" s="21"/>
     </row>
     <row r="843">
-      <c r="F843" s="16"/>
+      <c r="A843" s="20"/>
+      <c r="F843" s="21"/>
     </row>
     <row r="844">
-      <c r="F844" s="16"/>
+      <c r="A844" s="20"/>
+      <c r="F844" s="21"/>
     </row>
     <row r="845">
-      <c r="F845" s="16"/>
+      <c r="A845" s="20"/>
+      <c r="F845" s="21"/>
     </row>
     <row r="846">
-      <c r="F846" s="16"/>
+      <c r="A846" s="20"/>
+      <c r="F846" s="21"/>
     </row>
     <row r="847">
-      <c r="F847" s="16"/>
+      <c r="A847" s="20"/>
+      <c r="F847" s="21"/>
     </row>
     <row r="848">
-      <c r="F848" s="16"/>
+      <c r="A848" s="20"/>
+      <c r="F848" s="21"/>
     </row>
     <row r="849">
-      <c r="F849" s="16"/>
+      <c r="A849" s="20"/>
+      <c r="F849" s="21"/>
     </row>
     <row r="850">
-      <c r="F850" s="16"/>
+      <c r="A850" s="20"/>
+      <c r="F850" s="21"/>
     </row>
     <row r="851">
-      <c r="F851" s="16"/>
+      <c r="A851" s="20"/>
+      <c r="F851" s="21"/>
     </row>
     <row r="852">
-      <c r="F852" s="16"/>
+      <c r="A852" s="20"/>
+      <c r="F852" s="21"/>
     </row>
     <row r="853">
-      <c r="F853" s="16"/>
+      <c r="A853" s="20"/>
+      <c r="F853" s="21"/>
     </row>
     <row r="854">
-      <c r="F854" s="16"/>
+      <c r="A854" s="20"/>
+      <c r="F854" s="21"/>
     </row>
     <row r="855">
-      <c r="F855" s="16"/>
+      <c r="A855" s="20"/>
+      <c r="F855" s="21"/>
     </row>
     <row r="856">
-      <c r="F856" s="16"/>
+      <c r="A856" s="20"/>
+      <c r="F856" s="21"/>
     </row>
     <row r="857">
-      <c r="F857" s="16"/>
+      <c r="A857" s="20"/>
+      <c r="F857" s="21"/>
     </row>
     <row r="858">
-      <c r="F858" s="16"/>
+      <c r="A858" s="20"/>
+      <c r="F858" s="21"/>
     </row>
     <row r="859">
-      <c r="F859" s="16"/>
+      <c r="A859" s="20"/>
+      <c r="F859" s="21"/>
     </row>
     <row r="860">
-      <c r="F860" s="16"/>
+      <c r="A860" s="20"/>
+      <c r="F860" s="21"/>
     </row>
     <row r="861">
-      <c r="F861" s="16"/>
+      <c r="A861" s="20"/>
+      <c r="F861" s="21"/>
     </row>
     <row r="862">
-      <c r="F862" s="16"/>
+      <c r="A862" s="20"/>
+      <c r="F862" s="21"/>
     </row>
     <row r="863">
-      <c r="F863" s="16"/>
+      <c r="A863" s="20"/>
+      <c r="F863" s="21"/>
     </row>
     <row r="864">
-      <c r="F864" s="16"/>
+      <c r="A864" s="20"/>
+      <c r="F864" s="21"/>
     </row>
     <row r="865">
-      <c r="F865" s="16"/>
+      <c r="A865" s="20"/>
+      <c r="F865" s="21"/>
     </row>
     <row r="866">
-      <c r="F866" s="16"/>
+      <c r="A866" s="20"/>
+      <c r="F866" s="21"/>
     </row>
     <row r="867">
-      <c r="F867" s="16"/>
+      <c r="A867" s="20"/>
+      <c r="F867" s="21"/>
     </row>
     <row r="868">
-      <c r="F868" s="16"/>
+      <c r="A868" s="20"/>
+      <c r="F868" s="21"/>
     </row>
     <row r="869">
-      <c r="F869" s="16"/>
+      <c r="A869" s="20"/>
+      <c r="F869" s="21"/>
     </row>
     <row r="870">
-      <c r="F870" s="16"/>
+      <c r="A870" s="20"/>
+      <c r="F870" s="21"/>
     </row>
     <row r="871">
-      <c r="F871" s="16"/>
+      <c r="A871" s="20"/>
+      <c r="F871" s="21"/>
     </row>
     <row r="872">
-      <c r="F872" s="16"/>
+      <c r="A872" s="20"/>
+      <c r="F872" s="21"/>
     </row>
     <row r="873">
-      <c r="F873" s="16"/>
+      <c r="A873" s="20"/>
+      <c r="F873" s="21"/>
     </row>
     <row r="874">
-      <c r="F874" s="16"/>
+      <c r="A874" s="20"/>
+      <c r="F874" s="21"/>
     </row>
     <row r="875">
-      <c r="F875" s="16"/>
+      <c r="A875" s="20"/>
+      <c r="F875" s="21"/>
     </row>
     <row r="876">
-      <c r="F876" s="16"/>
+      <c r="A876" s="20"/>
+      <c r="F876" s="21"/>
     </row>
     <row r="877">
-      <c r="F877" s="16"/>
+      <c r="A877" s="20"/>
+      <c r="F877" s="21"/>
     </row>
     <row r="878">
-      <c r="F878" s="16"/>
+      <c r="A878" s="20"/>
+      <c r="F878" s="21"/>
     </row>
     <row r="879">
-      <c r="F879" s="16"/>
+      <c r="A879" s="20"/>
+      <c r="F879" s="21"/>
     </row>
     <row r="880">
-      <c r="F880" s="16"/>
+      <c r="A880" s="20"/>
+      <c r="F880" s="21"/>
     </row>
     <row r="881">
-      <c r="F881" s="16"/>
+      <c r="A881" s="20"/>
+      <c r="F881" s="21"/>
     </row>
     <row r="882">
-      <c r="F882" s="16"/>
+      <c r="A882" s="20"/>
+      <c r="F882" s="21"/>
     </row>
     <row r="883">
-      <c r="F883" s="16"/>
+      <c r="A883" s="20"/>
+      <c r="F883" s="21"/>
     </row>
     <row r="884">
-      <c r="F884" s="16"/>
+      <c r="A884" s="20"/>
+      <c r="F884" s="21"/>
     </row>
     <row r="885">
-      <c r="F885" s="16"/>
+      <c r="A885" s="20"/>
+      <c r="F885" s="21"/>
     </row>
     <row r="886">
-      <c r="F886" s="16"/>
+      <c r="A886" s="20"/>
+      <c r="F886" s="21"/>
     </row>
     <row r="887">
-      <c r="F887" s="16"/>
+      <c r="A887" s="20"/>
+      <c r="F887" s="21"/>
     </row>
     <row r="888">
-      <c r="F888" s="16"/>
+      <c r="A888" s="20"/>
+      <c r="F888" s="21"/>
     </row>
     <row r="889">
-      <c r="F889" s="16"/>
+      <c r="A889" s="20"/>
+      <c r="F889" s="21"/>
     </row>
     <row r="890">
-      <c r="F890" s="16"/>
+      <c r="A890" s="20"/>
+      <c r="F890" s="21"/>
     </row>
     <row r="891">
-      <c r="F891" s="16"/>
+      <c r="A891" s="20"/>
+      <c r="F891" s="21"/>
     </row>
     <row r="892">
-      <c r="F892" s="16"/>
+      <c r="A892" s="20"/>
+      <c r="F892" s="21"/>
     </row>
     <row r="893">
-      <c r="F893" s="16"/>
+      <c r="A893" s="20"/>
+      <c r="F893" s="21"/>
     </row>
     <row r="894">
-      <c r="F894" s="16"/>
+      <c r="A894" s="20"/>
+      <c r="F894" s="21"/>
     </row>
     <row r="895">
-      <c r="F895" s="16"/>
+      <c r="A895" s="20"/>
+      <c r="F895" s="21"/>
     </row>
     <row r="896">
-      <c r="F896" s="16"/>
+      <c r="A896" s="20"/>
+      <c r="F896" s="21"/>
     </row>
     <row r="897">
-      <c r="F897" s="16"/>
+      <c r="A897" s="20"/>
+      <c r="F897" s="21"/>
     </row>
     <row r="898">
-      <c r="F898" s="16"/>
+      <c r="A898" s="20"/>
+      <c r="F898" s="21"/>
     </row>
     <row r="899">
-      <c r="F899" s="16"/>
+      <c r="A899" s="20"/>
+      <c r="F899" s="21"/>
     </row>
     <row r="900">
-      <c r="F900" s="16"/>
+      <c r="A900" s="20"/>
+      <c r="F900" s="21"/>
     </row>
     <row r="901">
-      <c r="F901" s="16"/>
+      <c r="A901" s="20"/>
+      <c r="F901" s="21"/>
     </row>
     <row r="902">
-      <c r="F902" s="16"/>
+      <c r="A902" s="20"/>
+      <c r="F902" s="21"/>
     </row>
     <row r="903">
-      <c r="F903" s="16"/>
+      <c r="A903" s="20"/>
+      <c r="F903" s="21"/>
     </row>
     <row r="904">
-      <c r="F904" s="16"/>
+      <c r="A904" s="20"/>
+      <c r="F904" s="21"/>
     </row>
     <row r="905">
-      <c r="F905" s="16"/>
+      <c r="A905" s="20"/>
+      <c r="F905" s="21"/>
     </row>
     <row r="906">
-      <c r="F906" s="16"/>
+      <c r="A906" s="20"/>
+      <c r="F906" s="21"/>
     </row>
     <row r="907">
-      <c r="F907" s="16"/>
+      <c r="A907" s="20"/>
+      <c r="F907" s="21"/>
     </row>
     <row r="908">
-      <c r="F908" s="16"/>
+      <c r="A908" s="20"/>
+      <c r="F908" s="21"/>
     </row>
     <row r="909">
-      <c r="F909" s="16"/>
+      <c r="A909" s="20"/>
+      <c r="F909" s="21"/>
     </row>
     <row r="910">
-      <c r="F910" s="16"/>
+      <c r="A910" s="20"/>
+      <c r="F910" s="21"/>
     </row>
     <row r="911">
-      <c r="F911" s="16"/>
+      <c r="A911" s="20"/>
+      <c r="F911" s="21"/>
     </row>
     <row r="912">
-      <c r="F912" s="16"/>
+      <c r="A912" s="20"/>
+      <c r="F912" s="21"/>
     </row>
     <row r="913">
-      <c r="F913" s="16"/>
+      <c r="A913" s="20"/>
+      <c r="F913" s="21"/>
     </row>
     <row r="914">
-      <c r="F914" s="16"/>
+      <c r="A914" s="20"/>
+      <c r="F914" s="21"/>
     </row>
     <row r="915">
-      <c r="F915" s="16"/>
+      <c r="A915" s="20"/>
+      <c r="F915" s="21"/>
     </row>
     <row r="916">
-      <c r="F916" s="16"/>
+      <c r="A916" s="20"/>
+      <c r="F916" s="21"/>
     </row>
     <row r="917">
-      <c r="F917" s="16"/>
+      <c r="A917" s="20"/>
+      <c r="F917" s="21"/>
     </row>
     <row r="918">
-      <c r="F918" s="16"/>
+      <c r="A918" s="20"/>
+      <c r="F918" s="21"/>
     </row>
     <row r="919">
-      <c r="F919" s="16"/>
+      <c r="A919" s="20"/>
+      <c r="F919" s="21"/>
     </row>
     <row r="920">
-      <c r="F920" s="16"/>
+      <c r="A920" s="20"/>
+      <c r="F920" s="21"/>
     </row>
     <row r="921">
-      <c r="F921" s="16"/>
+      <c r="A921" s="20"/>
+      <c r="F921" s="21"/>
     </row>
     <row r="922">
-      <c r="F922" s="16"/>
+      <c r="A922" s="20"/>
+      <c r="F922" s="21"/>
     </row>
     <row r="923">
-      <c r="F923" s="16"/>
+      <c r="A923" s="20"/>
+      <c r="F923" s="21"/>
     </row>
     <row r="924">
-      <c r="F924" s="16"/>
+      <c r="A924" s="20"/>
+      <c r="F924" s="21"/>
     </row>
     <row r="925">
-      <c r="F925" s="16"/>
+      <c r="A925" s="20"/>
+      <c r="F925" s="21"/>
     </row>
     <row r="926">
-      <c r="F926" s="16"/>
+      <c r="A926" s="20"/>
+      <c r="F926" s="21"/>
     </row>
     <row r="927">
-      <c r="F927" s="16"/>
+      <c r="A927" s="20"/>
+      <c r="F927" s="21"/>
     </row>
     <row r="928">
-      <c r="F928" s="16"/>
+      <c r="A928" s="20"/>
+      <c r="F928" s="21"/>
     </row>
     <row r="929">
-      <c r="F929" s="16"/>
+      <c r="A929" s="20"/>
+      <c r="F929" s="21"/>
     </row>
     <row r="930">
-      <c r="F930" s="16"/>
+      <c r="A930" s="20"/>
+      <c r="F930" s="21"/>
     </row>
     <row r="931">
-      <c r="F931" s="16"/>
+      <c r="A931" s="20"/>
+      <c r="F931" s="21"/>
     </row>
     <row r="932">
-      <c r="F932" s="16"/>
+      <c r="A932" s="20"/>
+      <c r="F932" s="21"/>
     </row>
     <row r="933">
-      <c r="F933" s="16"/>
+      <c r="A933" s="20"/>
+      <c r="F933" s="21"/>
     </row>
     <row r="934">
-      <c r="F934" s="16"/>
+      <c r="A934" s="20"/>
+      <c r="F934" s="21"/>
     </row>
     <row r="935">
-      <c r="F935" s="16"/>
+      <c r="A935" s="20"/>
+      <c r="F935" s="21"/>
     </row>
     <row r="936">
-      <c r="F936" s="16"/>
+      <c r="A936" s="20"/>
+      <c r="F936" s="21"/>
     </row>
     <row r="937">
-      <c r="F937" s="16"/>
+      <c r="A937" s="20"/>
+      <c r="F937" s="21"/>
     </row>
     <row r="938">
-      <c r="F938" s="16"/>
+      <c r="A938" s="20"/>
+      <c r="F938" s="21"/>
     </row>
     <row r="939">
-      <c r="F939" s="16"/>
+      <c r="A939" s="20"/>
+      <c r="F939" s="21"/>
     </row>
     <row r="940">
-      <c r="F940" s="16"/>
+      <c r="A940" s="20"/>
+      <c r="F940" s="21"/>
     </row>
     <row r="941">
-      <c r="F941" s="16"/>
+      <c r="A941" s="20"/>
+      <c r="F941" s="21"/>
     </row>
     <row r="942">
-      <c r="F942" s="16"/>
+      <c r="A942" s="20"/>
+      <c r="F942" s="21"/>
     </row>
     <row r="943">
-      <c r="F943" s="16"/>
+      <c r="A943" s="20"/>
+      <c r="F943" s="21"/>
     </row>
     <row r="944">
-      <c r="F944" s="16"/>
+      <c r="A944" s="20"/>
+      <c r="F944" s="21"/>
     </row>
     <row r="945">
-      <c r="F945" s="16"/>
+      <c r="A945" s="20"/>
+      <c r="F945" s="21"/>
     </row>
     <row r="946">
-      <c r="F946" s="16"/>
+      <c r="A946" s="20"/>
+      <c r="F946" s="21"/>
     </row>
     <row r="947">
-      <c r="F947" s="16"/>
+      <c r="A947" s="20"/>
+      <c r="F947" s="21"/>
     </row>
     <row r="948">
-      <c r="F948" s="16"/>
+      <c r="A948" s="20"/>
+      <c r="F948" s="21"/>
     </row>
     <row r="949">
-      <c r="F949" s="16"/>
+      <c r="A949" s="20"/>
+      <c r="F949" s="21"/>
     </row>
     <row r="950">
-      <c r="F950" s="16"/>
+      <c r="A950" s="20"/>
+      <c r="F950" s="21"/>
     </row>
     <row r="951">
-      <c r="F951" s="16"/>
+      <c r="A951" s="20"/>
+      <c r="F951" s="21"/>
     </row>
     <row r="952">
-      <c r="F952" s="16"/>
+      <c r="A952" s="20"/>
+      <c r="F952" s="21"/>
     </row>
     <row r="953">
-      <c r="F953" s="16"/>
+      <c r="A953" s="20"/>
+      <c r="F953" s="21"/>
     </row>
     <row r="954">
-      <c r="F954" s="16"/>
+      <c r="A954" s="20"/>
+      <c r="F954" s="21"/>
     </row>
     <row r="955">
-      <c r="F955" s="16"/>
+      <c r="A955" s="20"/>
+      <c r="F955" s="21"/>
     </row>
     <row r="956">
-      <c r="F956" s="16"/>
+      <c r="A956" s="20"/>
+      <c r="F956" s="21"/>
     </row>
     <row r="957">
-      <c r="F957" s="16"/>
+      <c r="A957" s="20"/>
+      <c r="F957" s="21"/>
     </row>
     <row r="958">
-      <c r="F958" s="16"/>
+      <c r="A958" s="20"/>
+      <c r="F958" s="21"/>
     </row>
     <row r="959">
-      <c r="F959" s="16"/>
+      <c r="A959" s="20"/>
+      <c r="F959" s="21"/>
     </row>
     <row r="960">
-      <c r="F960" s="16"/>
+      <c r="A960" s="20"/>
+      <c r="F960" s="21"/>
     </row>
     <row r="961">
-      <c r="F961" s="16"/>
+      <c r="A961" s="20"/>
+      <c r="F961" s="21"/>
     </row>
     <row r="962">
-      <c r="F962" s="16"/>
+      <c r="A962" s="20"/>
+      <c r="F962" s="21"/>
     </row>
     <row r="963">
-      <c r="F963" s="16"/>
+      <c r="A963" s="20"/>
+      <c r="F963" s="21"/>
     </row>
     <row r="964">
-      <c r="F964" s="16"/>
+      <c r="A964" s="20"/>
+      <c r="F964" s="21"/>
     </row>
     <row r="965">
-      <c r="F965" s="16"/>
+      <c r="A965" s="20"/>
+      <c r="F965" s="21"/>
     </row>
     <row r="966">
-      <c r="F966" s="16"/>
+      <c r="A966" s="20"/>
+      <c r="F966" s="21"/>
     </row>
     <row r="967">
-      <c r="F967" s="16"/>
+      <c r="A967" s="20"/>
+      <c r="F967" s="21"/>
     </row>
     <row r="968">
-      <c r="F968" s="16"/>
+      <c r="A968" s="20"/>
+      <c r="F968" s="21"/>
     </row>
     <row r="969">
-      <c r="F969" s="16"/>
+      <c r="A969" s="20"/>
+      <c r="F969" s="21"/>
     </row>
     <row r="970">
-      <c r="F970" s="16"/>
+      <c r="A970" s="20"/>
+      <c r="F970" s="21"/>
     </row>
     <row r="971">
-      <c r="F971" s="16"/>
+      <c r="A971" s="20"/>
+      <c r="F971" s="21"/>
     </row>
     <row r="972">
-      <c r="F972" s="16"/>
+      <c r="A972" s="20"/>
+      <c r="F972" s="21"/>
     </row>
     <row r="973">
-      <c r="F973" s="16"/>
+      <c r="A973" s="20"/>
+      <c r="F973" s="21"/>
     </row>
     <row r="974">
-      <c r="F974" s="16"/>
+      <c r="A974" s="20"/>
+      <c r="F974" s="21"/>
     </row>
     <row r="975">
-      <c r="F975" s="16"/>
+      <c r="A975" s="20"/>
+      <c r="F975" s="21"/>
     </row>
     <row r="976">
-      <c r="F976" s="16"/>
+      <c r="A976" s="20"/>
+      <c r="F976" s="21"/>
     </row>
     <row r="977">
-      <c r="F977" s="16"/>
+      <c r="A977" s="20"/>
+      <c r="F977" s="21"/>
     </row>
     <row r="978">
-      <c r="F978" s="16"/>
+      <c r="A978" s="20"/>
+      <c r="F978" s="21"/>
     </row>
     <row r="979">
-      <c r="F979" s="16"/>
+      <c r="A979" s="20"/>
+      <c r="F979" s="21"/>
     </row>
     <row r="980">
-      <c r="F980" s="16"/>
+      <c r="A980" s="20"/>
+      <c r="F980" s="21"/>
     </row>
     <row r="981">
-      <c r="F981" s="16"/>
+      <c r="A981" s="20"/>
+      <c r="F981" s="21"/>
     </row>
     <row r="982">
-      <c r="F982" s="16"/>
+      <c r="A982" s="20"/>
+      <c r="F982" s="21"/>
     </row>
     <row r="983">
-      <c r="F983" s="16"/>
+      <c r="A983" s="20"/>
+      <c r="F983" s="21"/>
     </row>
     <row r="984">
-      <c r="F984" s="16"/>
+      <c r="A984" s="20"/>
+      <c r="F984" s="21"/>
     </row>
     <row r="985">
-      <c r="F985" s="16"/>
+      <c r="A985" s="20"/>
+      <c r="F985" s="21"/>
     </row>
     <row r="986">
-      <c r="F986" s="16"/>
+      <c r="A986" s="20"/>
+      <c r="F986" s="21"/>
     </row>
     <row r="987">
-      <c r="F987" s="16"/>
+      <c r="A987" s="20"/>
+      <c r="F987" s="21"/>
     </row>
     <row r="988">
-      <c r="F988" s="16"/>
+      <c r="A988" s="20"/>
+      <c r="F988" s="21"/>
     </row>
     <row r="989">
-      <c r="F989" s="16"/>
+      <c r="A989" s="20"/>
+      <c r="F989" s="21"/>
     </row>
     <row r="990">
-      <c r="F990" s="16"/>
+      <c r="A990" s="20"/>
+      <c r="F990" s="21"/>
     </row>
     <row r="991">
-      <c r="F991" s="16"/>
+      <c r="A991" s="20"/>
+      <c r="F991" s="21"/>
     </row>
     <row r="992">
-      <c r="F992" s="16"/>
+      <c r="A992" s="20"/>
+      <c r="F992" s="21"/>
     </row>
     <row r="993">
-      <c r="F993" s="16"/>
+      <c r="A993" s="20"/>
+      <c r="F993" s="21"/>
     </row>
     <row r="994">
-      <c r="F994" s="16"/>
+      <c r="A994" s="20"/>
+      <c r="F994" s="21"/>
     </row>
     <row r="995">
-      <c r="F995" s="16"/>
+      <c r="A995" s="20"/>
+      <c r="F995" s="21"/>
     </row>
     <row r="996">
-      <c r="F996" s="16"/>
+      <c r="A996" s="20"/>
+      <c r="F996" s="21"/>
     </row>
     <row r="997">
-      <c r="F997" s="16"/>
+      <c r="A997" s="20"/>
+      <c r="F997" s="21"/>
     </row>
     <row r="998">
-      <c r="F998" s="16"/>
+      <c r="A998" s="20"/>
+      <c r="F998" s="21"/>
     </row>
     <row r="999">
-      <c r="F999" s="16"/>
+      <c r="A999" s="20"/>
+      <c r="F999" s="21"/>
     </row>
     <row r="1000">
-      <c r="F1000" s="16"/>
+      <c r="A1000" s="20"/>
+      <c r="F1000" s="21"/>
     </row>
     <row r="1001">
-      <c r="F1001" s="16"/>
+      <c r="A1001" s="20"/>
+      <c r="F1001" s="21"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="20"/>
+      <c r="F1002" s="21"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="20"/>
+      <c r="F1003" s="21"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="20"/>
+      <c r="F1004" s="21"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="20"/>
+      <c r="F1005" s="21"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="G46"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/xlsx/screenings.xlsx
+++ b/xlsx/screenings.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="333">
   <si>
     <t>Screening Date and Time</t>
   </si>
@@ -770,15 +770,254 @@
   </si>
   <si>
     <t>Screening 1, 4/8/2017 9:33:00</t>
+  </si>
+  <si>
+    <t>Bayard Rustin Campus Library</t>
+  </si>
+  <si>
+    <t>351 West 18th Street</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>10011</t>
+  </si>
+  <si>
+    <t>Screening 1, 5/15/2017 8:21:00</t>
+  </si>
+  <si>
+    <t>Wisner-Pilger School Auditorium</t>
+  </si>
+  <si>
+    <t>801 18th Street</t>
+  </si>
+  <si>
+    <t>Wisner</t>
+  </si>
+  <si>
+    <t>68791</t>
+  </si>
+  <si>
+    <t>Screening 1, 5/18/2017 14:21:00</t>
+  </si>
+  <si>
+    <t>Roosevelt Senior High School</t>
+  </si>
+  <si>
+    <t>4301 13th St NW</t>
+  </si>
+  <si>
+    <t>20011</t>
+  </si>
+  <si>
+    <t>Screening 1, 5/18/2017 16:54:00</t>
+  </si>
+  <si>
+    <t>Millbrae Library</t>
+  </si>
+  <si>
+    <t>1 Library Ave</t>
+  </si>
+  <si>
+    <t>Millbrae</t>
+  </si>
+  <si>
+    <t>94030</t>
+  </si>
+  <si>
+    <t>Screening 1, 5/24/2017 16:34:00</t>
+  </si>
+  <si>
+    <t>Emporia State University</t>
+  </si>
+  <si>
+    <t>Visser Hall, Room 118</t>
+  </si>
+  <si>
+    <t>Emporia`</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>66801</t>
+  </si>
+  <si>
+    <t>Screening 1, 5/31/2017 10:54:00</t>
+  </si>
+  <si>
+    <t>Bullis School</t>
+  </si>
+  <si>
+    <t>10601 Falls Rd</t>
+  </si>
+  <si>
+    <t>Potomac</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>20854</t>
+  </si>
+  <si>
+    <t>Screening 1, 6/6/2017 14:48:00</t>
+  </si>
+  <si>
+    <t>Lincoln Theatre</t>
+  </si>
+  <si>
+    <t>712 S 1st Street</t>
+  </si>
+  <si>
+    <t>Mount Vernon</t>
+  </si>
+  <si>
+    <t>98273</t>
+  </si>
+  <si>
+    <t>Screening 1, 6/9/2017 15:50:00</t>
+  </si>
+  <si>
+    <t>3300 W. Camelback Rd.</t>
+  </si>
+  <si>
+    <t>SELVIDGE MIDDLE SCHOOL</t>
+  </si>
+  <si>
+    <t>235 NEW BALLWIN RD</t>
+  </si>
+  <si>
+    <t>BALLWIN</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>63021</t>
+  </si>
+  <si>
+    <t>Screening 1, 6/14/2017 12:02:00</t>
+  </si>
+  <si>
+    <t>Arlington town hall</t>
+  </si>
+  <si>
+    <t>100 Mass Ave</t>
+  </si>
+  <si>
+    <t>Arlington</t>
+  </si>
+  <si>
+    <t>02476</t>
+  </si>
+  <si>
+    <t>Screening 1, 6/14/2017 20:03:00</t>
+  </si>
+  <si>
+    <t>Menomonie Public Library</t>
+  </si>
+  <si>
+    <t>Screening 1, Apr 19, 2017 3:16 PM</t>
+  </si>
+  <si>
+    <t>Virginia High School</t>
+  </si>
+  <si>
+    <t>1200 Long Crescent Dr</t>
+  </si>
+  <si>
+    <t>Bristol</t>
+  </si>
+  <si>
+    <t>24201</t>
+  </si>
+  <si>
+    <t>Screening 1, 6/19/2017 12:54:00</t>
+  </si>
+  <si>
+    <t>East Ramapo Central School District</t>
+  </si>
+  <si>
+    <t>Spring Valley</t>
+  </si>
+  <si>
+    <t>10977</t>
+  </si>
+  <si>
+    <t>Screening 1, 6/19/2017 16:02:00</t>
+  </si>
+  <si>
+    <t>Knox Academy</t>
+  </si>
+  <si>
+    <t>870 West, 300 North</t>
+  </si>
+  <si>
+    <t>Kaysville</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>84037</t>
+  </si>
+  <si>
+    <t>Screening 1, 6/21/2017 19:02:00</t>
+  </si>
+  <si>
+    <t>Higley Center For The Performing Arts</t>
+  </si>
+  <si>
+    <t>4132 E. Pecos Road</t>
+  </si>
+  <si>
+    <t>Gilbert</t>
+  </si>
+  <si>
+    <t>85295</t>
+  </si>
+  <si>
+    <t>Screening 1, 6/28/2017 15:15:00</t>
+  </si>
+  <si>
+    <t>Student Union Ballroom  Northwest Missouri State University</t>
+  </si>
+  <si>
+    <t>800 University Drive</t>
+  </si>
+  <si>
+    <t>Maryville</t>
+  </si>
+  <si>
+    <t>64468</t>
+  </si>
+  <si>
+    <t>Screening 1, 6/28/2017 14:58:00</t>
+  </si>
+  <si>
+    <t>Burgettstown Performing Arts Center</t>
+  </si>
+  <si>
+    <t>100 Bavington Road</t>
+  </si>
+  <si>
+    <t>Burgettstown</t>
+  </si>
+  <si>
+    <t>15021</t>
+  </si>
+  <si>
+    <t>Screening 1, 7/6/2017 11:42:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="M/d/yyyy H:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -892,8 +1131,8 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
@@ -2169,3854 +2408,5292 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="15"/>
+      <c r="A47" s="13">
+        <v>42894.375</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="G47" s="19"/>
+      <c r="H47" s="17">
+        <v>42870.347916666666</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="15"/>
+      <c r="A48" s="13">
+        <v>42901.75</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="G48" s="19"/>
+      <c r="H48" s="17">
+        <v>42873.597916666666</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="20"/>
-      <c r="F49" s="21"/>
+      <c r="A49" s="13">
+        <v>42886.75</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="G49" s="19"/>
+      <c r="H49" s="17">
+        <v>42873.70416666667</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="20"/>
-      <c r="F50" s="21"/>
+      <c r="A50" s="13">
+        <v>42984.75</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="G50" s="19"/>
+      <c r="H50" s="17">
+        <v>42879.69027777778</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="20"/>
-      <c r="F51" s="21"/>
+      <c r="A51" s="13">
+        <v>42909.375</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="G51" s="19"/>
+      <c r="H51" s="17">
+        <v>42886.45416666667</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="20"/>
-      <c r="F52" s="21"/>
+      <c r="A52" s="13">
+        <v>43047.791666666664</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G52" s="19"/>
+      <c r="H52" s="17">
+        <v>42892.61666666667</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="20"/>
-      <c r="F53" s="21"/>
+      <c r="A53" s="13">
+        <v>42999.791666666664</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="G53" s="19"/>
+      <c r="H53" s="17">
+        <v>42895.65972222222</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="20"/>
-      <c r="F54" s="21"/>
+      <c r="A54" s="13">
+        <v>43043.0</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G54" s="19"/>
+      <c r="H54" s="17">
+        <v>42831.56458333333</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="20"/>
-      <c r="F55" s="21"/>
+      <c r="A55" s="13">
+        <v>42958.791666666664</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="G55" s="19"/>
+      <c r="H55" s="17">
+        <v>42900.501388888886</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="20"/>
-      <c r="F56" s="21"/>
+      <c r="A56" s="13">
+        <v>43005.791666666664</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="G56" s="19"/>
+      <c r="H56" s="17">
+        <v>42900.83541666667</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="20"/>
-      <c r="F57" s="21"/>
+      <c r="A57" s="13">
+        <v>43029.520833333336</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="G57" s="19"/>
+      <c r="H57" s="17">
+        <v>42844.63611111111</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="20"/>
-      <c r="F58" s="21"/>
+      <c r="A58" s="13">
+        <v>42950.375</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="G58" s="19"/>
+      <c r="H58" s="17">
+        <v>42905.5375</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="20"/>
-      <c r="F59" s="21"/>
+      <c r="A59" s="13">
+        <v>42914.375</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="G59" s="19"/>
+      <c r="H59" s="17">
+        <v>42905.66805555556</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="20"/>
-      <c r="F60" s="21"/>
+      <c r="A60" s="13">
+        <v>42938.708333333336</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="G60" s="19"/>
+      <c r="H60" s="17">
+        <v>42907.79305555556</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="20"/>
-      <c r="F61" s="21"/>
+      <c r="A61" s="13">
+        <v>42957.333333333336</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="G61" s="19"/>
+      <c r="H61" s="17">
+        <v>42914.635416666664</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="20"/>
-      <c r="F62" s="21"/>
+      <c r="A62" s="13">
+        <v>42996.708333333336</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="G62" s="19"/>
+      <c r="H62" s="17">
+        <v>42914.623611111114</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="20"/>
-      <c r="F63" s="21"/>
+      <c r="A63" s="13">
+        <v>42972.541666666664</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="G63" s="19"/>
+      <c r="H63" s="17">
+        <v>42922.4875</v>
+      </c>
+      <c r="I63" s="15" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="20"/>
-      <c r="F64" s="21"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="15"/>
     </row>
     <row r="65">
-      <c r="A65" s="20"/>
-      <c r="F65" s="21"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="15"/>
     </row>
     <row r="66">
-      <c r="A66" s="20"/>
-      <c r="F66" s="21"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="15"/>
     </row>
     <row r="67">
-      <c r="A67" s="20"/>
-      <c r="F67" s="21"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="15"/>
     </row>
     <row r="68">
       <c r="A68" s="20"/>
       <c r="F68" s="21"/>
+      <c r="H68" s="20"/>
     </row>
     <row r="69">
       <c r="A69" s="20"/>
       <c r="F69" s="21"/>
+      <c r="H69" s="20"/>
     </row>
     <row r="70">
       <c r="A70" s="20"/>
       <c r="F70" s="21"/>
+      <c r="H70" s="20"/>
     </row>
     <row r="71">
       <c r="A71" s="20"/>
       <c r="F71" s="21"/>
+      <c r="H71" s="20"/>
     </row>
     <row r="72">
       <c r="A72" s="20"/>
       <c r="F72" s="21"/>
+      <c r="H72" s="20"/>
     </row>
     <row r="73">
       <c r="A73" s="20"/>
       <c r="F73" s="21"/>
+      <c r="H73" s="20"/>
     </row>
     <row r="74">
       <c r="A74" s="20"/>
       <c r="F74" s="21"/>
+      <c r="H74" s="20"/>
     </row>
     <row r="75">
       <c r="A75" s="20"/>
       <c r="F75" s="21"/>
+      <c r="H75" s="20"/>
     </row>
     <row r="76">
       <c r="A76" s="20"/>
       <c r="F76" s="21"/>
+      <c r="H76" s="20"/>
     </row>
     <row r="77">
       <c r="A77" s="20"/>
       <c r="F77" s="21"/>
+      <c r="H77" s="20"/>
     </row>
     <row r="78">
       <c r="A78" s="20"/>
       <c r="F78" s="21"/>
+      <c r="H78" s="20"/>
     </row>
     <row r="79">
       <c r="A79" s="20"/>
       <c r="F79" s="21"/>
+      <c r="H79" s="20"/>
     </row>
     <row r="80">
       <c r="A80" s="20"/>
       <c r="F80" s="21"/>
+      <c r="H80" s="20"/>
     </row>
     <row r="81">
       <c r="A81" s="20"/>
       <c r="F81" s="21"/>
+      <c r="H81" s="20"/>
     </row>
     <row r="82">
       <c r="A82" s="20"/>
       <c r="F82" s="21"/>
+      <c r="H82" s="20"/>
     </row>
     <row r="83">
       <c r="A83" s="20"/>
       <c r="F83" s="21"/>
+      <c r="H83" s="20"/>
     </row>
     <row r="84">
       <c r="A84" s="20"/>
       <c r="F84" s="21"/>
+      <c r="H84" s="20"/>
     </row>
     <row r="85">
       <c r="A85" s="20"/>
       <c r="F85" s="21"/>
+      <c r="H85" s="20"/>
     </row>
     <row r="86">
       <c r="A86" s="20"/>
       <c r="F86" s="21"/>
+      <c r="H86" s="20"/>
     </row>
     <row r="87">
       <c r="A87" s="20"/>
       <c r="F87" s="21"/>
+      <c r="H87" s="20"/>
     </row>
     <row r="88">
       <c r="A88" s="20"/>
       <c r="F88" s="21"/>
+      <c r="H88" s="20"/>
     </row>
     <row r="89">
       <c r="A89" s="20"/>
       <c r="F89" s="21"/>
+      <c r="H89" s="20"/>
     </row>
     <row r="90">
       <c r="A90" s="20"/>
       <c r="F90" s="21"/>
+      <c r="H90" s="20"/>
     </row>
     <row r="91">
       <c r="A91" s="20"/>
       <c r="F91" s="21"/>
+      <c r="H91" s="20"/>
     </row>
     <row r="92">
       <c r="A92" s="20"/>
       <c r="F92" s="21"/>
+      <c r="H92" s="20"/>
     </row>
     <row r="93">
       <c r="A93" s="20"/>
       <c r="F93" s="21"/>
+      <c r="H93" s="20"/>
     </row>
     <row r="94">
       <c r="A94" s="20"/>
       <c r="F94" s="21"/>
+      <c r="H94" s="20"/>
     </row>
     <row r="95">
       <c r="A95" s="20"/>
       <c r="F95" s="21"/>
+      <c r="H95" s="20"/>
     </row>
     <row r="96">
       <c r="A96" s="20"/>
       <c r="F96" s="21"/>
+      <c r="H96" s="20"/>
     </row>
     <row r="97">
       <c r="A97" s="20"/>
       <c r="F97" s="21"/>
+      <c r="H97" s="20"/>
     </row>
     <row r="98">
       <c r="A98" s="20"/>
       <c r="F98" s="21"/>
+      <c r="H98" s="20"/>
     </row>
     <row r="99">
       <c r="A99" s="20"/>
       <c r="F99" s="21"/>
+      <c r="H99" s="20"/>
     </row>
     <row r="100">
       <c r="A100" s="20"/>
       <c r="F100" s="21"/>
+      <c r="H100" s="20"/>
     </row>
     <row r="101">
       <c r="A101" s="20"/>
       <c r="F101" s="21"/>
+      <c r="H101" s="20"/>
     </row>
     <row r="102">
       <c r="A102" s="20"/>
       <c r="F102" s="21"/>
+      <c r="H102" s="20"/>
     </row>
     <row r="103">
       <c r="A103" s="20"/>
       <c r="F103" s="21"/>
+      <c r="H103" s="20"/>
     </row>
     <row r="104">
       <c r="A104" s="20"/>
       <c r="F104" s="21"/>
+      <c r="H104" s="20"/>
     </row>
     <row r="105">
       <c r="A105" s="20"/>
       <c r="F105" s="21"/>
+      <c r="H105" s="20"/>
     </row>
     <row r="106">
       <c r="A106" s="20"/>
       <c r="F106" s="21"/>
+      <c r="H106" s="20"/>
     </row>
     <row r="107">
       <c r="A107" s="20"/>
       <c r="F107" s="21"/>
+      <c r="H107" s="20"/>
     </row>
     <row r="108">
       <c r="A108" s="20"/>
       <c r="F108" s="21"/>
+      <c r="H108" s="20"/>
     </row>
     <row r="109">
       <c r="A109" s="20"/>
       <c r="F109" s="21"/>
+      <c r="H109" s="20"/>
     </row>
     <row r="110">
       <c r="A110" s="20"/>
       <c r="F110" s="21"/>
+      <c r="H110" s="20"/>
     </row>
     <row r="111">
       <c r="A111" s="20"/>
       <c r="F111" s="21"/>
+      <c r="H111" s="20"/>
     </row>
     <row r="112">
       <c r="A112" s="20"/>
       <c r="F112" s="21"/>
+      <c r="H112" s="20"/>
     </row>
     <row r="113">
       <c r="A113" s="20"/>
       <c r="F113" s="21"/>
+      <c r="H113" s="20"/>
     </row>
     <row r="114">
       <c r="A114" s="20"/>
       <c r="F114" s="21"/>
+      <c r="H114" s="20"/>
     </row>
     <row r="115">
       <c r="A115" s="20"/>
       <c r="F115" s="21"/>
+      <c r="H115" s="20"/>
     </row>
     <row r="116">
       <c r="A116" s="20"/>
       <c r="F116" s="21"/>
+      <c r="H116" s="20"/>
     </row>
     <row r="117">
       <c r="A117" s="20"/>
       <c r="F117" s="21"/>
+      <c r="H117" s="20"/>
     </row>
     <row r="118">
       <c r="A118" s="20"/>
       <c r="F118" s="21"/>
+      <c r="H118" s="20"/>
     </row>
     <row r="119">
       <c r="A119" s="20"/>
       <c r="F119" s="21"/>
+      <c r="H119" s="20"/>
     </row>
     <row r="120">
       <c r="A120" s="20"/>
       <c r="F120" s="21"/>
+      <c r="H120" s="20"/>
     </row>
     <row r="121">
       <c r="A121" s="20"/>
       <c r="F121" s="21"/>
+      <c r="H121" s="20"/>
     </row>
     <row r="122">
       <c r="A122" s="20"/>
       <c r="F122" s="21"/>
+      <c r="H122" s="20"/>
     </row>
     <row r="123">
       <c r="A123" s="20"/>
       <c r="F123" s="21"/>
+      <c r="H123" s="20"/>
     </row>
     <row r="124">
       <c r="A124" s="20"/>
       <c r="F124" s="21"/>
+      <c r="H124" s="20"/>
     </row>
     <row r="125">
       <c r="A125" s="20"/>
       <c r="F125" s="21"/>
+      <c r="H125" s="20"/>
     </row>
     <row r="126">
       <c r="A126" s="20"/>
       <c r="F126" s="21"/>
+      <c r="H126" s="20"/>
     </row>
     <row r="127">
       <c r="A127" s="20"/>
       <c r="F127" s="21"/>
+      <c r="H127" s="20"/>
     </row>
     <row r="128">
       <c r="A128" s="20"/>
       <c r="F128" s="21"/>
+      <c r="H128" s="20"/>
     </row>
     <row r="129">
       <c r="A129" s="20"/>
       <c r="F129" s="21"/>
+      <c r="H129" s="20"/>
     </row>
     <row r="130">
       <c r="A130" s="20"/>
       <c r="F130" s="21"/>
+      <c r="H130" s="20"/>
     </row>
     <row r="131">
       <c r="A131" s="20"/>
       <c r="F131" s="21"/>
+      <c r="H131" s="20"/>
     </row>
     <row r="132">
       <c r="A132" s="20"/>
       <c r="F132" s="21"/>
+      <c r="H132" s="20"/>
     </row>
     <row r="133">
       <c r="A133" s="20"/>
       <c r="F133" s="21"/>
+      <c r="H133" s="20"/>
     </row>
     <row r="134">
       <c r="A134" s="20"/>
       <c r="F134" s="21"/>
+      <c r="H134" s="20"/>
     </row>
     <row r="135">
       <c r="A135" s="20"/>
       <c r="F135" s="21"/>
+      <c r="H135" s="20"/>
     </row>
     <row r="136">
       <c r="A136" s="20"/>
       <c r="F136" s="21"/>
+      <c r="H136" s="20"/>
     </row>
     <row r="137">
       <c r="A137" s="20"/>
       <c r="F137" s="21"/>
+      <c r="H137" s="20"/>
     </row>
     <row r="138">
       <c r="A138" s="20"/>
       <c r="F138" s="21"/>
+      <c r="H138" s="20"/>
     </row>
     <row r="139">
       <c r="A139" s="20"/>
       <c r="F139" s="21"/>
+      <c r="H139" s="20"/>
     </row>
     <row r="140">
       <c r="A140" s="20"/>
       <c r="F140" s="21"/>
+      <c r="H140" s="20"/>
     </row>
     <row r="141">
       <c r="A141" s="20"/>
       <c r="F141" s="21"/>
+      <c r="H141" s="20"/>
     </row>
     <row r="142">
       <c r="A142" s="20"/>
       <c r="F142" s="21"/>
+      <c r="H142" s="20"/>
     </row>
     <row r="143">
       <c r="A143" s="20"/>
       <c r="F143" s="21"/>
+      <c r="H143" s="20"/>
     </row>
     <row r="144">
       <c r="A144" s="20"/>
       <c r="F144" s="21"/>
+      <c r="H144" s="20"/>
     </row>
     <row r="145">
       <c r="A145" s="20"/>
       <c r="F145" s="21"/>
+      <c r="H145" s="20"/>
     </row>
     <row r="146">
       <c r="A146" s="20"/>
       <c r="F146" s="21"/>
+      <c r="H146" s="20"/>
     </row>
     <row r="147">
       <c r="A147" s="20"/>
       <c r="F147" s="21"/>
+      <c r="H147" s="20"/>
     </row>
     <row r="148">
       <c r="A148" s="20"/>
       <c r="F148" s="21"/>
+      <c r="H148" s="20"/>
     </row>
     <row r="149">
       <c r="A149" s="20"/>
       <c r="F149" s="21"/>
+      <c r="H149" s="20"/>
     </row>
     <row r="150">
       <c r="A150" s="20"/>
       <c r="F150" s="21"/>
+      <c r="H150" s="20"/>
     </row>
     <row r="151">
       <c r="A151" s="20"/>
       <c r="F151" s="21"/>
+      <c r="H151" s="20"/>
     </row>
     <row r="152">
       <c r="A152" s="20"/>
       <c r="F152" s="21"/>
+      <c r="H152" s="20"/>
     </row>
     <row r="153">
       <c r="A153" s="20"/>
       <c r="F153" s="21"/>
+      <c r="H153" s="20"/>
     </row>
     <row r="154">
       <c r="A154" s="20"/>
       <c r="F154" s="21"/>
+      <c r="H154" s="20"/>
     </row>
     <row r="155">
       <c r="A155" s="20"/>
       <c r="F155" s="21"/>
+      <c r="H155" s="20"/>
     </row>
     <row r="156">
       <c r="A156" s="20"/>
       <c r="F156" s="21"/>
+      <c r="H156" s="20"/>
     </row>
     <row r="157">
       <c r="A157" s="20"/>
       <c r="F157" s="21"/>
+      <c r="H157" s="20"/>
     </row>
     <row r="158">
       <c r="A158" s="20"/>
       <c r="F158" s="21"/>
+      <c r="H158" s="20"/>
     </row>
     <row r="159">
       <c r="A159" s="20"/>
       <c r="F159" s="21"/>
+      <c r="H159" s="20"/>
     </row>
     <row r="160">
       <c r="A160" s="20"/>
       <c r="F160" s="21"/>
+      <c r="H160" s="20"/>
     </row>
     <row r="161">
       <c r="A161" s="20"/>
       <c r="F161" s="21"/>
+      <c r="H161" s="20"/>
     </row>
     <row r="162">
       <c r="A162" s="20"/>
       <c r="F162" s="21"/>
+      <c r="H162" s="20"/>
     </row>
     <row r="163">
       <c r="A163" s="20"/>
       <c r="F163" s="21"/>
+      <c r="H163" s="20"/>
     </row>
     <row r="164">
       <c r="A164" s="20"/>
       <c r="F164" s="21"/>
+      <c r="H164" s="20"/>
     </row>
     <row r="165">
       <c r="A165" s="20"/>
       <c r="F165" s="21"/>
+      <c r="H165" s="20"/>
     </row>
     <row r="166">
       <c r="A166" s="20"/>
       <c r="F166" s="21"/>
+      <c r="H166" s="20"/>
     </row>
     <row r="167">
       <c r="A167" s="20"/>
       <c r="F167" s="21"/>
+      <c r="H167" s="20"/>
     </row>
     <row r="168">
       <c r="A168" s="20"/>
       <c r="F168" s="21"/>
+      <c r="H168" s="20"/>
     </row>
     <row r="169">
       <c r="A169" s="20"/>
       <c r="F169" s="21"/>
+      <c r="H169" s="20"/>
     </row>
     <row r="170">
       <c r="A170" s="20"/>
       <c r="F170" s="21"/>
+      <c r="H170" s="20"/>
     </row>
     <row r="171">
       <c r="A171" s="20"/>
       <c r="F171" s="21"/>
+      <c r="H171" s="20"/>
     </row>
     <row r="172">
       <c r="A172" s="20"/>
       <c r="F172" s="21"/>
+      <c r="H172" s="20"/>
     </row>
     <row r="173">
       <c r="A173" s="20"/>
       <c r="F173" s="21"/>
+      <c r="H173" s="20"/>
     </row>
     <row r="174">
       <c r="A174" s="20"/>
       <c r="F174" s="21"/>
+      <c r="H174" s="20"/>
     </row>
     <row r="175">
       <c r="A175" s="20"/>
       <c r="F175" s="21"/>
+      <c r="H175" s="20"/>
     </row>
     <row r="176">
       <c r="A176" s="20"/>
       <c r="F176" s="21"/>
+      <c r="H176" s="20"/>
     </row>
     <row r="177">
       <c r="A177" s="20"/>
       <c r="F177" s="21"/>
+      <c r="H177" s="20"/>
     </row>
     <row r="178">
       <c r="A178" s="20"/>
       <c r="F178" s="21"/>
+      <c r="H178" s="20"/>
     </row>
     <row r="179">
       <c r="A179" s="20"/>
       <c r="F179" s="21"/>
+      <c r="H179" s="20"/>
     </row>
     <row r="180">
       <c r="A180" s="20"/>
       <c r="F180" s="21"/>
+      <c r="H180" s="20"/>
     </row>
     <row r="181">
       <c r="A181" s="20"/>
       <c r="F181" s="21"/>
+      <c r="H181" s="20"/>
     </row>
     <row r="182">
       <c r="A182" s="20"/>
       <c r="F182" s="21"/>
+      <c r="H182" s="20"/>
     </row>
     <row r="183">
       <c r="A183" s="20"/>
       <c r="F183" s="21"/>
+      <c r="H183" s="20"/>
     </row>
     <row r="184">
       <c r="A184" s="20"/>
       <c r="F184" s="21"/>
+      <c r="H184" s="20"/>
     </row>
     <row r="185">
       <c r="A185" s="20"/>
       <c r="F185" s="21"/>
+      <c r="H185" s="20"/>
     </row>
     <row r="186">
       <c r="A186" s="20"/>
       <c r="F186" s="21"/>
+      <c r="H186" s="20"/>
     </row>
     <row r="187">
       <c r="A187" s="20"/>
       <c r="F187" s="21"/>
+      <c r="H187" s="20"/>
     </row>
     <row r="188">
       <c r="A188" s="20"/>
       <c r="F188" s="21"/>
+      <c r="H188" s="20"/>
     </row>
     <row r="189">
       <c r="A189" s="20"/>
       <c r="F189" s="21"/>
+      <c r="H189" s="20"/>
     </row>
     <row r="190">
       <c r="A190" s="20"/>
       <c r="F190" s="21"/>
+      <c r="H190" s="20"/>
     </row>
     <row r="191">
       <c r="A191" s="20"/>
       <c r="F191" s="21"/>
+      <c r="H191" s="20"/>
     </row>
     <row r="192">
       <c r="A192" s="20"/>
       <c r="F192" s="21"/>
+      <c r="H192" s="20"/>
     </row>
     <row r="193">
       <c r="A193" s="20"/>
       <c r="F193" s="21"/>
+      <c r="H193" s="20"/>
     </row>
     <row r="194">
       <c r="A194" s="20"/>
       <c r="F194" s="21"/>
+      <c r="H194" s="20"/>
     </row>
     <row r="195">
       <c r="A195" s="20"/>
       <c r="F195" s="21"/>
+      <c r="H195" s="20"/>
     </row>
     <row r="196">
       <c r="A196" s="20"/>
       <c r="F196" s="21"/>
+      <c r="H196" s="20"/>
     </row>
     <row r="197">
       <c r="A197" s="20"/>
       <c r="F197" s="21"/>
+      <c r="H197" s="20"/>
     </row>
     <row r="198">
       <c r="A198" s="20"/>
       <c r="F198" s="21"/>
+      <c r="H198" s="20"/>
     </row>
     <row r="199">
       <c r="A199" s="20"/>
       <c r="F199" s="21"/>
+      <c r="H199" s="20"/>
     </row>
     <row r="200">
       <c r="A200" s="20"/>
       <c r="F200" s="21"/>
+      <c r="H200" s="20"/>
     </row>
     <row r="201">
       <c r="A201" s="20"/>
       <c r="F201" s="21"/>
+      <c r="H201" s="20"/>
     </row>
     <row r="202">
       <c r="A202" s="20"/>
       <c r="F202" s="21"/>
+      <c r="H202" s="20"/>
     </row>
     <row r="203">
       <c r="A203" s="20"/>
       <c r="F203" s="21"/>
+      <c r="H203" s="20"/>
     </row>
     <row r="204">
       <c r="A204" s="20"/>
       <c r="F204" s="21"/>
+      <c r="H204" s="20"/>
     </row>
     <row r="205">
       <c r="A205" s="20"/>
       <c r="F205" s="21"/>
+      <c r="H205" s="20"/>
     </row>
     <row r="206">
       <c r="A206" s="20"/>
       <c r="F206" s="21"/>
+      <c r="H206" s="20"/>
     </row>
     <row r="207">
       <c r="A207" s="20"/>
       <c r="F207" s="21"/>
+      <c r="H207" s="20"/>
     </row>
     <row r="208">
       <c r="A208" s="20"/>
       <c r="F208" s="21"/>
+      <c r="H208" s="20"/>
     </row>
     <row r="209">
       <c r="A209" s="20"/>
       <c r="F209" s="21"/>
+      <c r="H209" s="20"/>
     </row>
     <row r="210">
       <c r="A210" s="20"/>
       <c r="F210" s="21"/>
+      <c r="H210" s="20"/>
     </row>
     <row r="211">
       <c r="A211" s="20"/>
       <c r="F211" s="21"/>
+      <c r="H211" s="20"/>
     </row>
     <row r="212">
       <c r="A212" s="20"/>
       <c r="F212" s="21"/>
+      <c r="H212" s="20"/>
     </row>
     <row r="213">
       <c r="A213" s="20"/>
       <c r="F213" s="21"/>
+      <c r="H213" s="20"/>
     </row>
     <row r="214">
       <c r="A214" s="20"/>
       <c r="F214" s="21"/>
+      <c r="H214" s="20"/>
     </row>
     <row r="215">
       <c r="A215" s="20"/>
       <c r="F215" s="21"/>
+      <c r="H215" s="20"/>
     </row>
     <row r="216">
       <c r="A216" s="20"/>
       <c r="F216" s="21"/>
+      <c r="H216" s="20"/>
     </row>
     <row r="217">
       <c r="A217" s="20"/>
       <c r="F217" s="21"/>
+      <c r="H217" s="20"/>
     </row>
     <row r="218">
       <c r="A218" s="20"/>
       <c r="F218" s="21"/>
+      <c r="H218" s="20"/>
     </row>
     <row r="219">
       <c r="A219" s="20"/>
       <c r="F219" s="21"/>
+      <c r="H219" s="20"/>
     </row>
     <row r="220">
       <c r="A220" s="20"/>
       <c r="F220" s="21"/>
+      <c r="H220" s="20"/>
     </row>
     <row r="221">
       <c r="A221" s="20"/>
       <c r="F221" s="21"/>
+      <c r="H221" s="20"/>
     </row>
     <row r="222">
       <c r="A222" s="20"/>
       <c r="F222" s="21"/>
+      <c r="H222" s="20"/>
     </row>
     <row r="223">
       <c r="A223" s="20"/>
       <c r="F223" s="21"/>
+      <c r="H223" s="20"/>
     </row>
     <row r="224">
       <c r="A224" s="20"/>
       <c r="F224" s="21"/>
+      <c r="H224" s="20"/>
     </row>
     <row r="225">
       <c r="A225" s="20"/>
       <c r="F225" s="21"/>
+      <c r="H225" s="20"/>
     </row>
     <row r="226">
       <c r="A226" s="20"/>
       <c r="F226" s="21"/>
+      <c r="H226" s="20"/>
     </row>
     <row r="227">
       <c r="A227" s="20"/>
       <c r="F227" s="21"/>
+      <c r="H227" s="20"/>
     </row>
     <row r="228">
       <c r="A228" s="20"/>
       <c r="F228" s="21"/>
+      <c r="H228" s="20"/>
     </row>
     <row r="229">
       <c r="A229" s="20"/>
       <c r="F229" s="21"/>
+      <c r="H229" s="20"/>
     </row>
     <row r="230">
       <c r="A230" s="20"/>
       <c r="F230" s="21"/>
+      <c r="H230" s="20"/>
     </row>
     <row r="231">
       <c r="A231" s="20"/>
       <c r="F231" s="21"/>
+      <c r="H231" s="20"/>
     </row>
     <row r="232">
       <c r="A232" s="20"/>
       <c r="F232" s="21"/>
+      <c r="H232" s="20"/>
     </row>
     <row r="233">
       <c r="A233" s="20"/>
       <c r="F233" s="21"/>
+      <c r="H233" s="20"/>
     </row>
     <row r="234">
       <c r="A234" s="20"/>
       <c r="F234" s="21"/>
+      <c r="H234" s="20"/>
     </row>
     <row r="235">
       <c r="A235" s="20"/>
       <c r="F235" s="21"/>
+      <c r="H235" s="20"/>
     </row>
     <row r="236">
       <c r="A236" s="20"/>
       <c r="F236" s="21"/>
+      <c r="H236" s="20"/>
     </row>
     <row r="237">
       <c r="A237" s="20"/>
       <c r="F237" s="21"/>
+      <c r="H237" s="20"/>
     </row>
     <row r="238">
       <c r="A238" s="20"/>
       <c r="F238" s="21"/>
+      <c r="H238" s="20"/>
     </row>
     <row r="239">
       <c r="A239" s="20"/>
       <c r="F239" s="21"/>
+      <c r="H239" s="20"/>
     </row>
     <row r="240">
       <c r="A240" s="20"/>
       <c r="F240" s="21"/>
+      <c r="H240" s="20"/>
     </row>
     <row r="241">
       <c r="A241" s="20"/>
       <c r="F241" s="21"/>
+      <c r="H241" s="20"/>
     </row>
     <row r="242">
       <c r="A242" s="20"/>
       <c r="F242" s="21"/>
+      <c r="H242" s="20"/>
     </row>
     <row r="243">
       <c r="A243" s="20"/>
       <c r="F243" s="21"/>
+      <c r="H243" s="20"/>
     </row>
     <row r="244">
       <c r="A244" s="20"/>
       <c r="F244" s="21"/>
+      <c r="H244" s="20"/>
     </row>
     <row r="245">
       <c r="A245" s="20"/>
       <c r="F245" s="21"/>
+      <c r="H245" s="20"/>
     </row>
     <row r="246">
       <c r="A246" s="20"/>
       <c r="F246" s="21"/>
+      <c r="H246" s="20"/>
     </row>
     <row r="247">
       <c r="A247" s="20"/>
       <c r="F247" s="21"/>
+      <c r="H247" s="20"/>
     </row>
     <row r="248">
       <c r="A248" s="20"/>
       <c r="F248" s="21"/>
+      <c r="H248" s="20"/>
     </row>
     <row r="249">
       <c r="A249" s="20"/>
       <c r="F249" s="21"/>
+      <c r="H249" s="20"/>
     </row>
     <row r="250">
       <c r="A250" s="20"/>
       <c r="F250" s="21"/>
+      <c r="H250" s="20"/>
     </row>
     <row r="251">
       <c r="A251" s="20"/>
       <c r="F251" s="21"/>
+      <c r="H251" s="20"/>
     </row>
     <row r="252">
       <c r="A252" s="20"/>
       <c r="F252" s="21"/>
+      <c r="H252" s="20"/>
     </row>
     <row r="253">
       <c r="A253" s="20"/>
       <c r="F253" s="21"/>
+      <c r="H253" s="20"/>
     </row>
     <row r="254">
       <c r="A254" s="20"/>
       <c r="F254" s="21"/>
+      <c r="H254" s="20"/>
     </row>
     <row r="255">
       <c r="A255" s="20"/>
       <c r="F255" s="21"/>
+      <c r="H255" s="20"/>
     </row>
     <row r="256">
       <c r="A256" s="20"/>
       <c r="F256" s="21"/>
+      <c r="H256" s="20"/>
     </row>
     <row r="257">
       <c r="A257" s="20"/>
       <c r="F257" s="21"/>
+      <c r="H257" s="20"/>
     </row>
     <row r="258">
       <c r="A258" s="20"/>
       <c r="F258" s="21"/>
+      <c r="H258" s="20"/>
     </row>
     <row r="259">
       <c r="A259" s="20"/>
       <c r="F259" s="21"/>
+      <c r="H259" s="20"/>
     </row>
     <row r="260">
       <c r="A260" s="20"/>
       <c r="F260" s="21"/>
+      <c r="H260" s="20"/>
     </row>
     <row r="261">
       <c r="A261" s="20"/>
       <c r="F261" s="21"/>
+      <c r="H261" s="20"/>
     </row>
     <row r="262">
       <c r="A262" s="20"/>
       <c r="F262" s="21"/>
+      <c r="H262" s="20"/>
     </row>
     <row r="263">
       <c r="A263" s="20"/>
       <c r="F263" s="21"/>
+      <c r="H263" s="20"/>
     </row>
     <row r="264">
       <c r="A264" s="20"/>
       <c r="F264" s="21"/>
+      <c r="H264" s="20"/>
     </row>
     <row r="265">
       <c r="A265" s="20"/>
       <c r="F265" s="21"/>
+      <c r="H265" s="20"/>
     </row>
     <row r="266">
       <c r="A266" s="20"/>
       <c r="F266" s="21"/>
+      <c r="H266" s="20"/>
     </row>
     <row r="267">
       <c r="A267" s="20"/>
       <c r="F267" s="21"/>
+      <c r="H267" s="20"/>
     </row>
     <row r="268">
       <c r="A268" s="20"/>
       <c r="F268" s="21"/>
+      <c r="H268" s="20"/>
     </row>
     <row r="269">
       <c r="A269" s="20"/>
       <c r="F269" s="21"/>
+      <c r="H269" s="20"/>
     </row>
     <row r="270">
       <c r="A270" s="20"/>
       <c r="F270" s="21"/>
+      <c r="H270" s="20"/>
     </row>
     <row r="271">
       <c r="A271" s="20"/>
       <c r="F271" s="21"/>
+      <c r="H271" s="20"/>
     </row>
     <row r="272">
       <c r="A272" s="20"/>
       <c r="F272" s="21"/>
+      <c r="H272" s="20"/>
     </row>
     <row r="273">
       <c r="A273" s="20"/>
       <c r="F273" s="21"/>
+      <c r="H273" s="20"/>
     </row>
     <row r="274">
       <c r="A274" s="20"/>
       <c r="F274" s="21"/>
+      <c r="H274" s="20"/>
     </row>
     <row r="275">
       <c r="A275" s="20"/>
       <c r="F275" s="21"/>
+      <c r="H275" s="20"/>
     </row>
     <row r="276">
       <c r="A276" s="20"/>
       <c r="F276" s="21"/>
+      <c r="H276" s="20"/>
     </row>
     <row r="277">
       <c r="A277" s="20"/>
       <c r="F277" s="21"/>
+      <c r="H277" s="20"/>
     </row>
     <row r="278">
       <c r="A278" s="20"/>
       <c r="F278" s="21"/>
+      <c r="H278" s="20"/>
     </row>
     <row r="279">
       <c r="A279" s="20"/>
       <c r="F279" s="21"/>
+      <c r="H279" s="20"/>
     </row>
     <row r="280">
       <c r="A280" s="20"/>
       <c r="F280" s="21"/>
+      <c r="H280" s="20"/>
     </row>
     <row r="281">
       <c r="A281" s="20"/>
       <c r="F281" s="21"/>
+      <c r="H281" s="20"/>
     </row>
     <row r="282">
       <c r="A282" s="20"/>
       <c r="F282" s="21"/>
+      <c r="H282" s="20"/>
     </row>
     <row r="283">
       <c r="A283" s="20"/>
       <c r="F283" s="21"/>
+      <c r="H283" s="20"/>
     </row>
     <row r="284">
       <c r="A284" s="20"/>
       <c r="F284" s="21"/>
+      <c r="H284" s="20"/>
     </row>
     <row r="285">
       <c r="A285" s="20"/>
       <c r="F285" s="21"/>
+      <c r="H285" s="20"/>
     </row>
     <row r="286">
       <c r="A286" s="20"/>
       <c r="F286" s="21"/>
+      <c r="H286" s="20"/>
     </row>
     <row r="287">
       <c r="A287" s="20"/>
       <c r="F287" s="21"/>
+      <c r="H287" s="20"/>
     </row>
     <row r="288">
       <c r="A288" s="20"/>
       <c r="F288" s="21"/>
+      <c r="H288" s="20"/>
     </row>
     <row r="289">
       <c r="A289" s="20"/>
       <c r="F289" s="21"/>
+      <c r="H289" s="20"/>
     </row>
     <row r="290">
       <c r="A290" s="20"/>
       <c r="F290" s="21"/>
+      <c r="H290" s="20"/>
     </row>
     <row r="291">
       <c r="A291" s="20"/>
       <c r="F291" s="21"/>
+      <c r="H291" s="20"/>
     </row>
     <row r="292">
       <c r="A292" s="20"/>
       <c r="F292" s="21"/>
+      <c r="H292" s="20"/>
     </row>
     <row r="293">
       <c r="A293" s="20"/>
       <c r="F293" s="21"/>
+      <c r="H293" s="20"/>
     </row>
     <row r="294">
       <c r="A294" s="20"/>
       <c r="F294" s="21"/>
+      <c r="H294" s="20"/>
     </row>
     <row r="295">
       <c r="A295" s="20"/>
       <c r="F295" s="21"/>
+      <c r="H295" s="20"/>
     </row>
     <row r="296">
       <c r="A296" s="20"/>
       <c r="F296" s="21"/>
+      <c r="H296" s="20"/>
     </row>
     <row r="297">
       <c r="A297" s="20"/>
       <c r="F297" s="21"/>
+      <c r="H297" s="20"/>
     </row>
     <row r="298">
       <c r="A298" s="20"/>
       <c r="F298" s="21"/>
+      <c r="H298" s="20"/>
     </row>
     <row r="299">
       <c r="A299" s="20"/>
       <c r="F299" s="21"/>
+      <c r="H299" s="20"/>
     </row>
     <row r="300">
       <c r="A300" s="20"/>
       <c r="F300" s="21"/>
+      <c r="H300" s="20"/>
     </row>
     <row r="301">
       <c r="A301" s="20"/>
       <c r="F301" s="21"/>
+      <c r="H301" s="20"/>
     </row>
     <row r="302">
       <c r="A302" s="20"/>
       <c r="F302" s="21"/>
+      <c r="H302" s="20"/>
     </row>
     <row r="303">
       <c r="A303" s="20"/>
       <c r="F303" s="21"/>
+      <c r="H303" s="20"/>
     </row>
     <row r="304">
       <c r="A304" s="20"/>
       <c r="F304" s="21"/>
+      <c r="H304" s="20"/>
     </row>
     <row r="305">
       <c r="A305" s="20"/>
       <c r="F305" s="21"/>
+      <c r="H305" s="20"/>
     </row>
     <row r="306">
       <c r="A306" s="20"/>
       <c r="F306" s="21"/>
+      <c r="H306" s="20"/>
     </row>
     <row r="307">
       <c r="A307" s="20"/>
       <c r="F307" s="21"/>
+      <c r="H307" s="20"/>
     </row>
     <row r="308">
       <c r="A308" s="20"/>
       <c r="F308" s="21"/>
+      <c r="H308" s="20"/>
     </row>
     <row r="309">
       <c r="A309" s="20"/>
       <c r="F309" s="21"/>
+      <c r="H309" s="20"/>
     </row>
     <row r="310">
       <c r="A310" s="20"/>
       <c r="F310" s="21"/>
+      <c r="H310" s="20"/>
     </row>
     <row r="311">
       <c r="A311" s="20"/>
       <c r="F311" s="21"/>
+      <c r="H311" s="20"/>
     </row>
     <row r="312">
       <c r="A312" s="20"/>
       <c r="F312" s="21"/>
+      <c r="H312" s="20"/>
     </row>
     <row r="313">
       <c r="A313" s="20"/>
       <c r="F313" s="21"/>
+      <c r="H313" s="20"/>
     </row>
     <row r="314">
       <c r="A314" s="20"/>
       <c r="F314" s="21"/>
+      <c r="H314" s="20"/>
     </row>
     <row r="315">
       <c r="A315" s="20"/>
       <c r="F315" s="21"/>
+      <c r="H315" s="20"/>
     </row>
     <row r="316">
       <c r="A316" s="20"/>
       <c r="F316" s="21"/>
+      <c r="H316" s="20"/>
     </row>
     <row r="317">
       <c r="A317" s="20"/>
       <c r="F317" s="21"/>
+      <c r="H317" s="20"/>
     </row>
     <row r="318">
       <c r="A318" s="20"/>
       <c r="F318" s="21"/>
+      <c r="H318" s="20"/>
     </row>
     <row r="319">
       <c r="A319" s="20"/>
       <c r="F319" s="21"/>
+      <c r="H319" s="20"/>
     </row>
     <row r="320">
       <c r="A320" s="20"/>
       <c r="F320" s="21"/>
+      <c r="H320" s="20"/>
     </row>
     <row r="321">
       <c r="A321" s="20"/>
       <c r="F321" s="21"/>
+      <c r="H321" s="20"/>
     </row>
     <row r="322">
       <c r="A322" s="20"/>
       <c r="F322" s="21"/>
+      <c r="H322" s="20"/>
     </row>
     <row r="323">
       <c r="A323" s="20"/>
       <c r="F323" s="21"/>
+      <c r="H323" s="20"/>
     </row>
     <row r="324">
       <c r="A324" s="20"/>
       <c r="F324" s="21"/>
+      <c r="H324" s="20"/>
     </row>
     <row r="325">
       <c r="A325" s="20"/>
       <c r="F325" s="21"/>
+      <c r="H325" s="20"/>
     </row>
     <row r="326">
       <c r="A326" s="20"/>
       <c r="F326" s="21"/>
+      <c r="H326" s="20"/>
     </row>
     <row r="327">
       <c r="A327" s="20"/>
       <c r="F327" s="21"/>
+      <c r="H327" s="20"/>
     </row>
     <row r="328">
       <c r="A328" s="20"/>
       <c r="F328" s="21"/>
+      <c r="H328" s="20"/>
     </row>
     <row r="329">
       <c r="A329" s="20"/>
       <c r="F329" s="21"/>
+      <c r="H329" s="20"/>
     </row>
     <row r="330">
       <c r="A330" s="20"/>
       <c r="F330" s="21"/>
+      <c r="H330" s="20"/>
     </row>
     <row r="331">
       <c r="A331" s="20"/>
       <c r="F331" s="21"/>
+      <c r="H331" s="20"/>
     </row>
     <row r="332">
       <c r="A332" s="20"/>
       <c r="F332" s="21"/>
+      <c r="H332" s="20"/>
     </row>
     <row r="333">
       <c r="A333" s="20"/>
       <c r="F333" s="21"/>
+      <c r="H333" s="20"/>
     </row>
     <row r="334">
       <c r="A334" s="20"/>
       <c r="F334" s="21"/>
+      <c r="H334" s="20"/>
     </row>
     <row r="335">
       <c r="A335" s="20"/>
       <c r="F335" s="21"/>
+      <c r="H335" s="20"/>
     </row>
     <row r="336">
       <c r="A336" s="20"/>
       <c r="F336" s="21"/>
+      <c r="H336" s="20"/>
     </row>
     <row r="337">
       <c r="A337" s="20"/>
       <c r="F337" s="21"/>
+      <c r="H337" s="20"/>
     </row>
     <row r="338">
       <c r="A338" s="20"/>
       <c r="F338" s="21"/>
+      <c r="H338" s="20"/>
     </row>
     <row r="339">
       <c r="A339" s="20"/>
       <c r="F339" s="21"/>
+      <c r="H339" s="20"/>
     </row>
     <row r="340">
       <c r="A340" s="20"/>
       <c r="F340" s="21"/>
+      <c r="H340" s="20"/>
     </row>
     <row r="341">
       <c r="A341" s="20"/>
       <c r="F341" s="21"/>
+      <c r="H341" s="20"/>
     </row>
     <row r="342">
       <c r="A342" s="20"/>
       <c r="F342" s="21"/>
+      <c r="H342" s="20"/>
     </row>
     <row r="343">
       <c r="A343" s="20"/>
       <c r="F343" s="21"/>
+      <c r="H343" s="20"/>
     </row>
     <row r="344">
       <c r="A344" s="20"/>
       <c r="F344" s="21"/>
+      <c r="H344" s="20"/>
     </row>
     <row r="345">
       <c r="A345" s="20"/>
       <c r="F345" s="21"/>
+      <c r="H345" s="20"/>
     </row>
     <row r="346">
       <c r="A346" s="20"/>
       <c r="F346" s="21"/>
+      <c r="H346" s="20"/>
     </row>
     <row r="347">
       <c r="A347" s="20"/>
       <c r="F347" s="21"/>
+      <c r="H347" s="20"/>
     </row>
     <row r="348">
       <c r="A348" s="20"/>
       <c r="F348" s="21"/>
+      <c r="H348" s="20"/>
     </row>
     <row r="349">
       <c r="A349" s="20"/>
       <c r="F349" s="21"/>
+      <c r="H349" s="20"/>
     </row>
     <row r="350">
       <c r="A350" s="20"/>
       <c r="F350" s="21"/>
+      <c r="H350" s="20"/>
     </row>
     <row r="351">
       <c r="A351" s="20"/>
       <c r="F351" s="21"/>
+      <c r="H351" s="20"/>
     </row>
     <row r="352">
       <c r="A352" s="20"/>
       <c r="F352" s="21"/>
+      <c r="H352" s="20"/>
     </row>
     <row r="353">
       <c r="A353" s="20"/>
       <c r="F353" s="21"/>
+      <c r="H353" s="20"/>
     </row>
     <row r="354">
       <c r="A354" s="20"/>
       <c r="F354" s="21"/>
+      <c r="H354" s="20"/>
     </row>
     <row r="355">
       <c r="A355" s="20"/>
       <c r="F355" s="21"/>
+      <c r="H355" s="20"/>
     </row>
     <row r="356">
       <c r="A356" s="20"/>
       <c r="F356" s="21"/>
+      <c r="H356" s="20"/>
     </row>
     <row r="357">
       <c r="A357" s="20"/>
       <c r="F357" s="21"/>
+      <c r="H357" s="20"/>
     </row>
     <row r="358">
       <c r="A358" s="20"/>
       <c r="F358" s="21"/>
+      <c r="H358" s="20"/>
     </row>
     <row r="359">
       <c r="A359" s="20"/>
       <c r="F359" s="21"/>
+      <c r="H359" s="20"/>
     </row>
     <row r="360">
       <c r="A360" s="20"/>
       <c r="F360" s="21"/>
+      <c r="H360" s="20"/>
     </row>
     <row r="361">
       <c r="A361" s="20"/>
       <c r="F361" s="21"/>
+      <c r="H361" s="20"/>
     </row>
     <row r="362">
       <c r="A362" s="20"/>
       <c r="F362" s="21"/>
+      <c r="H362" s="20"/>
     </row>
     <row r="363">
       <c r="A363" s="20"/>
       <c r="F363" s="21"/>
+      <c r="H363" s="20"/>
     </row>
     <row r="364">
       <c r="A364" s="20"/>
       <c r="F364" s="21"/>
+      <c r="H364" s="20"/>
     </row>
     <row r="365">
       <c r="A365" s="20"/>
       <c r="F365" s="21"/>
+      <c r="H365" s="20"/>
     </row>
     <row r="366">
       <c r="A366" s="20"/>
       <c r="F366" s="21"/>
+      <c r="H366" s="20"/>
     </row>
     <row r="367">
       <c r="A367" s="20"/>
       <c r="F367" s="21"/>
+      <c r="H367" s="20"/>
     </row>
     <row r="368">
       <c r="A368" s="20"/>
       <c r="F368" s="21"/>
+      <c r="H368" s="20"/>
     </row>
     <row r="369">
       <c r="A369" s="20"/>
       <c r="F369" s="21"/>
+      <c r="H369" s="20"/>
     </row>
     <row r="370">
       <c r="A370" s="20"/>
       <c r="F370" s="21"/>
+      <c r="H370" s="20"/>
     </row>
     <row r="371">
       <c r="A371" s="20"/>
       <c r="F371" s="21"/>
+      <c r="H371" s="20"/>
     </row>
     <row r="372">
       <c r="A372" s="20"/>
       <c r="F372" s="21"/>
+      <c r="H372" s="20"/>
     </row>
     <row r="373">
       <c r="A373" s="20"/>
       <c r="F373" s="21"/>
+      <c r="H373" s="20"/>
     </row>
     <row r="374">
       <c r="A374" s="20"/>
       <c r="F374" s="21"/>
+      <c r="H374" s="20"/>
     </row>
     <row r="375">
       <c r="A375" s="20"/>
       <c r="F375" s="21"/>
+      <c r="H375" s="20"/>
     </row>
     <row r="376">
       <c r="A376" s="20"/>
       <c r="F376" s="21"/>
+      <c r="H376" s="20"/>
     </row>
     <row r="377">
       <c r="A377" s="20"/>
       <c r="F377" s="21"/>
+      <c r="H377" s="20"/>
     </row>
     <row r="378">
       <c r="A378" s="20"/>
       <c r="F378" s="21"/>
+      <c r="H378" s="20"/>
     </row>
     <row r="379">
       <c r="A379" s="20"/>
       <c r="F379" s="21"/>
+      <c r="H379" s="20"/>
     </row>
     <row r="380">
       <c r="A380" s="20"/>
       <c r="F380" s="21"/>
+      <c r="H380" s="20"/>
     </row>
     <row r="381">
       <c r="A381" s="20"/>
       <c r="F381" s="21"/>
+      <c r="H381" s="20"/>
     </row>
     <row r="382">
       <c r="A382" s="20"/>
       <c r="F382" s="21"/>
+      <c r="H382" s="20"/>
     </row>
     <row r="383">
       <c r="A383" s="20"/>
       <c r="F383" s="21"/>
+      <c r="H383" s="20"/>
     </row>
     <row r="384">
       <c r="A384" s="20"/>
       <c r="F384" s="21"/>
+      <c r="H384" s="20"/>
     </row>
     <row r="385">
       <c r="A385" s="20"/>
       <c r="F385" s="21"/>
+      <c r="H385" s="20"/>
     </row>
     <row r="386">
       <c r="A386" s="20"/>
       <c r="F386" s="21"/>
+      <c r="H386" s="20"/>
     </row>
     <row r="387">
       <c r="A387" s="20"/>
       <c r="F387" s="21"/>
+      <c r="H387" s="20"/>
     </row>
     <row r="388">
       <c r="A388" s="20"/>
       <c r="F388" s="21"/>
+      <c r="H388" s="20"/>
     </row>
     <row r="389">
       <c r="A389" s="20"/>
       <c r="F389" s="21"/>
+      <c r="H389" s="20"/>
     </row>
     <row r="390">
       <c r="A390" s="20"/>
       <c r="F390" s="21"/>
+      <c r="H390" s="20"/>
     </row>
     <row r="391">
       <c r="A391" s="20"/>
       <c r="F391" s="21"/>
+      <c r="H391" s="20"/>
     </row>
     <row r="392">
       <c r="A392" s="20"/>
       <c r="F392" s="21"/>
+      <c r="H392" s="20"/>
     </row>
     <row r="393">
       <c r="A393" s="20"/>
       <c r="F393" s="21"/>
+      <c r="H393" s="20"/>
     </row>
     <row r="394">
       <c r="A394" s="20"/>
       <c r="F394" s="21"/>
+      <c r="H394" s="20"/>
     </row>
     <row r="395">
       <c r="A395" s="20"/>
       <c r="F395" s="21"/>
+      <c r="H395" s="20"/>
     </row>
     <row r="396">
       <c r="A396" s="20"/>
       <c r="F396" s="21"/>
+      <c r="H396" s="20"/>
     </row>
     <row r="397">
       <c r="A397" s="20"/>
       <c r="F397" s="21"/>
+      <c r="H397" s="20"/>
     </row>
     <row r="398">
       <c r="A398" s="20"/>
       <c r="F398" s="21"/>
+      <c r="H398" s="20"/>
     </row>
     <row r="399">
       <c r="A399" s="20"/>
       <c r="F399" s="21"/>
+      <c r="H399" s="20"/>
     </row>
     <row r="400">
       <c r="A400" s="20"/>
       <c r="F400" s="21"/>
+      <c r="H400" s="20"/>
     </row>
     <row r="401">
       <c r="A401" s="20"/>
       <c r="F401" s="21"/>
+      <c r="H401" s="20"/>
     </row>
     <row r="402">
       <c r="A402" s="20"/>
       <c r="F402" s="21"/>
+      <c r="H402" s="20"/>
     </row>
     <row r="403">
       <c r="A403" s="20"/>
       <c r="F403" s="21"/>
+      <c r="H403" s="20"/>
     </row>
     <row r="404">
       <c r="A404" s="20"/>
       <c r="F404" s="21"/>
+      <c r="H404" s="20"/>
     </row>
     <row r="405">
       <c r="A405" s="20"/>
       <c r="F405" s="21"/>
+      <c r="H405" s="20"/>
     </row>
     <row r="406">
       <c r="A406" s="20"/>
       <c r="F406" s="21"/>
+      <c r="H406" s="20"/>
     </row>
     <row r="407">
       <c r="A407" s="20"/>
       <c r="F407" s="21"/>
+      <c r="H407" s="20"/>
     </row>
     <row r="408">
       <c r="A408" s="20"/>
       <c r="F408" s="21"/>
+      <c r="H408" s="20"/>
     </row>
     <row r="409">
       <c r="A409" s="20"/>
       <c r="F409" s="21"/>
+      <c r="H409" s="20"/>
     </row>
     <row r="410">
       <c r="A410" s="20"/>
       <c r="F410" s="21"/>
+      <c r="H410" s="20"/>
     </row>
     <row r="411">
       <c r="A411" s="20"/>
       <c r="F411" s="21"/>
+      <c r="H411" s="20"/>
     </row>
     <row r="412">
       <c r="A412" s="20"/>
       <c r="F412" s="21"/>
+      <c r="H412" s="20"/>
     </row>
     <row r="413">
       <c r="A413" s="20"/>
       <c r="F413" s="21"/>
+      <c r="H413" s="20"/>
     </row>
     <row r="414">
       <c r="A414" s="20"/>
       <c r="F414" s="21"/>
+      <c r="H414" s="20"/>
     </row>
     <row r="415">
       <c r="A415" s="20"/>
       <c r="F415" s="21"/>
+      <c r="H415" s="20"/>
     </row>
     <row r="416">
       <c r="A416" s="20"/>
       <c r="F416" s="21"/>
+      <c r="H416" s="20"/>
     </row>
     <row r="417">
       <c r="A417" s="20"/>
       <c r="F417" s="21"/>
+      <c r="H417" s="20"/>
     </row>
     <row r="418">
       <c r="A418" s="20"/>
       <c r="F418" s="21"/>
+      <c r="H418" s="20"/>
     </row>
     <row r="419">
       <c r="A419" s="20"/>
       <c r="F419" s="21"/>
+      <c r="H419" s="20"/>
     </row>
     <row r="420">
       <c r="A420" s="20"/>
       <c r="F420" s="21"/>
+      <c r="H420" s="20"/>
     </row>
     <row r="421">
       <c r="A421" s="20"/>
       <c r="F421" s="21"/>
+      <c r="H421" s="20"/>
     </row>
     <row r="422">
       <c r="A422" s="20"/>
       <c r="F422" s="21"/>
+      <c r="H422" s="20"/>
     </row>
     <row r="423">
       <c r="A423" s="20"/>
       <c r="F423" s="21"/>
+      <c r="H423" s="20"/>
     </row>
     <row r="424">
       <c r="A424" s="20"/>
       <c r="F424" s="21"/>
+      <c r="H424" s="20"/>
     </row>
     <row r="425">
       <c r="A425" s="20"/>
       <c r="F425" s="21"/>
+      <c r="H425" s="20"/>
     </row>
     <row r="426">
       <c r="A426" s="20"/>
       <c r="F426" s="21"/>
+      <c r="H426" s="20"/>
     </row>
     <row r="427">
       <c r="A427" s="20"/>
       <c r="F427" s="21"/>
+      <c r="H427" s="20"/>
     </row>
     <row r="428">
       <c r="A428" s="20"/>
       <c r="F428" s="21"/>
+      <c r="H428" s="20"/>
     </row>
     <row r="429">
       <c r="A429" s="20"/>
       <c r="F429" s="21"/>
+      <c r="H429" s="20"/>
     </row>
     <row r="430">
       <c r="A430" s="20"/>
       <c r="F430" s="21"/>
+      <c r="H430" s="20"/>
     </row>
     <row r="431">
       <c r="A431" s="20"/>
       <c r="F431" s="21"/>
+      <c r="H431" s="20"/>
     </row>
     <row r="432">
       <c r="A432" s="20"/>
       <c r="F432" s="21"/>
+      <c r="H432" s="20"/>
     </row>
     <row r="433">
       <c r="A433" s="20"/>
       <c r="F433" s="21"/>
+      <c r="H433" s="20"/>
     </row>
     <row r="434">
       <c r="A434" s="20"/>
       <c r="F434" s="21"/>
+      <c r="H434" s="20"/>
     </row>
     <row r="435">
       <c r="A435" s="20"/>
       <c r="F435" s="21"/>
+      <c r="H435" s="20"/>
     </row>
     <row r="436">
       <c r="A436" s="20"/>
       <c r="F436" s="21"/>
+      <c r="H436" s="20"/>
     </row>
     <row r="437">
       <c r="A437" s="20"/>
       <c r="F437" s="21"/>
+      <c r="H437" s="20"/>
     </row>
     <row r="438">
       <c r="A438" s="20"/>
       <c r="F438" s="21"/>
+      <c r="H438" s="20"/>
     </row>
     <row r="439">
       <c r="A439" s="20"/>
       <c r="F439" s="21"/>
+      <c r="H439" s="20"/>
     </row>
     <row r="440">
       <c r="A440" s="20"/>
       <c r="F440" s="21"/>
+      <c r="H440" s="20"/>
     </row>
     <row r="441">
       <c r="A441" s="20"/>
       <c r="F441" s="21"/>
+      <c r="H441" s="20"/>
     </row>
     <row r="442">
       <c r="A442" s="20"/>
       <c r="F442" s="21"/>
+      <c r="H442" s="20"/>
     </row>
     <row r="443">
       <c r="A443" s="20"/>
       <c r="F443" s="21"/>
+      <c r="H443" s="20"/>
     </row>
     <row r="444">
       <c r="A444" s="20"/>
       <c r="F444" s="21"/>
+      <c r="H444" s="20"/>
     </row>
     <row r="445">
       <c r="A445" s="20"/>
       <c r="F445" s="21"/>
+      <c r="H445" s="20"/>
     </row>
     <row r="446">
       <c r="A446" s="20"/>
       <c r="F446" s="21"/>
+      <c r="H446" s="20"/>
     </row>
     <row r="447">
       <c r="A447" s="20"/>
       <c r="F447" s="21"/>
+      <c r="H447" s="20"/>
     </row>
     <row r="448">
       <c r="A448" s="20"/>
       <c r="F448" s="21"/>
+      <c r="H448" s="20"/>
     </row>
     <row r="449">
       <c r="A449" s="20"/>
       <c r="F449" s="21"/>
+      <c r="H449" s="20"/>
     </row>
     <row r="450">
       <c r="A450" s="20"/>
       <c r="F450" s="21"/>
+      <c r="H450" s="20"/>
     </row>
     <row r="451">
       <c r="A451" s="20"/>
       <c r="F451" s="21"/>
+      <c r="H451" s="20"/>
     </row>
     <row r="452">
       <c r="A452" s="20"/>
       <c r="F452" s="21"/>
+      <c r="H452" s="20"/>
     </row>
     <row r="453">
       <c r="A453" s="20"/>
       <c r="F453" s="21"/>
+      <c r="H453" s="20"/>
     </row>
     <row r="454">
       <c r="A454" s="20"/>
       <c r="F454" s="21"/>
+      <c r="H454" s="20"/>
     </row>
     <row r="455">
       <c r="A455" s="20"/>
       <c r="F455" s="21"/>
+      <c r="H455" s="20"/>
     </row>
     <row r="456">
       <c r="A456" s="20"/>
       <c r="F456" s="21"/>
+      <c r="H456" s="20"/>
     </row>
     <row r="457">
       <c r="A457" s="20"/>
       <c r="F457" s="21"/>
+      <c r="H457" s="20"/>
     </row>
     <row r="458">
       <c r="A458" s="20"/>
       <c r="F458" s="21"/>
+      <c r="H458" s="20"/>
     </row>
     <row r="459">
       <c r="A459" s="20"/>
       <c r="F459" s="21"/>
+      <c r="H459" s="20"/>
     </row>
     <row r="460">
       <c r="A460" s="20"/>
       <c r="F460" s="21"/>
+      <c r="H460" s="20"/>
     </row>
     <row r="461">
       <c r="A461" s="20"/>
       <c r="F461" s="21"/>
+      <c r="H461" s="20"/>
     </row>
     <row r="462">
       <c r="A462" s="20"/>
       <c r="F462" s="21"/>
+      <c r="H462" s="20"/>
     </row>
     <row r="463">
       <c r="A463" s="20"/>
       <c r="F463" s="21"/>
+      <c r="H463" s="20"/>
     </row>
     <row r="464">
       <c r="A464" s="20"/>
       <c r="F464" s="21"/>
+      <c r="H464" s="20"/>
     </row>
     <row r="465">
       <c r="A465" s="20"/>
       <c r="F465" s="21"/>
+      <c r="H465" s="20"/>
     </row>
     <row r="466">
       <c r="A466" s="20"/>
       <c r="F466" s="21"/>
+      <c r="H466" s="20"/>
     </row>
     <row r="467">
       <c r="A467" s="20"/>
       <c r="F467" s="21"/>
+      <c r="H467" s="20"/>
     </row>
     <row r="468">
       <c r="A468" s="20"/>
       <c r="F468" s="21"/>
+      <c r="H468" s="20"/>
     </row>
     <row r="469">
       <c r="A469" s="20"/>
       <c r="F469" s="21"/>
+      <c r="H469" s="20"/>
     </row>
     <row r="470">
       <c r="A470" s="20"/>
       <c r="F470" s="21"/>
+      <c r="H470" s="20"/>
     </row>
     <row r="471">
       <c r="A471" s="20"/>
       <c r="F471" s="21"/>
+      <c r="H471" s="20"/>
     </row>
     <row r="472">
       <c r="A472" s="20"/>
       <c r="F472" s="21"/>
+      <c r="H472" s="20"/>
     </row>
     <row r="473">
       <c r="A473" s="20"/>
       <c r="F473" s="21"/>
+      <c r="H473" s="20"/>
     </row>
     <row r="474">
       <c r="A474" s="20"/>
       <c r="F474" s="21"/>
+      <c r="H474" s="20"/>
     </row>
     <row r="475">
       <c r="A475" s="20"/>
       <c r="F475" s="21"/>
+      <c r="H475" s="20"/>
     </row>
     <row r="476">
       <c r="A476" s="20"/>
       <c r="F476" s="21"/>
+      <c r="H476" s="20"/>
     </row>
     <row r="477">
       <c r="A477" s="20"/>
       <c r="F477" s="21"/>
+      <c r="H477" s="20"/>
     </row>
     <row r="478">
       <c r="A478" s="20"/>
       <c r="F478" s="21"/>
+      <c r="H478" s="20"/>
     </row>
     <row r="479">
       <c r="A479" s="20"/>
       <c r="F479" s="21"/>
+      <c r="H479" s="20"/>
     </row>
     <row r="480">
       <c r="A480" s="20"/>
       <c r="F480" s="21"/>
+      <c r="H480" s="20"/>
     </row>
     <row r="481">
       <c r="A481" s="20"/>
       <c r="F481" s="21"/>
+      <c r="H481" s="20"/>
     </row>
     <row r="482">
       <c r="A482" s="20"/>
       <c r="F482" s="21"/>
+      <c r="H482" s="20"/>
     </row>
     <row r="483">
       <c r="A483" s="20"/>
       <c r="F483" s="21"/>
+      <c r="H483" s="20"/>
     </row>
     <row r="484">
       <c r="A484" s="20"/>
       <c r="F484" s="21"/>
+      <c r="H484" s="20"/>
     </row>
     <row r="485">
       <c r="A485" s="20"/>
       <c r="F485" s="21"/>
+      <c r="H485" s="20"/>
     </row>
     <row r="486">
       <c r="A486" s="20"/>
       <c r="F486" s="21"/>
+      <c r="H486" s="20"/>
     </row>
     <row r="487">
       <c r="A487" s="20"/>
       <c r="F487" s="21"/>
+      <c r="H487" s="20"/>
     </row>
     <row r="488">
       <c r="A488" s="20"/>
       <c r="F488" s="21"/>
+      <c r="H488" s="20"/>
     </row>
     <row r="489">
       <c r="A489" s="20"/>
       <c r="F489" s="21"/>
+      <c r="H489" s="20"/>
     </row>
     <row r="490">
       <c r="A490" s="20"/>
       <c r="F490" s="21"/>
+      <c r="H490" s="20"/>
     </row>
     <row r="491">
       <c r="A491" s="20"/>
       <c r="F491" s="21"/>
+      <c r="H491" s="20"/>
     </row>
     <row r="492">
       <c r="A492" s="20"/>
       <c r="F492" s="21"/>
+      <c r="H492" s="20"/>
     </row>
     <row r="493">
       <c r="A493" s="20"/>
       <c r="F493" s="21"/>
+      <c r="H493" s="20"/>
     </row>
     <row r="494">
       <c r="A494" s="20"/>
       <c r="F494" s="21"/>
+      <c r="H494" s="20"/>
     </row>
     <row r="495">
       <c r="A495" s="20"/>
       <c r="F495" s="21"/>
+      <c r="H495" s="20"/>
     </row>
     <row r="496">
       <c r="A496" s="20"/>
       <c r="F496" s="21"/>
+      <c r="H496" s="20"/>
     </row>
     <row r="497">
       <c r="A497" s="20"/>
       <c r="F497" s="21"/>
+      <c r="H497" s="20"/>
     </row>
     <row r="498">
       <c r="A498" s="20"/>
       <c r="F498" s="21"/>
+      <c r="H498" s="20"/>
     </row>
     <row r="499">
       <c r="A499" s="20"/>
       <c r="F499" s="21"/>
+      <c r="H499" s="20"/>
     </row>
     <row r="500">
       <c r="A500" s="20"/>
       <c r="F500" s="21"/>
+      <c r="H500" s="20"/>
     </row>
     <row r="501">
       <c r="A501" s="20"/>
       <c r="F501" s="21"/>
+      <c r="H501" s="20"/>
     </row>
     <row r="502">
       <c r="A502" s="20"/>
       <c r="F502" s="21"/>
+      <c r="H502" s="20"/>
     </row>
     <row r="503">
       <c r="A503" s="20"/>
       <c r="F503" s="21"/>
+      <c r="H503" s="20"/>
     </row>
     <row r="504">
       <c r="A504" s="20"/>
       <c r="F504" s="21"/>
+      <c r="H504" s="20"/>
     </row>
     <row r="505">
       <c r="A505" s="20"/>
       <c r="F505" s="21"/>
+      <c r="H505" s="20"/>
     </row>
     <row r="506">
       <c r="A506" s="20"/>
       <c r="F506" s="21"/>
+      <c r="H506" s="20"/>
     </row>
     <row r="507">
       <c r="A507" s="20"/>
       <c r="F507" s="21"/>
+      <c r="H507" s="20"/>
     </row>
     <row r="508">
       <c r="A508" s="20"/>
       <c r="F508" s="21"/>
+      <c r="H508" s="20"/>
     </row>
     <row r="509">
       <c r="A509" s="20"/>
       <c r="F509" s="21"/>
+      <c r="H509" s="20"/>
     </row>
     <row r="510">
       <c r="A510" s="20"/>
       <c r="F510" s="21"/>
+      <c r="H510" s="20"/>
     </row>
     <row r="511">
       <c r="A511" s="20"/>
       <c r="F511" s="21"/>
+      <c r="H511" s="20"/>
     </row>
     <row r="512">
       <c r="A512" s="20"/>
       <c r="F512" s="21"/>
+      <c r="H512" s="20"/>
     </row>
     <row r="513">
       <c r="A513" s="20"/>
       <c r="F513" s="21"/>
+      <c r="H513" s="20"/>
     </row>
     <row r="514">
       <c r="A514" s="20"/>
       <c r="F514" s="21"/>
+      <c r="H514" s="20"/>
     </row>
     <row r="515">
       <c r="A515" s="20"/>
       <c r="F515" s="21"/>
+      <c r="H515" s="20"/>
     </row>
     <row r="516">
       <c r="A516" s="20"/>
       <c r="F516" s="21"/>
+      <c r="H516" s="20"/>
     </row>
     <row r="517">
       <c r="A517" s="20"/>
       <c r="F517" s="21"/>
+      <c r="H517" s="20"/>
     </row>
     <row r="518">
       <c r="A518" s="20"/>
       <c r="F518" s="21"/>
+      <c r="H518" s="20"/>
     </row>
     <row r="519">
       <c r="A519" s="20"/>
       <c r="F519" s="21"/>
+      <c r="H519" s="20"/>
     </row>
     <row r="520">
       <c r="A520" s="20"/>
       <c r="F520" s="21"/>
+      <c r="H520" s="20"/>
     </row>
     <row r="521">
       <c r="A521" s="20"/>
       <c r="F521" s="21"/>
+      <c r="H521" s="20"/>
     </row>
     <row r="522">
       <c r="A522" s="20"/>
       <c r="F522" s="21"/>
+      <c r="H522" s="20"/>
     </row>
     <row r="523">
       <c r="A523" s="20"/>
       <c r="F523" s="21"/>
+      <c r="H523" s="20"/>
     </row>
     <row r="524">
       <c r="A524" s="20"/>
       <c r="F524" s="21"/>
+      <c r="H524" s="20"/>
     </row>
     <row r="525">
       <c r="A525" s="20"/>
       <c r="F525" s="21"/>
+      <c r="H525" s="20"/>
     </row>
     <row r="526">
       <c r="A526" s="20"/>
       <c r="F526" s="21"/>
+      <c r="H526" s="20"/>
     </row>
     <row r="527">
       <c r="A527" s="20"/>
       <c r="F527" s="21"/>
+      <c r="H527" s="20"/>
     </row>
     <row r="528">
       <c r="A528" s="20"/>
       <c r="F528" s="21"/>
+      <c r="H528" s="20"/>
     </row>
     <row r="529">
       <c r="A529" s="20"/>
       <c r="F529" s="21"/>
+      <c r="H529" s="20"/>
     </row>
     <row r="530">
       <c r="A530" s="20"/>
       <c r="F530" s="21"/>
+      <c r="H530" s="20"/>
     </row>
     <row r="531">
       <c r="A531" s="20"/>
       <c r="F531" s="21"/>
+      <c r="H531" s="20"/>
     </row>
     <row r="532">
       <c r="A532" s="20"/>
       <c r="F532" s="21"/>
+      <c r="H532" s="20"/>
     </row>
     <row r="533">
       <c r="A533" s="20"/>
       <c r="F533" s="21"/>
+      <c r="H533" s="20"/>
     </row>
     <row r="534">
       <c r="A534" s="20"/>
       <c r="F534" s="21"/>
+      <c r="H534" s="20"/>
     </row>
     <row r="535">
       <c r="A535" s="20"/>
       <c r="F535" s="21"/>
+      <c r="H535" s="20"/>
     </row>
     <row r="536">
       <c r="A536" s="20"/>
       <c r="F536" s="21"/>
+      <c r="H536" s="20"/>
     </row>
     <row r="537">
       <c r="A537" s="20"/>
       <c r="F537" s="21"/>
+      <c r="H537" s="20"/>
     </row>
     <row r="538">
       <c r="A538" s="20"/>
       <c r="F538" s="21"/>
+      <c r="H538" s="20"/>
     </row>
     <row r="539">
       <c r="A539" s="20"/>
       <c r="F539" s="21"/>
+      <c r="H539" s="20"/>
     </row>
     <row r="540">
       <c r="A540" s="20"/>
       <c r="F540" s="21"/>
+      <c r="H540" s="20"/>
     </row>
     <row r="541">
       <c r="A541" s="20"/>
       <c r="F541" s="21"/>
+      <c r="H541" s="20"/>
     </row>
     <row r="542">
       <c r="A542" s="20"/>
       <c r="F542" s="21"/>
+      <c r="H542" s="20"/>
     </row>
     <row r="543">
       <c r="A543" s="20"/>
       <c r="F543" s="21"/>
+      <c r="H543" s="20"/>
     </row>
     <row r="544">
       <c r="A544" s="20"/>
       <c r="F544" s="21"/>
+      <c r="H544" s="20"/>
     </row>
     <row r="545">
       <c r="A545" s="20"/>
       <c r="F545" s="21"/>
+      <c r="H545" s="20"/>
     </row>
     <row r="546">
       <c r="A546" s="20"/>
       <c r="F546" s="21"/>
+      <c r="H546" s="20"/>
     </row>
     <row r="547">
       <c r="A547" s="20"/>
       <c r="F547" s="21"/>
+      <c r="H547" s="20"/>
     </row>
     <row r="548">
       <c r="A548" s="20"/>
       <c r="F548" s="21"/>
+      <c r="H548" s="20"/>
     </row>
     <row r="549">
       <c r="A549" s="20"/>
       <c r="F549" s="21"/>
+      <c r="H549" s="20"/>
     </row>
     <row r="550">
       <c r="A550" s="20"/>
       <c r="F550" s="21"/>
+      <c r="H550" s="20"/>
     </row>
     <row r="551">
       <c r="A551" s="20"/>
       <c r="F551" s="21"/>
+      <c r="H551" s="20"/>
     </row>
     <row r="552">
       <c r="A552" s="20"/>
       <c r="F552" s="21"/>
+      <c r="H552" s="20"/>
     </row>
     <row r="553">
       <c r="A553" s="20"/>
       <c r="F553" s="21"/>
+      <c r="H553" s="20"/>
     </row>
     <row r="554">
       <c r="A554" s="20"/>
       <c r="F554" s="21"/>
+      <c r="H554" s="20"/>
     </row>
     <row r="555">
       <c r="A555" s="20"/>
       <c r="F555" s="21"/>
+      <c r="H555" s="20"/>
     </row>
     <row r="556">
       <c r="A556" s="20"/>
       <c r="F556" s="21"/>
+      <c r="H556" s="20"/>
     </row>
     <row r="557">
       <c r="A557" s="20"/>
       <c r="F557" s="21"/>
+      <c r="H557" s="20"/>
     </row>
     <row r="558">
       <c r="A558" s="20"/>
       <c r="F558" s="21"/>
+      <c r="H558" s="20"/>
     </row>
     <row r="559">
       <c r="A559" s="20"/>
       <c r="F559" s="21"/>
+      <c r="H559" s="20"/>
     </row>
     <row r="560">
       <c r="A560" s="20"/>
       <c r="F560" s="21"/>
+      <c r="H560" s="20"/>
     </row>
     <row r="561">
       <c r="A561" s="20"/>
       <c r="F561" s="21"/>
+      <c r="H561" s="20"/>
     </row>
     <row r="562">
       <c r="A562" s="20"/>
       <c r="F562" s="21"/>
+      <c r="H562" s="20"/>
     </row>
     <row r="563">
       <c r="A563" s="20"/>
       <c r="F563" s="21"/>
+      <c r="H563" s="20"/>
     </row>
     <row r="564">
       <c r="A564" s="20"/>
       <c r="F564" s="21"/>
+      <c r="H564" s="20"/>
     </row>
     <row r="565">
       <c r="A565" s="20"/>
       <c r="F565" s="21"/>
+      <c r="H565" s="20"/>
     </row>
     <row r="566">
       <c r="A566" s="20"/>
       <c r="F566" s="21"/>
+      <c r="H566" s="20"/>
     </row>
     <row r="567">
       <c r="A567" s="20"/>
       <c r="F567" s="21"/>
+      <c r="H567" s="20"/>
     </row>
     <row r="568">
       <c r="A568" s="20"/>
       <c r="F568" s="21"/>
+      <c r="H568" s="20"/>
     </row>
     <row r="569">
       <c r="A569" s="20"/>
       <c r="F569" s="21"/>
+      <c r="H569" s="20"/>
     </row>
     <row r="570">
       <c r="A570" s="20"/>
       <c r="F570" s="21"/>
+      <c r="H570" s="20"/>
     </row>
     <row r="571">
       <c r="A571" s="20"/>
       <c r="F571" s="21"/>
+      <c r="H571" s="20"/>
     </row>
     <row r="572">
       <c r="A572" s="20"/>
       <c r="F572" s="21"/>
+      <c r="H572" s="20"/>
     </row>
     <row r="573">
       <c r="A573" s="20"/>
       <c r="F573" s="21"/>
+      <c r="H573" s="20"/>
     </row>
     <row r="574">
       <c r="A574" s="20"/>
       <c r="F574" s="21"/>
+      <c r="H574" s="20"/>
     </row>
     <row r="575">
       <c r="A575" s="20"/>
       <c r="F575" s="21"/>
+      <c r="H575" s="20"/>
     </row>
     <row r="576">
       <c r="A576" s="20"/>
       <c r="F576" s="21"/>
+      <c r="H576" s="20"/>
     </row>
     <row r="577">
       <c r="A577" s="20"/>
       <c r="F577" s="21"/>
+      <c r="H577" s="20"/>
     </row>
     <row r="578">
       <c r="A578" s="20"/>
       <c r="F578" s="21"/>
+      <c r="H578" s="20"/>
     </row>
     <row r="579">
       <c r="A579" s="20"/>
       <c r="F579" s="21"/>
+      <c r="H579" s="20"/>
     </row>
     <row r="580">
       <c r="A580" s="20"/>
       <c r="F580" s="21"/>
+      <c r="H580" s="20"/>
     </row>
     <row r="581">
       <c r="A581" s="20"/>
       <c r="F581" s="21"/>
+      <c r="H581" s="20"/>
     </row>
     <row r="582">
       <c r="A582" s="20"/>
       <c r="F582" s="21"/>
+      <c r="H582" s="20"/>
     </row>
     <row r="583">
       <c r="A583" s="20"/>
       <c r="F583" s="21"/>
+      <c r="H583" s="20"/>
     </row>
     <row r="584">
       <c r="A584" s="20"/>
       <c r="F584" s="21"/>
+      <c r="H584" s="20"/>
     </row>
     <row r="585">
       <c r="A585" s="20"/>
       <c r="F585" s="21"/>
+      <c r="H585" s="20"/>
     </row>
     <row r="586">
       <c r="A586" s="20"/>
       <c r="F586" s="21"/>
+      <c r="H586" s="20"/>
     </row>
     <row r="587">
       <c r="A587" s="20"/>
       <c r="F587" s="21"/>
+      <c r="H587" s="20"/>
     </row>
     <row r="588">
       <c r="A588" s="20"/>
       <c r="F588" s="21"/>
+      <c r="H588" s="20"/>
     </row>
     <row r="589">
       <c r="A589" s="20"/>
       <c r="F589" s="21"/>
+      <c r="H589" s="20"/>
     </row>
     <row r="590">
       <c r="A590" s="20"/>
       <c r="F590" s="21"/>
+      <c r="H590" s="20"/>
     </row>
     <row r="591">
       <c r="A591" s="20"/>
       <c r="F591" s="21"/>
+      <c r="H591" s="20"/>
     </row>
     <row r="592">
       <c r="A592" s="20"/>
       <c r="F592" s="21"/>
+      <c r="H592" s="20"/>
     </row>
     <row r="593">
       <c r="A593" s="20"/>
       <c r="F593" s="21"/>
+      <c r="H593" s="20"/>
     </row>
     <row r="594">
       <c r="A594" s="20"/>
       <c r="F594" s="21"/>
+      <c r="H594" s="20"/>
     </row>
     <row r="595">
       <c r="A595" s="20"/>
       <c r="F595" s="21"/>
+      <c r="H595" s="20"/>
     </row>
     <row r="596">
       <c r="A596" s="20"/>
       <c r="F596" s="21"/>
+      <c r="H596" s="20"/>
     </row>
     <row r="597">
       <c r="A597" s="20"/>
       <c r="F597" s="21"/>
+      <c r="H597" s="20"/>
     </row>
     <row r="598">
       <c r="A598" s="20"/>
       <c r="F598" s="21"/>
+      <c r="H598" s="20"/>
     </row>
     <row r="599">
       <c r="A599" s="20"/>
       <c r="F599" s="21"/>
+      <c r="H599" s="20"/>
     </row>
     <row r="600">
       <c r="A600" s="20"/>
       <c r="F600" s="21"/>
+      <c r="H600" s="20"/>
     </row>
     <row r="601">
       <c r="A601" s="20"/>
       <c r="F601" s="21"/>
+      <c r="H601" s="20"/>
     </row>
     <row r="602">
       <c r="A602" s="20"/>
       <c r="F602" s="21"/>
+      <c r="H602" s="20"/>
     </row>
     <row r="603">
       <c r="A603" s="20"/>
       <c r="F603" s="21"/>
+      <c r="H603" s="20"/>
     </row>
     <row r="604">
       <c r="A604" s="20"/>
       <c r="F604" s="21"/>
+      <c r="H604" s="20"/>
     </row>
     <row r="605">
       <c r="A605" s="20"/>
       <c r="F605" s="21"/>
+      <c r="H605" s="20"/>
     </row>
     <row r="606">
       <c r="A606" s="20"/>
       <c r="F606" s="21"/>
+      <c r="H606" s="20"/>
     </row>
     <row r="607">
       <c r="A607" s="20"/>
       <c r="F607" s="21"/>
+      <c r="H607" s="20"/>
     </row>
     <row r="608">
       <c r="A608" s="20"/>
       <c r="F608" s="21"/>
+      <c r="H608" s="20"/>
     </row>
     <row r="609">
       <c r="A609" s="20"/>
       <c r="F609" s="21"/>
+      <c r="H609" s="20"/>
     </row>
     <row r="610">
       <c r="A610" s="20"/>
       <c r="F610" s="21"/>
+      <c r="H610" s="20"/>
     </row>
     <row r="611">
       <c r="A611" s="20"/>
       <c r="F611" s="21"/>
+      <c r="H611" s="20"/>
     </row>
     <row r="612">
       <c r="A612" s="20"/>
       <c r="F612" s="21"/>
+      <c r="H612" s="20"/>
     </row>
     <row r="613">
       <c r="A613" s="20"/>
       <c r="F613" s="21"/>
+      <c r="H613" s="20"/>
     </row>
     <row r="614">
       <c r="A614" s="20"/>
       <c r="F614" s="21"/>
+      <c r="H614" s="20"/>
     </row>
     <row r="615">
       <c r="A615" s="20"/>
       <c r="F615" s="21"/>
+      <c r="H615" s="20"/>
     </row>
     <row r="616">
       <c r="A616" s="20"/>
       <c r="F616" s="21"/>
+      <c r="H616" s="20"/>
     </row>
     <row r="617">
       <c r="A617" s="20"/>
       <c r="F617" s="21"/>
+      <c r="H617" s="20"/>
     </row>
     <row r="618">
       <c r="A618" s="20"/>
       <c r="F618" s="21"/>
+      <c r="H618" s="20"/>
     </row>
     <row r="619">
       <c r="A619" s="20"/>
       <c r="F619" s="21"/>
+      <c r="H619" s="20"/>
     </row>
     <row r="620">
       <c r="A620" s="20"/>
       <c r="F620" s="21"/>
+      <c r="H620" s="20"/>
     </row>
     <row r="621">
       <c r="A621" s="20"/>
       <c r="F621" s="21"/>
+      <c r="H621" s="20"/>
     </row>
     <row r="622">
       <c r="A622" s="20"/>
       <c r="F622" s="21"/>
+      <c r="H622" s="20"/>
     </row>
     <row r="623">
       <c r="A623" s="20"/>
       <c r="F623" s="21"/>
+      <c r="H623" s="20"/>
     </row>
     <row r="624">
       <c r="A624" s="20"/>
       <c r="F624" s="21"/>
+      <c r="H624" s="20"/>
     </row>
     <row r="625">
       <c r="A625" s="20"/>
       <c r="F625" s="21"/>
+      <c r="H625" s="20"/>
     </row>
     <row r="626">
       <c r="A626" s="20"/>
       <c r="F626" s="21"/>
+      <c r="H626" s="20"/>
     </row>
     <row r="627">
       <c r="A627" s="20"/>
       <c r="F627" s="21"/>
+      <c r="H627" s="20"/>
     </row>
     <row r="628">
       <c r="A628" s="20"/>
       <c r="F628" s="21"/>
+      <c r="H628" s="20"/>
     </row>
     <row r="629">
       <c r="A629" s="20"/>
       <c r="F629" s="21"/>
+      <c r="H629" s="20"/>
     </row>
     <row r="630">
       <c r="A630" s="20"/>
       <c r="F630" s="21"/>
+      <c r="H630" s="20"/>
     </row>
     <row r="631">
       <c r="A631" s="20"/>
       <c r="F631" s="21"/>
+      <c r="H631" s="20"/>
     </row>
     <row r="632">
       <c r="A632" s="20"/>
       <c r="F632" s="21"/>
+      <c r="H632" s="20"/>
     </row>
     <row r="633">
       <c r="A633" s="20"/>
       <c r="F633" s="21"/>
+      <c r="H633" s="20"/>
     </row>
     <row r="634">
       <c r="A634" s="20"/>
       <c r="F634" s="21"/>
+      <c r="H634" s="20"/>
     </row>
     <row r="635">
       <c r="A635" s="20"/>
       <c r="F635" s="21"/>
+      <c r="H635" s="20"/>
     </row>
     <row r="636">
       <c r="A636" s="20"/>
       <c r="F636" s="21"/>
+      <c r="H636" s="20"/>
     </row>
     <row r="637">
       <c r="A637" s="20"/>
       <c r="F637" s="21"/>
+      <c r="H637" s="20"/>
     </row>
     <row r="638">
       <c r="A638" s="20"/>
       <c r="F638" s="21"/>
+      <c r="H638" s="20"/>
     </row>
     <row r="639">
       <c r="A639" s="20"/>
       <c r="F639" s="21"/>
+      <c r="H639" s="20"/>
     </row>
     <row r="640">
       <c r="A640" s="20"/>
       <c r="F640" s="21"/>
+      <c r="H640" s="20"/>
     </row>
     <row r="641">
       <c r="A641" s="20"/>
       <c r="F641" s="21"/>
+      <c r="H641" s="20"/>
     </row>
     <row r="642">
       <c r="A642" s="20"/>
       <c r="F642" s="21"/>
+      <c r="H642" s="20"/>
     </row>
     <row r="643">
       <c r="A643" s="20"/>
       <c r="F643" s="21"/>
+      <c r="H643" s="20"/>
     </row>
     <row r="644">
       <c r="A644" s="20"/>
       <c r="F644" s="21"/>
+      <c r="H644" s="20"/>
     </row>
     <row r="645">
       <c r="A645" s="20"/>
       <c r="F645" s="21"/>
+      <c r="H645" s="20"/>
     </row>
     <row r="646">
       <c r="A646" s="20"/>
       <c r="F646" s="21"/>
+      <c r="H646" s="20"/>
     </row>
     <row r="647">
       <c r="A647" s="20"/>
       <c r="F647" s="21"/>
+      <c r="H647" s="20"/>
     </row>
     <row r="648">
       <c r="A648" s="20"/>
       <c r="F648" s="21"/>
+      <c r="H648" s="20"/>
     </row>
     <row r="649">
       <c r="A649" s="20"/>
       <c r="F649" s="21"/>
+      <c r="H649" s="20"/>
     </row>
     <row r="650">
       <c r="A650" s="20"/>
       <c r="F650" s="21"/>
+      <c r="H650" s="20"/>
     </row>
     <row r="651">
       <c r="A651" s="20"/>
       <c r="F651" s="21"/>
+      <c r="H651" s="20"/>
     </row>
     <row r="652">
       <c r="A652" s="20"/>
       <c r="F652" s="21"/>
+      <c r="H652" s="20"/>
     </row>
     <row r="653">
       <c r="A653" s="20"/>
       <c r="F653" s="21"/>
+      <c r="H653" s="20"/>
     </row>
     <row r="654">
       <c r="A654" s="20"/>
       <c r="F654" s="21"/>
+      <c r="H654" s="20"/>
     </row>
     <row r="655">
       <c r="A655" s="20"/>
       <c r="F655" s="21"/>
+      <c r="H655" s="20"/>
     </row>
     <row r="656">
       <c r="A656" s="20"/>
       <c r="F656" s="21"/>
+      <c r="H656" s="20"/>
     </row>
     <row r="657">
       <c r="A657" s="20"/>
       <c r="F657" s="21"/>
+      <c r="H657" s="20"/>
     </row>
     <row r="658">
       <c r="A658" s="20"/>
       <c r="F658" s="21"/>
+      <c r="H658" s="20"/>
     </row>
     <row r="659">
       <c r="A659" s="20"/>
       <c r="F659" s="21"/>
+      <c r="H659" s="20"/>
     </row>
     <row r="660">
       <c r="A660" s="20"/>
       <c r="F660" s="21"/>
+      <c r="H660" s="20"/>
     </row>
     <row r="661">
       <c r="A661" s="20"/>
       <c r="F661" s="21"/>
+      <c r="H661" s="20"/>
     </row>
     <row r="662">
       <c r="A662" s="20"/>
       <c r="F662" s="21"/>
+      <c r="H662" s="20"/>
     </row>
     <row r="663">
       <c r="A663" s="20"/>
       <c r="F663" s="21"/>
+      <c r="H663" s="20"/>
     </row>
     <row r="664">
       <c r="A664" s="20"/>
       <c r="F664" s="21"/>
+      <c r="H664" s="20"/>
     </row>
     <row r="665">
       <c r="A665" s="20"/>
       <c r="F665" s="21"/>
+      <c r="H665" s="20"/>
     </row>
     <row r="666">
       <c r="A666" s="20"/>
       <c r="F666" s="21"/>
+      <c r="H666" s="20"/>
     </row>
     <row r="667">
       <c r="A667" s="20"/>
       <c r="F667" s="21"/>
+      <c r="H667" s="20"/>
     </row>
     <row r="668">
       <c r="A668" s="20"/>
       <c r="F668" s="21"/>
+      <c r="H668" s="20"/>
     </row>
     <row r="669">
       <c r="A669" s="20"/>
       <c r="F669" s="21"/>
+      <c r="H669" s="20"/>
     </row>
     <row r="670">
       <c r="A670" s="20"/>
       <c r="F670" s="21"/>
+      <c r="H670" s="20"/>
     </row>
     <row r="671">
       <c r="A671" s="20"/>
       <c r="F671" s="21"/>
+      <c r="H671" s="20"/>
     </row>
     <row r="672">
       <c r="A672" s="20"/>
       <c r="F672" s="21"/>
+      <c r="H672" s="20"/>
     </row>
     <row r="673">
       <c r="A673" s="20"/>
       <c r="F673" s="21"/>
+      <c r="H673" s="20"/>
     </row>
     <row r="674">
       <c r="A674" s="20"/>
       <c r="F674" s="21"/>
+      <c r="H674" s="20"/>
     </row>
     <row r="675">
       <c r="A675" s="20"/>
       <c r="F675" s="21"/>
+      <c r="H675" s="20"/>
     </row>
     <row r="676">
       <c r="A676" s="20"/>
       <c r="F676" s="21"/>
+      <c r="H676" s="20"/>
     </row>
     <row r="677">
       <c r="A677" s="20"/>
       <c r="F677" s="21"/>
+      <c r="H677" s="20"/>
     </row>
     <row r="678">
       <c r="A678" s="20"/>
       <c r="F678" s="21"/>
+      <c r="H678" s="20"/>
     </row>
     <row r="679">
       <c r="A679" s="20"/>
       <c r="F679" s="21"/>
+      <c r="H679" s="20"/>
     </row>
     <row r="680">
       <c r="A680" s="20"/>
       <c r="F680" s="21"/>
+      <c r="H680" s="20"/>
     </row>
     <row r="681">
       <c r="A681" s="20"/>
       <c r="F681" s="21"/>
+      <c r="H681" s="20"/>
     </row>
     <row r="682">
       <c r="A682" s="20"/>
       <c r="F682" s="21"/>
+      <c r="H682" s="20"/>
     </row>
     <row r="683">
       <c r="A683" s="20"/>
       <c r="F683" s="21"/>
+      <c r="H683" s="20"/>
     </row>
     <row r="684">
       <c r="A684" s="20"/>
       <c r="F684" s="21"/>
+      <c r="H684" s="20"/>
     </row>
     <row r="685">
       <c r="A685" s="20"/>
       <c r="F685" s="21"/>
+      <c r="H685" s="20"/>
     </row>
     <row r="686">
       <c r="A686" s="20"/>
       <c r="F686" s="21"/>
+      <c r="H686" s="20"/>
     </row>
     <row r="687">
       <c r="A687" s="20"/>
       <c r="F687" s="21"/>
+      <c r="H687" s="20"/>
     </row>
     <row r="688">
       <c r="A688" s="20"/>
       <c r="F688" s="21"/>
+      <c r="H688" s="20"/>
     </row>
     <row r="689">
       <c r="A689" s="20"/>
       <c r="F689" s="21"/>
+      <c r="H689" s="20"/>
     </row>
     <row r="690">
       <c r="A690" s="20"/>
       <c r="F690" s="21"/>
+      <c r="H690" s="20"/>
     </row>
     <row r="691">
       <c r="A691" s="20"/>
       <c r="F691" s="21"/>
+      <c r="H691" s="20"/>
     </row>
     <row r="692">
       <c r="A692" s="20"/>
       <c r="F692" s="21"/>
+      <c r="H692" s="20"/>
     </row>
     <row r="693">
       <c r="A693" s="20"/>
       <c r="F693" s="21"/>
+      <c r="H693" s="20"/>
     </row>
     <row r="694">
       <c r="A694" s="20"/>
       <c r="F694" s="21"/>
+      <c r="H694" s="20"/>
     </row>
     <row r="695">
       <c r="A695" s="20"/>
       <c r="F695" s="21"/>
+      <c r="H695" s="20"/>
     </row>
     <row r="696">
       <c r="A696" s="20"/>
       <c r="F696" s="21"/>
+      <c r="H696" s="20"/>
     </row>
     <row r="697">
       <c r="A697" s="20"/>
       <c r="F697" s="21"/>
+      <c r="H697" s="20"/>
     </row>
     <row r="698">
       <c r="A698" s="20"/>
       <c r="F698" s="21"/>
+      <c r="H698" s="20"/>
     </row>
     <row r="699">
       <c r="A699" s="20"/>
       <c r="F699" s="21"/>
+      <c r="H699" s="20"/>
     </row>
     <row r="700">
       <c r="A700" s="20"/>
       <c r="F700" s="21"/>
+      <c r="H700" s="20"/>
     </row>
     <row r="701">
       <c r="A701" s="20"/>
       <c r="F701" s="21"/>
+      <c r="H701" s="20"/>
     </row>
     <row r="702">
       <c r="A702" s="20"/>
       <c r="F702" s="21"/>
+      <c r="H702" s="20"/>
     </row>
     <row r="703">
       <c r="A703" s="20"/>
       <c r="F703" s="21"/>
+      <c r="H703" s="20"/>
     </row>
     <row r="704">
       <c r="A704" s="20"/>
       <c r="F704" s="21"/>
+      <c r="H704" s="20"/>
     </row>
     <row r="705">
       <c r="A705" s="20"/>
       <c r="F705" s="21"/>
+      <c r="H705" s="20"/>
     </row>
     <row r="706">
       <c r="A706" s="20"/>
       <c r="F706" s="21"/>
+      <c r="H706" s="20"/>
     </row>
     <row r="707">
       <c r="A707" s="20"/>
       <c r="F707" s="21"/>
+      <c r="H707" s="20"/>
     </row>
     <row r="708">
       <c r="A708" s="20"/>
       <c r="F708" s="21"/>
+      <c r="H708" s="20"/>
     </row>
     <row r="709">
       <c r="A709" s="20"/>
       <c r="F709" s="21"/>
+      <c r="H709" s="20"/>
     </row>
     <row r="710">
       <c r="A710" s="20"/>
       <c r="F710" s="21"/>
+      <c r="H710" s="20"/>
     </row>
     <row r="711">
       <c r="A711" s="20"/>
       <c r="F711" s="21"/>
+      <c r="H711" s="20"/>
     </row>
     <row r="712">
       <c r="A712" s="20"/>
       <c r="F712" s="21"/>
+      <c r="H712" s="20"/>
     </row>
     <row r="713">
       <c r="A713" s="20"/>
       <c r="F713" s="21"/>
+      <c r="H713" s="20"/>
     </row>
     <row r="714">
       <c r="A714" s="20"/>
       <c r="F714" s="21"/>
+      <c r="H714" s="20"/>
     </row>
     <row r="715">
       <c r="A715" s="20"/>
       <c r="F715" s="21"/>
+      <c r="H715" s="20"/>
     </row>
     <row r="716">
       <c r="A716" s="20"/>
       <c r="F716" s="21"/>
+      <c r="H716" s="20"/>
     </row>
     <row r="717">
       <c r="A717" s="20"/>
       <c r="F717" s="21"/>
+      <c r="H717" s="20"/>
     </row>
     <row r="718">
       <c r="A718" s="20"/>
       <c r="F718" s="21"/>
+      <c r="H718" s="20"/>
     </row>
     <row r="719">
       <c r="A719" s="20"/>
       <c r="F719" s="21"/>
+      <c r="H719" s="20"/>
     </row>
     <row r="720">
       <c r="A720" s="20"/>
       <c r="F720" s="21"/>
+      <c r="H720" s="20"/>
     </row>
     <row r="721">
       <c r="A721" s="20"/>
       <c r="F721" s="21"/>
+      <c r="H721" s="20"/>
     </row>
     <row r="722">
       <c r="A722" s="20"/>
       <c r="F722" s="21"/>
+      <c r="H722" s="20"/>
     </row>
     <row r="723">
       <c r="A723" s="20"/>
       <c r="F723" s="21"/>
+      <c r="H723" s="20"/>
     </row>
     <row r="724">
       <c r="A724" s="20"/>
       <c r="F724" s="21"/>
+      <c r="H724" s="20"/>
     </row>
     <row r="725">
       <c r="A725" s="20"/>
       <c r="F725" s="21"/>
+      <c r="H725" s="20"/>
     </row>
     <row r="726">
       <c r="A726" s="20"/>
       <c r="F726" s="21"/>
+      <c r="H726" s="20"/>
     </row>
     <row r="727">
       <c r="A727" s="20"/>
       <c r="F727" s="21"/>
+      <c r="H727" s="20"/>
     </row>
     <row r="728">
       <c r="A728" s="20"/>
       <c r="F728" s="21"/>
+      <c r="H728" s="20"/>
     </row>
     <row r="729">
       <c r="A729" s="20"/>
       <c r="F729" s="21"/>
+      <c r="H729" s="20"/>
     </row>
     <row r="730">
       <c r="A730" s="20"/>
       <c r="F730" s="21"/>
+      <c r="H730" s="20"/>
     </row>
     <row r="731">
       <c r="A731" s="20"/>
       <c r="F731" s="21"/>
+      <c r="H731" s="20"/>
     </row>
     <row r="732">
       <c r="A732" s="20"/>
       <c r="F732" s="21"/>
+      <c r="H732" s="20"/>
     </row>
     <row r="733">
       <c r="A733" s="20"/>
       <c r="F733" s="21"/>
+      <c r="H733" s="20"/>
     </row>
     <row r="734">
       <c r="A734" s="20"/>
       <c r="F734" s="21"/>
+      <c r="H734" s="20"/>
     </row>
     <row r="735">
       <c r="A735" s="20"/>
       <c r="F735" s="21"/>
+      <c r="H735" s="20"/>
     </row>
     <row r="736">
       <c r="A736" s="20"/>
       <c r="F736" s="21"/>
+      <c r="H736" s="20"/>
     </row>
     <row r="737">
       <c r="A737" s="20"/>
       <c r="F737" s="21"/>
+      <c r="H737" s="20"/>
     </row>
     <row r="738">
       <c r="A738" s="20"/>
       <c r="F738" s="21"/>
+      <c r="H738" s="20"/>
     </row>
     <row r="739">
       <c r="A739" s="20"/>
       <c r="F739" s="21"/>
+      <c r="H739" s="20"/>
     </row>
     <row r="740">
       <c r="A740" s="20"/>
       <c r="F740" s="21"/>
+      <c r="H740" s="20"/>
     </row>
     <row r="741">
       <c r="A741" s="20"/>
       <c r="F741" s="21"/>
+      <c r="H741" s="20"/>
     </row>
     <row r="742">
       <c r="A742" s="20"/>
       <c r="F742" s="21"/>
+      <c r="H742" s="20"/>
     </row>
     <row r="743">
       <c r="A743" s="20"/>
       <c r="F743" s="21"/>
+      <c r="H743" s="20"/>
     </row>
     <row r="744">
       <c r="A744" s="20"/>
       <c r="F744" s="21"/>
+      <c r="H744" s="20"/>
     </row>
     <row r="745">
       <c r="A745" s="20"/>
       <c r="F745" s="21"/>
+      <c r="H745" s="20"/>
     </row>
     <row r="746">
       <c r="A746" s="20"/>
       <c r="F746" s="21"/>
+      <c r="H746" s="20"/>
     </row>
     <row r="747">
       <c r="A747" s="20"/>
       <c r="F747" s="21"/>
+      <c r="H747" s="20"/>
     </row>
     <row r="748">
       <c r="A748" s="20"/>
       <c r="F748" s="21"/>
+      <c r="H748" s="20"/>
     </row>
     <row r="749">
       <c r="A749" s="20"/>
       <c r="F749" s="21"/>
+      <c r="H749" s="20"/>
     </row>
     <row r="750">
       <c r="A750" s="20"/>
       <c r="F750" s="21"/>
+      <c r="H750" s="20"/>
     </row>
     <row r="751">
       <c r="A751" s="20"/>
       <c r="F751" s="21"/>
+      <c r="H751" s="20"/>
     </row>
     <row r="752">
       <c r="A752" s="20"/>
       <c r="F752" s="21"/>
+      <c r="H752" s="20"/>
     </row>
     <row r="753">
       <c r="A753" s="20"/>
       <c r="F753" s="21"/>
+      <c r="H753" s="20"/>
     </row>
     <row r="754">
       <c r="A754" s="20"/>
       <c r="F754" s="21"/>
+      <c r="H754" s="20"/>
     </row>
     <row r="755">
       <c r="A755" s="20"/>
       <c r="F755" s="21"/>
+      <c r="H755" s="20"/>
     </row>
     <row r="756">
       <c r="A756" s="20"/>
       <c r="F756" s="21"/>
+      <c r="H756" s="20"/>
     </row>
     <row r="757">
       <c r="A757" s="20"/>
       <c r="F757" s="21"/>
+      <c r="H757" s="20"/>
     </row>
     <row r="758">
       <c r="A758" s="20"/>
       <c r="F758" s="21"/>
+      <c r="H758" s="20"/>
     </row>
     <row r="759">
       <c r="A759" s="20"/>
       <c r="F759" s="21"/>
+      <c r="H759" s="20"/>
     </row>
     <row r="760">
       <c r="A760" s="20"/>
       <c r="F760" s="21"/>
+      <c r="H760" s="20"/>
     </row>
     <row r="761">
       <c r="A761" s="20"/>
       <c r="F761" s="21"/>
+      <c r="H761" s="20"/>
     </row>
     <row r="762">
       <c r="A762" s="20"/>
       <c r="F762" s="21"/>
+      <c r="H762" s="20"/>
     </row>
     <row r="763">
       <c r="A763" s="20"/>
       <c r="F763" s="21"/>
+      <c r="H763" s="20"/>
     </row>
     <row r="764">
       <c r="A764" s="20"/>
       <c r="F764" s="21"/>
+      <c r="H764" s="20"/>
     </row>
     <row r="765">
       <c r="A765" s="20"/>
       <c r="F765" s="21"/>
+      <c r="H765" s="20"/>
     </row>
     <row r="766">
       <c r="A766" s="20"/>
       <c r="F766" s="21"/>
+      <c r="H766" s="20"/>
     </row>
     <row r="767">
       <c r="A767" s="20"/>
       <c r="F767" s="21"/>
+      <c r="H767" s="20"/>
     </row>
     <row r="768">
       <c r="A768" s="20"/>
       <c r="F768" s="21"/>
+      <c r="H768" s="20"/>
     </row>
     <row r="769">
       <c r="A769" s="20"/>
       <c r="F769" s="21"/>
+      <c r="H769" s="20"/>
     </row>
     <row r="770">
       <c r="A770" s="20"/>
       <c r="F770" s="21"/>
+      <c r="H770" s="20"/>
     </row>
     <row r="771">
       <c r="A771" s="20"/>
       <c r="F771" s="21"/>
+      <c r="H771" s="20"/>
     </row>
     <row r="772">
       <c r="A772" s="20"/>
       <c r="F772" s="21"/>
+      <c r="H772" s="20"/>
     </row>
     <row r="773">
       <c r="A773" s="20"/>
       <c r="F773" s="21"/>
+      <c r="H773" s="20"/>
     </row>
     <row r="774">
       <c r="A774" s="20"/>
       <c r="F774" s="21"/>
+      <c r="H774" s="20"/>
     </row>
     <row r="775">
       <c r="A775" s="20"/>
       <c r="F775" s="21"/>
+      <c r="H775" s="20"/>
     </row>
     <row r="776">
       <c r="A776" s="20"/>
       <c r="F776" s="21"/>
+      <c r="H776" s="20"/>
     </row>
     <row r="777">
       <c r="A777" s="20"/>
       <c r="F777" s="21"/>
+      <c r="H777" s="20"/>
     </row>
     <row r="778">
       <c r="A778" s="20"/>
       <c r="F778" s="21"/>
+      <c r="H778" s="20"/>
     </row>
     <row r="779">
       <c r="A779" s="20"/>
       <c r="F779" s="21"/>
+      <c r="H779" s="20"/>
     </row>
     <row r="780">
       <c r="A780" s="20"/>
       <c r="F780" s="21"/>
+      <c r="H780" s="20"/>
     </row>
     <row r="781">
       <c r="A781" s="20"/>
       <c r="F781" s="21"/>
+      <c r="H781" s="20"/>
     </row>
     <row r="782">
       <c r="A782" s="20"/>
       <c r="F782" s="21"/>
+      <c r="H782" s="20"/>
     </row>
     <row r="783">
       <c r="A783" s="20"/>
       <c r="F783" s="21"/>
+      <c r="H783" s="20"/>
     </row>
     <row r="784">
       <c r="A784" s="20"/>
       <c r="F784" s="21"/>
+      <c r="H784" s="20"/>
     </row>
     <row r="785">
       <c r="A785" s="20"/>
       <c r="F785" s="21"/>
+      <c r="H785" s="20"/>
     </row>
     <row r="786">
       <c r="A786" s="20"/>
       <c r="F786" s="21"/>
+      <c r="H786" s="20"/>
     </row>
     <row r="787">
       <c r="A787" s="20"/>
       <c r="F787" s="21"/>
+      <c r="H787" s="20"/>
     </row>
     <row r="788">
       <c r="A788" s="20"/>
       <c r="F788" s="21"/>
+      <c r="H788" s="20"/>
     </row>
     <row r="789">
       <c r="A789" s="20"/>
       <c r="F789" s="21"/>
+      <c r="H789" s="20"/>
     </row>
     <row r="790">
       <c r="A790" s="20"/>
       <c r="F790" s="21"/>
+      <c r="H790" s="20"/>
     </row>
     <row r="791">
       <c r="A791" s="20"/>
       <c r="F791" s="21"/>
+      <c r="H791" s="20"/>
     </row>
     <row r="792">
       <c r="A792" s="20"/>
       <c r="F792" s="21"/>
+      <c r="H792" s="20"/>
     </row>
     <row r="793">
       <c r="A793" s="20"/>
       <c r="F793" s="21"/>
+      <c r="H793" s="20"/>
     </row>
     <row r="794">
       <c r="A794" s="20"/>
       <c r="F794" s="21"/>
+      <c r="H794" s="20"/>
     </row>
     <row r="795">
       <c r="A795" s="20"/>
       <c r="F795" s="21"/>
+      <c r="H795" s="20"/>
     </row>
     <row r="796">
       <c r="A796" s="20"/>
       <c r="F796" s="21"/>
+      <c r="H796" s="20"/>
     </row>
     <row r="797">
       <c r="A797" s="20"/>
       <c r="F797" s="21"/>
+      <c r="H797" s="20"/>
     </row>
     <row r="798">
       <c r="A798" s="20"/>
       <c r="F798" s="21"/>
+      <c r="H798" s="20"/>
     </row>
     <row r="799">
       <c r="A799" s="20"/>
       <c r="F799" s="21"/>
+      <c r="H799" s="20"/>
     </row>
     <row r="800">
       <c r="A800" s="20"/>
       <c r="F800" s="21"/>
+      <c r="H800" s="20"/>
     </row>
     <row r="801">
       <c r="A801" s="20"/>
       <c r="F801" s="21"/>
+      <c r="H801" s="20"/>
     </row>
     <row r="802">
       <c r="A802" s="20"/>
       <c r="F802" s="21"/>
+      <c r="H802" s="20"/>
     </row>
     <row r="803">
       <c r="A803" s="20"/>
       <c r="F803" s="21"/>
+      <c r="H803" s="20"/>
     </row>
     <row r="804">
       <c r="A804" s="20"/>
       <c r="F804" s="21"/>
+      <c r="H804" s="20"/>
     </row>
     <row r="805">
       <c r="A805" s="20"/>
       <c r="F805" s="21"/>
+      <c r="H805" s="20"/>
     </row>
     <row r="806">
       <c r="A806" s="20"/>
       <c r="F806" s="21"/>
+      <c r="H806" s="20"/>
     </row>
     <row r="807">
       <c r="A807" s="20"/>
       <c r="F807" s="21"/>
+      <c r="H807" s="20"/>
     </row>
     <row r="808">
       <c r="A808" s="20"/>
       <c r="F808" s="21"/>
+      <c r="H808" s="20"/>
     </row>
     <row r="809">
       <c r="A809" s="20"/>
       <c r="F809" s="21"/>
+      <c r="H809" s="20"/>
     </row>
     <row r="810">
       <c r="A810" s="20"/>
       <c r="F810" s="21"/>
+      <c r="H810" s="20"/>
     </row>
     <row r="811">
       <c r="A811" s="20"/>
       <c r="F811" s="21"/>
+      <c r="H811" s="20"/>
     </row>
     <row r="812">
       <c r="A812" s="20"/>
       <c r="F812" s="21"/>
+      <c r="H812" s="20"/>
     </row>
     <row r="813">
       <c r="A813" s="20"/>
       <c r="F813" s="21"/>
+      <c r="H813" s="20"/>
     </row>
     <row r="814">
       <c r="A814" s="20"/>
       <c r="F814" s="21"/>
+      <c r="H814" s="20"/>
     </row>
     <row r="815">
       <c r="A815" s="20"/>
       <c r="F815" s="21"/>
+      <c r="H815" s="20"/>
     </row>
     <row r="816">
       <c r="A816" s="20"/>
       <c r="F816" s="21"/>
+      <c r="H816" s="20"/>
     </row>
     <row r="817">
       <c r="A817" s="20"/>
       <c r="F817" s="21"/>
+      <c r="H817" s="20"/>
     </row>
     <row r="818">
       <c r="A818" s="20"/>
       <c r="F818" s="21"/>
+      <c r="H818" s="20"/>
     </row>
     <row r="819">
       <c r="A819" s="20"/>
       <c r="F819" s="21"/>
+      <c r="H819" s="20"/>
     </row>
     <row r="820">
       <c r="A820" s="20"/>
       <c r="F820" s="21"/>
+      <c r="H820" s="20"/>
     </row>
     <row r="821">
       <c r="A821" s="20"/>
       <c r="F821" s="21"/>
+      <c r="H821" s="20"/>
     </row>
     <row r="822">
       <c r="A822" s="20"/>
       <c r="F822" s="21"/>
+      <c r="H822" s="20"/>
     </row>
     <row r="823">
       <c r="A823" s="20"/>
       <c r="F823" s="21"/>
+      <c r="H823" s="20"/>
     </row>
     <row r="824">
       <c r="A824" s="20"/>
       <c r="F824" s="21"/>
+      <c r="H824" s="20"/>
     </row>
     <row r="825">
       <c r="A825" s="20"/>
       <c r="F825" s="21"/>
+      <c r="H825" s="20"/>
     </row>
     <row r="826">
       <c r="A826" s="20"/>
       <c r="F826" s="21"/>
+      <c r="H826" s="20"/>
     </row>
     <row r="827">
       <c r="A827" s="20"/>
       <c r="F827" s="21"/>
+      <c r="H827" s="20"/>
     </row>
     <row r="828">
       <c r="A828" s="20"/>
       <c r="F828" s="21"/>
+      <c r="H828" s="20"/>
     </row>
     <row r="829">
       <c r="A829" s="20"/>
       <c r="F829" s="21"/>
+      <c r="H829" s="20"/>
     </row>
     <row r="830">
       <c r="A830" s="20"/>
       <c r="F830" s="21"/>
+      <c r="H830" s="20"/>
     </row>
     <row r="831">
       <c r="A831" s="20"/>
       <c r="F831" s="21"/>
+      <c r="H831" s="20"/>
     </row>
     <row r="832">
       <c r="A832" s="20"/>
       <c r="F832" s="21"/>
+      <c r="H832" s="20"/>
     </row>
     <row r="833">
       <c r="A833" s="20"/>
       <c r="F833" s="21"/>
+      <c r="H833" s="20"/>
     </row>
     <row r="834">
       <c r="A834" s="20"/>
       <c r="F834" s="21"/>
+      <c r="H834" s="20"/>
     </row>
     <row r="835">
       <c r="A835" s="20"/>
       <c r="F835" s="21"/>
+      <c r="H835" s="20"/>
     </row>
     <row r="836">
       <c r="A836" s="20"/>
       <c r="F836" s="21"/>
+      <c r="H836" s="20"/>
     </row>
     <row r="837">
       <c r="A837" s="20"/>
       <c r="F837" s="21"/>
+      <c r="H837" s="20"/>
     </row>
     <row r="838">
       <c r="A838" s="20"/>
       <c r="F838" s="21"/>
+      <c r="H838" s="20"/>
     </row>
     <row r="839">
       <c r="A839" s="20"/>
       <c r="F839" s="21"/>
+      <c r="H839" s="20"/>
     </row>
     <row r="840">
       <c r="A840" s="20"/>
       <c r="F840" s="21"/>
+      <c r="H840" s="20"/>
     </row>
     <row r="841">
       <c r="A841" s="20"/>
       <c r="F841" s="21"/>
+      <c r="H841" s="20"/>
     </row>
     <row r="842">
       <c r="A842" s="20"/>
       <c r="F842" s="21"/>
+      <c r="H842" s="20"/>
     </row>
     <row r="843">
       <c r="A843" s="20"/>
       <c r="F843" s="21"/>
+      <c r="H843" s="20"/>
     </row>
     <row r="844">
       <c r="A844" s="20"/>
       <c r="F844" s="21"/>
+      <c r="H844" s="20"/>
     </row>
     <row r="845">
       <c r="A845" s="20"/>
       <c r="F845" s="21"/>
+      <c r="H845" s="20"/>
     </row>
     <row r="846">
       <c r="A846" s="20"/>
       <c r="F846" s="21"/>
+      <c r="H846" s="20"/>
     </row>
     <row r="847">
       <c r="A847" s="20"/>
       <c r="F847" s="21"/>
+      <c r="H847" s="20"/>
     </row>
     <row r="848">
       <c r="A848" s="20"/>
       <c r="F848" s="21"/>
+      <c r="H848" s="20"/>
     </row>
     <row r="849">
       <c r="A849" s="20"/>
       <c r="F849" s="21"/>
+      <c r="H849" s="20"/>
     </row>
     <row r="850">
       <c r="A850" s="20"/>
       <c r="F850" s="21"/>
+      <c r="H850" s="20"/>
     </row>
     <row r="851">
       <c r="A851" s="20"/>
       <c r="F851" s="21"/>
+      <c r="H851" s="20"/>
     </row>
     <row r="852">
       <c r="A852" s="20"/>
       <c r="F852" s="21"/>
+      <c r="H852" s="20"/>
     </row>
     <row r="853">
       <c r="A853" s="20"/>
       <c r="F853" s="21"/>
+      <c r="H853" s="20"/>
     </row>
     <row r="854">
       <c r="A854" s="20"/>
       <c r="F854" s="21"/>
+      <c r="H854" s="20"/>
     </row>
     <row r="855">
       <c r="A855" s="20"/>
       <c r="F855" s="21"/>
+      <c r="H855" s="20"/>
     </row>
     <row r="856">
       <c r="A856" s="20"/>
       <c r="F856" s="21"/>
+      <c r="H856" s="20"/>
     </row>
     <row r="857">
       <c r="A857" s="20"/>
       <c r="F857" s="21"/>
+      <c r="H857" s="20"/>
     </row>
     <row r="858">
       <c r="A858" s="20"/>
       <c r="F858" s="21"/>
+      <c r="H858" s="20"/>
     </row>
     <row r="859">
       <c r="A859" s="20"/>
       <c r="F859" s="21"/>
+      <c r="H859" s="20"/>
     </row>
     <row r="860">
       <c r="A860" s="20"/>
       <c r="F860" s="21"/>
+      <c r="H860" s="20"/>
     </row>
     <row r="861">
       <c r="A861" s="20"/>
       <c r="F861" s="21"/>
+      <c r="H861" s="20"/>
     </row>
     <row r="862">
       <c r="A862" s="20"/>
       <c r="F862" s="21"/>
+      <c r="H862" s="20"/>
     </row>
     <row r="863">
       <c r="A863" s="20"/>
       <c r="F863" s="21"/>
+      <c r="H863" s="20"/>
     </row>
     <row r="864">
       <c r="A864" s="20"/>
       <c r="F864" s="21"/>
+      <c r="H864" s="20"/>
     </row>
     <row r="865">
       <c r="A865" s="20"/>
       <c r="F865" s="21"/>
+      <c r="H865" s="20"/>
     </row>
     <row r="866">
       <c r="A866" s="20"/>
       <c r="F866" s="21"/>
+      <c r="H866" s="20"/>
     </row>
     <row r="867">
       <c r="A867" s="20"/>
       <c r="F867" s="21"/>
+      <c r="H867" s="20"/>
     </row>
     <row r="868">
       <c r="A868" s="20"/>
       <c r="F868" s="21"/>
+      <c r="H868" s="20"/>
     </row>
     <row r="869">
       <c r="A869" s="20"/>
       <c r="F869" s="21"/>
+      <c r="H869" s="20"/>
     </row>
     <row r="870">
       <c r="A870" s="20"/>
       <c r="F870" s="21"/>
+      <c r="H870" s="20"/>
     </row>
     <row r="871">
       <c r="A871" s="20"/>
       <c r="F871" s="21"/>
+      <c r="H871" s="20"/>
     </row>
     <row r="872">
       <c r="A872" s="20"/>
       <c r="F872" s="21"/>
+      <c r="H872" s="20"/>
     </row>
     <row r="873">
       <c r="A873" s="20"/>
       <c r="F873" s="21"/>
+      <c r="H873" s="20"/>
     </row>
     <row r="874">
       <c r="A874" s="20"/>
       <c r="F874" s="21"/>
+      <c r="H874" s="20"/>
     </row>
     <row r="875">
       <c r="A875" s="20"/>
       <c r="F875" s="21"/>
+      <c r="H875" s="20"/>
     </row>
     <row r="876">
       <c r="A876" s="20"/>
       <c r="F876" s="21"/>
+      <c r="H876" s="20"/>
     </row>
     <row r="877">
       <c r="A877" s="20"/>
       <c r="F877" s="21"/>
+      <c r="H877" s="20"/>
     </row>
     <row r="878">
       <c r="A878" s="20"/>
       <c r="F878" s="21"/>
+      <c r="H878" s="20"/>
     </row>
     <row r="879">
       <c r="A879" s="20"/>
       <c r="F879" s="21"/>
+      <c r="H879" s="20"/>
     </row>
     <row r="880">
       <c r="A880" s="20"/>
       <c r="F880" s="21"/>
+      <c r="H880" s="20"/>
     </row>
     <row r="881">
       <c r="A881" s="20"/>
       <c r="F881" s="21"/>
+      <c r="H881" s="20"/>
     </row>
     <row r="882">
       <c r="A882" s="20"/>
       <c r="F882" s="21"/>
+      <c r="H882" s="20"/>
     </row>
     <row r="883">
       <c r="A883" s="20"/>
       <c r="F883" s="21"/>
+      <c r="H883" s="20"/>
     </row>
     <row r="884">
       <c r="A884" s="20"/>
       <c r="F884" s="21"/>
+      <c r="H884" s="20"/>
     </row>
     <row r="885">
       <c r="A885" s="20"/>
       <c r="F885" s="21"/>
+      <c r="H885" s="20"/>
     </row>
     <row r="886">
       <c r="A886" s="20"/>
       <c r="F886" s="21"/>
+      <c r="H886" s="20"/>
     </row>
     <row r="887">
       <c r="A887" s="20"/>
       <c r="F887" s="21"/>
+      <c r="H887" s="20"/>
     </row>
     <row r="888">
       <c r="A888" s="20"/>
       <c r="F888" s="21"/>
+      <c r="H888" s="20"/>
     </row>
     <row r="889">
       <c r="A889" s="20"/>
       <c r="F889" s="21"/>
+      <c r="H889" s="20"/>
     </row>
     <row r="890">
       <c r="A890" s="20"/>
       <c r="F890" s="21"/>
+      <c r="H890" s="20"/>
     </row>
     <row r="891">
       <c r="A891" s="20"/>
       <c r="F891" s="21"/>
+      <c r="H891" s="20"/>
     </row>
     <row r="892">
       <c r="A892" s="20"/>
       <c r="F892" s="21"/>
+      <c r="H892" s="20"/>
     </row>
     <row r="893">
       <c r="A893" s="20"/>
       <c r="F893" s="21"/>
+      <c r="H893" s="20"/>
     </row>
     <row r="894">
       <c r="A894" s="20"/>
       <c r="F894" s="21"/>
+      <c r="H894" s="20"/>
     </row>
     <row r="895">
       <c r="A895" s="20"/>
       <c r="F895" s="21"/>
+      <c r="H895" s="20"/>
     </row>
     <row r="896">
       <c r="A896" s="20"/>
       <c r="F896" s="21"/>
+      <c r="H896" s="20"/>
     </row>
     <row r="897">
       <c r="A897" s="20"/>
       <c r="F897" s="21"/>
+      <c r="H897" s="20"/>
     </row>
     <row r="898">
       <c r="A898" s="20"/>
       <c r="F898" s="21"/>
+      <c r="H898" s="20"/>
     </row>
     <row r="899">
       <c r="A899" s="20"/>
       <c r="F899" s="21"/>
+      <c r="H899" s="20"/>
     </row>
     <row r="900">
       <c r="A900" s="20"/>
       <c r="F900" s="21"/>
+      <c r="H900" s="20"/>
     </row>
     <row r="901">
       <c r="A901" s="20"/>
       <c r="F901" s="21"/>
+      <c r="H901" s="20"/>
     </row>
     <row r="902">
       <c r="A902" s="20"/>
       <c r="F902" s="21"/>
+      <c r="H902" s="20"/>
     </row>
     <row r="903">
       <c r="A903" s="20"/>
       <c r="F903" s="21"/>
+      <c r="H903" s="20"/>
     </row>
     <row r="904">
       <c r="A904" s="20"/>
       <c r="F904" s="21"/>
+      <c r="H904" s="20"/>
     </row>
     <row r="905">
       <c r="A905" s="20"/>
       <c r="F905" s="21"/>
+      <c r="H905" s="20"/>
     </row>
     <row r="906">
       <c r="A906" s="20"/>
       <c r="F906" s="21"/>
+      <c r="H906" s="20"/>
     </row>
     <row r="907">
       <c r="A907" s="20"/>
       <c r="F907" s="21"/>
+      <c r="H907" s="20"/>
     </row>
     <row r="908">
       <c r="A908" s="20"/>
       <c r="F908" s="21"/>
+      <c r="H908" s="20"/>
     </row>
     <row r="909">
       <c r="A909" s="20"/>
       <c r="F909" s="21"/>
+      <c r="H909" s="20"/>
     </row>
     <row r="910">
       <c r="A910" s="20"/>
       <c r="F910" s="21"/>
+      <c r="H910" s="20"/>
     </row>
     <row r="911">
       <c r="A911" s="20"/>
       <c r="F911" s="21"/>
+      <c r="H911" s="20"/>
     </row>
     <row r="912">
       <c r="A912" s="20"/>
       <c r="F912" s="21"/>
+      <c r="H912" s="20"/>
     </row>
     <row r="913">
       <c r="A913" s="20"/>
       <c r="F913" s="21"/>
+      <c r="H913" s="20"/>
     </row>
     <row r="914">
       <c r="A914" s="20"/>
       <c r="F914" s="21"/>
+      <c r="H914" s="20"/>
     </row>
     <row r="915">
       <c r="A915" s="20"/>
       <c r="F915" s="21"/>
+      <c r="H915" s="20"/>
     </row>
     <row r="916">
       <c r="A916" s="20"/>
       <c r="F916" s="21"/>
+      <c r="H916" s="20"/>
     </row>
     <row r="917">
       <c r="A917" s="20"/>
       <c r="F917" s="21"/>
+      <c r="H917" s="20"/>
     </row>
     <row r="918">
       <c r="A918" s="20"/>
       <c r="F918" s="21"/>
+      <c r="H918" s="20"/>
     </row>
     <row r="919">
       <c r="A919" s="20"/>
       <c r="F919" s="21"/>
+      <c r="H919" s="20"/>
     </row>
     <row r="920">
       <c r="A920" s="20"/>
       <c r="F920" s="21"/>
+      <c r="H920" s="20"/>
     </row>
     <row r="921">
       <c r="A921" s="20"/>
       <c r="F921" s="21"/>
+      <c r="H921" s="20"/>
     </row>
     <row r="922">
       <c r="A922" s="20"/>
       <c r="F922" s="21"/>
+      <c r="H922" s="20"/>
     </row>
     <row r="923">
       <c r="A923" s="20"/>
       <c r="F923" s="21"/>
+      <c r="H923" s="20"/>
     </row>
     <row r="924">
       <c r="A924" s="20"/>
       <c r="F924" s="21"/>
+      <c r="H924" s="20"/>
     </row>
     <row r="925">
       <c r="A925" s="20"/>
       <c r="F925" s="21"/>
+      <c r="H925" s="20"/>
     </row>
     <row r="926">
       <c r="A926" s="20"/>
       <c r="F926" s="21"/>
+      <c r="H926" s="20"/>
     </row>
     <row r="927">
       <c r="A927" s="20"/>
       <c r="F927" s="21"/>
+      <c r="H927" s="20"/>
     </row>
     <row r="928">
       <c r="A928" s="20"/>
       <c r="F928" s="21"/>
+      <c r="H928" s="20"/>
     </row>
     <row r="929">
       <c r="A929" s="20"/>
       <c r="F929" s="21"/>
+      <c r="H929" s="20"/>
     </row>
     <row r="930">
       <c r="A930" s="20"/>
       <c r="F930" s="21"/>
+      <c r="H930" s="20"/>
     </row>
     <row r="931">
       <c r="A931" s="20"/>
       <c r="F931" s="21"/>
+      <c r="H931" s="20"/>
     </row>
     <row r="932">
       <c r="A932" s="20"/>
       <c r="F932" s="21"/>
+      <c r="H932" s="20"/>
     </row>
     <row r="933">
       <c r="A933" s="20"/>
       <c r="F933" s="21"/>
+      <c r="H933" s="20"/>
     </row>
     <row r="934">
       <c r="A934" s="20"/>
       <c r="F934" s="21"/>
+      <c r="H934" s="20"/>
     </row>
     <row r="935">
       <c r="A935" s="20"/>
       <c r="F935" s="21"/>
+      <c r="H935" s="20"/>
     </row>
     <row r="936">
       <c r="A936" s="20"/>
       <c r="F936" s="21"/>
+      <c r="H936" s="20"/>
     </row>
     <row r="937">
       <c r="A937" s="20"/>
       <c r="F937" s="21"/>
+      <c r="H937" s="20"/>
     </row>
     <row r="938">
       <c r="A938" s="20"/>
       <c r="F938" s="21"/>
+      <c r="H938" s="20"/>
     </row>
     <row r="939">
       <c r="A939" s="20"/>
       <c r="F939" s="21"/>
+      <c r="H939" s="20"/>
     </row>
     <row r="940">
       <c r="A940" s="20"/>
       <c r="F940" s="21"/>
+      <c r="H940" s="20"/>
     </row>
     <row r="941">
       <c r="A941" s="20"/>
       <c r="F941" s="21"/>
+      <c r="H941" s="20"/>
     </row>
     <row r="942">
       <c r="A942" s="20"/>
       <c r="F942" s="21"/>
+      <c r="H942" s="20"/>
     </row>
     <row r="943">
       <c r="A943" s="20"/>
       <c r="F943" s="21"/>
+      <c r="H943" s="20"/>
     </row>
     <row r="944">
       <c r="A944" s="20"/>
       <c r="F944" s="21"/>
+      <c r="H944" s="20"/>
     </row>
     <row r="945">
       <c r="A945" s="20"/>
       <c r="F945" s="21"/>
+      <c r="H945" s="20"/>
     </row>
     <row r="946">
       <c r="A946" s="20"/>
       <c r="F946" s="21"/>
+      <c r="H946" s="20"/>
     </row>
     <row r="947">
       <c r="A947" s="20"/>
       <c r="F947" s="21"/>
+      <c r="H947" s="20"/>
     </row>
     <row r="948">
       <c r="A948" s="20"/>
       <c r="F948" s="21"/>
+      <c r="H948" s="20"/>
     </row>
     <row r="949">
       <c r="A949" s="20"/>
       <c r="F949" s="21"/>
+      <c r="H949" s="20"/>
     </row>
     <row r="950">
       <c r="A950" s="20"/>
       <c r="F950" s="21"/>
+      <c r="H950" s="20"/>
     </row>
     <row r="951">
       <c r="A951" s="20"/>
       <c r="F951" s="21"/>
+      <c r="H951" s="20"/>
     </row>
     <row r="952">
       <c r="A952" s="20"/>
       <c r="F952" s="21"/>
+      <c r="H952" s="20"/>
     </row>
     <row r="953">
       <c r="A953" s="20"/>
       <c r="F953" s="21"/>
+      <c r="H953" s="20"/>
     </row>
     <row r="954">
       <c r="A954" s="20"/>
       <c r="F954" s="21"/>
+      <c r="H954" s="20"/>
     </row>
     <row r="955">
       <c r="A955" s="20"/>
       <c r="F955" s="21"/>
+      <c r="H955" s="20"/>
     </row>
     <row r="956">
       <c r="A956" s="20"/>
       <c r="F956" s="21"/>
+      <c r="H956" s="20"/>
     </row>
     <row r="957">
       <c r="A957" s="20"/>
       <c r="F957" s="21"/>
+      <c r="H957" s="20"/>
     </row>
     <row r="958">
       <c r="A958" s="20"/>
       <c r="F958" s="21"/>
+      <c r="H958" s="20"/>
     </row>
     <row r="959">
       <c r="A959" s="20"/>
       <c r="F959" s="21"/>
+      <c r="H959" s="20"/>
     </row>
     <row r="960">
       <c r="A960" s="20"/>
       <c r="F960" s="21"/>
+      <c r="H960" s="20"/>
     </row>
     <row r="961">
       <c r="A961" s="20"/>
       <c r="F961" s="21"/>
+      <c r="H961" s="20"/>
     </row>
     <row r="962">
       <c r="A962" s="20"/>
       <c r="F962" s="21"/>
+      <c r="H962" s="20"/>
     </row>
     <row r="963">
       <c r="A963" s="20"/>
       <c r="F963" s="21"/>
+      <c r="H963" s="20"/>
     </row>
     <row r="964">
       <c r="A964" s="20"/>
       <c r="F964" s="21"/>
+      <c r="H964" s="20"/>
     </row>
     <row r="965">
       <c r="A965" s="20"/>
       <c r="F965" s="21"/>
+      <c r="H965" s="20"/>
     </row>
     <row r="966">
       <c r="A966" s="20"/>
       <c r="F966" s="21"/>
+      <c r="H966" s="20"/>
     </row>
     <row r="967">
       <c r="A967" s="20"/>
       <c r="F967" s="21"/>
+      <c r="H967" s="20"/>
     </row>
     <row r="968">
       <c r="A968" s="20"/>
       <c r="F968" s="21"/>
+      <c r="H968" s="20"/>
     </row>
     <row r="969">
       <c r="A969" s="20"/>
       <c r="F969" s="21"/>
+      <c r="H969" s="20"/>
     </row>
     <row r="970">
       <c r="A970" s="20"/>
       <c r="F970" s="21"/>
+      <c r="H970" s="20"/>
     </row>
     <row r="971">
       <c r="A971" s="20"/>
       <c r="F971" s="21"/>
+      <c r="H971" s="20"/>
     </row>
     <row r="972">
       <c r="A972" s="20"/>
       <c r="F972" s="21"/>
+      <c r="H972" s="20"/>
     </row>
     <row r="973">
       <c r="A973" s="20"/>
       <c r="F973" s="21"/>
+      <c r="H973" s="20"/>
     </row>
     <row r="974">
       <c r="A974" s="20"/>
       <c r="F974" s="21"/>
+      <c r="H974" s="20"/>
     </row>
     <row r="975">
       <c r="A975" s="20"/>
       <c r="F975" s="21"/>
+      <c r="H975" s="20"/>
     </row>
     <row r="976">
       <c r="A976" s="20"/>
       <c r="F976" s="21"/>
+      <c r="H976" s="20"/>
     </row>
     <row r="977">
       <c r="A977" s="20"/>
       <c r="F977" s="21"/>
+      <c r="H977" s="20"/>
     </row>
     <row r="978">
       <c r="A978" s="20"/>
       <c r="F978" s="21"/>
+      <c r="H978" s="20"/>
     </row>
     <row r="979">
       <c r="A979" s="20"/>
       <c r="F979" s="21"/>
+      <c r="H979" s="20"/>
     </row>
     <row r="980">
       <c r="A980" s="20"/>
       <c r="F980" s="21"/>
+      <c r="H980" s="20"/>
     </row>
     <row r="981">
       <c r="A981" s="20"/>
       <c r="F981" s="21"/>
+      <c r="H981" s="20"/>
     </row>
     <row r="982">
       <c r="A982" s="20"/>
       <c r="F982" s="21"/>
+      <c r="H982" s="20"/>
     </row>
     <row r="983">
       <c r="A983" s="20"/>
       <c r="F983" s="21"/>
+      <c r="H983" s="20"/>
     </row>
     <row r="984">
       <c r="A984" s="20"/>
       <c r="F984" s="21"/>
+      <c r="H984" s="20"/>
     </row>
     <row r="985">
       <c r="A985" s="20"/>
       <c r="F985" s="21"/>
+      <c r="H985" s="20"/>
     </row>
     <row r="986">
       <c r="A986" s="20"/>
       <c r="F986" s="21"/>
+      <c r="H986" s="20"/>
     </row>
     <row r="987">
       <c r="A987" s="20"/>
       <c r="F987" s="21"/>
+      <c r="H987" s="20"/>
     </row>
     <row r="988">
       <c r="A988" s="20"/>
       <c r="F988" s="21"/>
+      <c r="H988" s="20"/>
     </row>
     <row r="989">
       <c r="A989" s="20"/>
       <c r="F989" s="21"/>
+      <c r="H989" s="20"/>
     </row>
     <row r="990">
       <c r="A990" s="20"/>
       <c r="F990" s="21"/>
+      <c r="H990" s="20"/>
     </row>
     <row r="991">
       <c r="A991" s="20"/>
       <c r="F991" s="21"/>
+      <c r="H991" s="20"/>
     </row>
     <row r="992">
       <c r="A992" s="20"/>
       <c r="F992" s="21"/>
+      <c r="H992" s="20"/>
     </row>
     <row r="993">
       <c r="A993" s="20"/>
       <c r="F993" s="21"/>
+      <c r="H993" s="20"/>
     </row>
     <row r="994">
       <c r="A994" s="20"/>
       <c r="F994" s="21"/>
+      <c r="H994" s="20"/>
     </row>
     <row r="995">
       <c r="A995" s="20"/>
       <c r="F995" s="21"/>
+      <c r="H995" s="20"/>
     </row>
     <row r="996">
       <c r="A996" s="20"/>
       <c r="F996" s="21"/>
+      <c r="H996" s="20"/>
     </row>
     <row r="997">
       <c r="A997" s="20"/>
       <c r="F997" s="21"/>
+      <c r="H997" s="20"/>
     </row>
     <row r="998">
       <c r="A998" s="20"/>
       <c r="F998" s="21"/>
+      <c r="H998" s="20"/>
     </row>
     <row r="999">
       <c r="A999" s="20"/>
       <c r="F999" s="21"/>
+      <c r="H999" s="20"/>
     </row>
     <row r="1000">
       <c r="A1000" s="20"/>
       <c r="F1000" s="21"/>
+      <c r="H1000" s="20"/>
     </row>
     <row r="1001">
       <c r="A1001" s="20"/>
       <c r="F1001" s="21"/>
+      <c r="H1001" s="20"/>
     </row>
     <row r="1002">
       <c r="A1002" s="20"/>
       <c r="F1002" s="21"/>
+      <c r="H1002" s="20"/>
     </row>
     <row r="1003">
       <c r="A1003" s="20"/>
       <c r="F1003" s="21"/>
+      <c r="H1003" s="20"/>
     </row>
     <row r="1004">
       <c r="A1004" s="20"/>
       <c r="F1004" s="21"/>
+      <c r="H1004" s="20"/>
     </row>
     <row r="1005">
       <c r="A1005" s="20"/>
       <c r="F1005" s="21"/>
+      <c r="H1005" s="20"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="20"/>
+      <c r="F1006" s="21"/>
+      <c r="H1006" s="20"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="20"/>
+      <c r="F1007" s="21"/>
+      <c r="H1007" s="20"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="20"/>
+      <c r="F1008" s="21"/>
+      <c r="H1008" s="20"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="20"/>
+      <c r="F1009" s="21"/>
+      <c r="H1009" s="20"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="20"/>
+      <c r="F1010" s="21"/>
+      <c r="H1010" s="20"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="20"/>
+      <c r="F1011" s="21"/>
+      <c r="H1011" s="20"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="20"/>
+      <c r="F1012" s="21"/>
+      <c r="H1012" s="20"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="20"/>
+      <c r="F1013" s="21"/>
+      <c r="H1013" s="20"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="20"/>
+      <c r="F1014" s="21"/>
+      <c r="H1014" s="20"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="20"/>
+      <c r="F1015" s="21"/>
+      <c r="H1015" s="20"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="20"/>
+      <c r="F1016" s="21"/>
+      <c r="H1016" s="20"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="20"/>
+      <c r="F1017" s="21"/>
+      <c r="H1017" s="20"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="20"/>
+      <c r="F1018" s="21"/>
+      <c r="H1018" s="20"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="20"/>
+      <c r="F1019" s="21"/>
+      <c r="H1019" s="20"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="20"/>
+      <c r="F1020" s="21"/>
+      <c r="H1020" s="20"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="20"/>
+      <c r="F1021" s="21"/>
+      <c r="H1021" s="20"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="20"/>
+      <c r="F1022" s="21"/>
+      <c r="H1022" s="20"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="20"/>
+      <c r="F1023" s="21"/>
+      <c r="H1023" s="20"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="20"/>
+      <c r="F1024" s="21"/>
+      <c r="H1024" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
